--- a/Divisions/SC1.xlsx
+++ b/Divisions/SC1.xlsx
@@ -12,12 +12,13 @@
     <sheet name="Goals conceded" r:id="rId6" sheetId="4"/>
     <sheet name="Total Goals form" r:id="rId7" sheetId="5"/>
     <sheet name="Goal totals v2" r:id="rId8" sheetId="6"/>
+    <sheet name="L6" r:id="rId9" sheetId="7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2700" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2754" uniqueCount="205">
   <si>
     <t>Team</t>
   </si>
@@ -500,6 +501,138 @@
   </si>
   <si>
     <t>1.9259</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Goals scored</t>
+  </si>
+  <si>
+    <t>Goals conceded</t>
+  </si>
+  <si>
+    <t>Total Goals</t>
+  </si>
+  <si>
+    <t>Alloa,D L L L D W</t>
+  </si>
+  <si>
+    <t>Arbroath,L W D W L D</t>
+  </si>
+  <si>
+    <t>Ayr,D L D L D D</t>
+  </si>
+  <si>
+    <t>Dundee,W D D D W W</t>
+  </si>
+  <si>
+    <t>Dunfermline,D D D W W L</t>
+  </si>
+  <si>
+    <t>Hearts,L D W D W W</t>
+  </si>
+  <si>
+    <t>Inverness C,W W D D L D</t>
+  </si>
+  <si>
+    <t>Morton,L L D D D D</t>
+  </si>
+  <si>
+    <t>Queen of Sth,W D L L D L</t>
+  </si>
+  <si>
+    <t>Raith Rvs,W D W W L L</t>
+  </si>
+  <si>
+    <t>Alloa,2 1 0 1 1 1</t>
+  </si>
+  <si>
+    <t>Arbroath,0 2 2 4 3 0</t>
+  </si>
+  <si>
+    <t>Ayr,2 0 1 0 0 2</t>
+  </si>
+  <si>
+    <t>Dundee,3 1 0 1 2 2</t>
+  </si>
+  <si>
+    <t>Dunfermline,0 1 0 3 4 0</t>
+  </si>
+  <si>
+    <t>Hearts,2 0 6 0 3 4</t>
+  </si>
+  <si>
+    <t>Inverness C,1 4 1 1 0 2</t>
+  </si>
+  <si>
+    <t>Morton,0 1 1 0 1 0</t>
+  </si>
+  <si>
+    <t>Queen of Sth,3 1 0 1 0 0</t>
+  </si>
+  <si>
+    <t>Raith Rvs,5 2 1 2 1 0</t>
+  </si>
+  <si>
+    <t>Alloa,2 2 6 2 1 0</t>
+  </si>
+  <si>
+    <t>Arbroath,1 1 2 0 4 0</t>
+  </si>
+  <si>
+    <t>Ayr,2 3 1 4 0 2</t>
+  </si>
+  <si>
+    <t>Dundee,0 1 0 1 1 0</t>
+  </si>
+  <si>
+    <t>Dunfermline,0 1 0 1 3 1</t>
+  </si>
+  <si>
+    <t>Hearts,3 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t>Inverness C,0 1 1 1 3 2</t>
+  </si>
+  <si>
+    <t>Morton,1 4 1 0 1 0</t>
+  </si>
+  <si>
+    <t>Queen of Sth,2 1 1 3 0 2</t>
+  </si>
+  <si>
+    <t>Raith Rvs,1 2 0 1 2 4</t>
+  </si>
+  <si>
+    <t>Alloa,4 3 6 3 2 1</t>
+  </si>
+  <si>
+    <t>Arbroath,1 3 4 4 7 0</t>
+  </si>
+  <si>
+    <t>Ayr,4 3 2 4 0 4</t>
+  </si>
+  <si>
+    <t>Dundee,3 2 0 2 3 2</t>
+  </si>
+  <si>
+    <t>Dunfermline,0 2 0 4 7 1</t>
+  </si>
+  <si>
+    <t>Hearts,5 0 6 0 3 4</t>
+  </si>
+  <si>
+    <t>Inverness C,1 5 2 2 3 4</t>
+  </si>
+  <si>
+    <t>Morton,1 5 2 0 2 0</t>
+  </si>
+  <si>
+    <t>Queen of Sth,5 2 1 4 0 2</t>
+  </si>
+  <si>
+    <t>Raith Rvs,6 4 1 3 3 4</t>
   </si>
 </sst>
 </file>
@@ -8856,4 +8989,202 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D8" t="s">
+        <v>191</v>
+      </c>
+      <c r="E8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" t="s">
+        <v>182</v>
+      </c>
+      <c r="D9" t="s">
+        <v>192</v>
+      </c>
+      <c r="E9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" t="s">
+        <v>184</v>
+      </c>
+      <c r="D11" t="s">
+        <v>194</v>
+      </c>
+      <c r="E11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/Divisions/SC1.xlsx
+++ b/Divisions/SC1.xlsx
@@ -12,13 +12,14 @@
     <sheet name="Goals conceded" r:id="rId6" sheetId="4"/>
     <sheet name="Total Goals form" r:id="rId7" sheetId="5"/>
     <sheet name="Goal totals v2" r:id="rId8" sheetId="6"/>
-    <sheet name="L6" r:id="rId9" sheetId="7"/>
+    <sheet name="Shots Analysis" r:id="rId9" sheetId="7"/>
+    <sheet name="L6" r:id="rId10" sheetId="8"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2754" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2858" uniqueCount="280">
   <si>
     <t>Team</t>
   </si>
@@ -501,6 +502,231 @@
   </si>
   <si>
     <t>1.9259</t>
+  </si>
+  <si>
+    <t>Group.1</t>
+  </si>
+  <si>
+    <t>hst</t>
+  </si>
+  <si>
+    <t>ast</t>
+  </si>
+  <si>
+    <t>TST</t>
+  </si>
+  <si>
+    <t>TFthg</t>
+  </si>
+  <si>
+    <t>Avg_Fthg</t>
+  </si>
+  <si>
+    <t>TFtag</t>
+  </si>
+  <si>
+    <t>Avg_Ftag</t>
+  </si>
+  <si>
+    <t>TGS</t>
+  </si>
+  <si>
+    <t>HSTC</t>
+  </si>
+  <si>
+    <t>ASTC</t>
+  </si>
+  <si>
+    <t>TSTC</t>
+  </si>
+  <si>
+    <t>hsc</t>
+  </si>
+  <si>
+    <t>asc</t>
+  </si>
+  <si>
+    <t>TSC</t>
+  </si>
+  <si>
+    <t>TFthc</t>
+  </si>
+  <si>
+    <t>Avg_Fthc</t>
+  </si>
+  <si>
+    <t>TFtac</t>
+  </si>
+  <si>
+    <t>Avg_Ftac</t>
+  </si>
+  <si>
+    <t>TGC</t>
+  </si>
+  <si>
+    <t>HSCC</t>
+  </si>
+  <si>
+    <t>ASCC</t>
+  </si>
+  <si>
+    <t>TSCC</t>
+  </si>
+  <si>
+    <t>31.03%</t>
+  </si>
+  <si>
+    <t>30.77%</t>
+  </si>
+  <si>
+    <t>28.21%</t>
+  </si>
+  <si>
+    <t>44.64%</t>
+  </si>
+  <si>
+    <t>35.29%</t>
+  </si>
+  <si>
+    <t>45.83%</t>
+  </si>
+  <si>
+    <t>28.57%</t>
+  </si>
+  <si>
+    <t>31.48%</t>
+  </si>
+  <si>
+    <t>48.00%</t>
+  </si>
+  <si>
+    <t>33.33%</t>
+  </si>
+  <si>
+    <t>30.00%</t>
+  </si>
+  <si>
+    <t>40.82%</t>
+  </si>
+  <si>
+    <t>34.29%</t>
+  </si>
+  <si>
+    <t>28.00%</t>
+  </si>
+  <si>
+    <t>30.16%</t>
+  </si>
+  <si>
+    <t>27.40%</t>
+  </si>
+  <si>
+    <t>27.59%</t>
+  </si>
+  <si>
+    <t>38.89%</t>
+  </si>
+  <si>
+    <t>44.68%</t>
+  </si>
+  <si>
+    <t>31.91%</t>
+  </si>
+  <si>
+    <t>30.43%</t>
+  </si>
+  <si>
+    <t>35.23%</t>
+  </si>
+  <si>
+    <t>32.20%</t>
+  </si>
+  <si>
+    <t>39.62%</t>
+  </si>
+  <si>
+    <t>27.91%</t>
+  </si>
+  <si>
+    <t>35.19%</t>
+  </si>
+  <si>
+    <t>46.39%</t>
+  </si>
+  <si>
+    <t>37.66%</t>
+  </si>
+  <si>
+    <t>28.95%</t>
+  </si>
+  <si>
+    <t>23.08%</t>
+  </si>
+  <si>
+    <t>39.53%</t>
+  </si>
+  <si>
+    <t>26.00%</t>
+  </si>
+  <si>
+    <t>35.56%</t>
+  </si>
+  <si>
+    <t>37.14%</t>
+  </si>
+  <si>
+    <t>30.51%</t>
+  </si>
+  <si>
+    <t>37.50%</t>
+  </si>
+  <si>
+    <t>48.44%</t>
+  </si>
+  <si>
+    <t>37.70%</t>
+  </si>
+  <si>
+    <t>33.78%</t>
+  </si>
+  <si>
+    <t>35.94%</t>
+  </si>
+  <si>
+    <t>36.21%</t>
+  </si>
+  <si>
+    <t>40.30%</t>
+  </si>
+  <si>
+    <t>32.14%</t>
+  </si>
+  <si>
+    <t>42.55%</t>
+  </si>
+  <si>
+    <t>34.34%</t>
+  </si>
+  <si>
+    <t>29.37%</t>
+  </si>
+  <si>
+    <t>37.38%</t>
+  </si>
+  <si>
+    <t>33.80%</t>
+  </si>
+  <si>
+    <t>31.63%</t>
+  </si>
+  <si>
+    <t>31.73%</t>
+  </si>
+  <si>
+    <t>38.93%</t>
+  </si>
+  <si>
+    <t>34.62%</t>
   </si>
   <si>
     <t>Form</t>
@@ -9013,22 +9239,142 @@
       <c r="E1" t="s">
         <v>164</v>
       </c>
+      <c r="F1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J1" t="s">
+        <v>169</v>
+      </c>
+      <c r="K1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M1" t="s">
+        <v>172</v>
+      </c>
+      <c r="N1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O1" t="s">
+        <v>173</v>
+      </c>
+      <c r="P1" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>175</v>
+      </c>
+      <c r="R1" t="s">
+        <v>176</v>
+      </c>
+      <c r="S1" t="s">
+        <v>177</v>
+      </c>
+      <c r="T1" t="s">
+        <v>178</v>
+      </c>
+      <c r="U1" t="s">
+        <v>179</v>
+      </c>
+      <c r="V1" t="s">
+        <v>180</v>
+      </c>
+      <c r="W1" t="s">
+        <v>181</v>
+      </c>
+      <c r="X1" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E2" t="s">
-        <v>195</v>
+        <v>28</v>
+      </c>
+      <c r="C2" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.2857142857142858</v>
+      </c>
+      <c r="H2" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.9230769230769231</v>
+      </c>
+      <c r="J2" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M2" t="s">
+        <v>203</v>
+      </c>
+      <c r="N2" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>141.0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2.0714285714285716</v>
+      </c>
+      <c r="T2" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.3846153846153846</v>
+      </c>
+      <c r="V2" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>211</v>
+      </c>
+      <c r="X2" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="3">
@@ -9036,16 +9382,76 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E3" t="s">
-        <v>196</v>
+        <v>25</v>
+      </c>
+      <c r="C3" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.1428571428571428</v>
+      </c>
+      <c r="H3" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.9230769230769231</v>
+      </c>
+      <c r="J3" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>185</v>
+      </c>
+      <c r="L3" t="s">
+        <v>194</v>
+      </c>
+      <c r="M3" t="s">
+        <v>204</v>
+      </c>
+      <c r="N3" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="T3" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.7692307692307692</v>
+      </c>
+      <c r="V3" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>212</v>
+      </c>
+      <c r="X3" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="4">
@@ -9053,16 +9459,76 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D4" t="s">
-        <v>187</v>
-      </c>
-      <c r="E4" t="s">
-        <v>197</v>
+        <v>26</v>
+      </c>
+      <c r="C4" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.8461538461538461</v>
+      </c>
+      <c r="H4" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="J4" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>186</v>
+      </c>
+      <c r="L4" t="s">
+        <v>195</v>
+      </c>
+      <c r="M4" t="s">
+        <v>205</v>
+      </c>
+      <c r="N4" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>126.0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.9230769230769231</v>
+      </c>
+      <c r="T4" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.7857142857142858</v>
+      </c>
+      <c r="V4" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>213</v>
+      </c>
+      <c r="X4" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="5">
@@ -9070,16 +9536,76 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E5" t="s">
-        <v>198</v>
+        <v>20</v>
+      </c>
+      <c r="C5" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>126.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.9230769230769231</v>
+      </c>
+      <c r="H5" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.7142857142857142</v>
+      </c>
+      <c r="J5" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>187</v>
+      </c>
+      <c r="L5" t="s">
+        <v>196</v>
+      </c>
+      <c r="M5" t="s">
+        <v>201</v>
+      </c>
+      <c r="N5" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>107.0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.3076923076923077</v>
+      </c>
+      <c r="T5" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.6428571428571428</v>
+      </c>
+      <c r="V5" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>214</v>
+      </c>
+      <c r="X5" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="6">
@@ -9087,16 +9613,76 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>169</v>
-      </c>
-      <c r="C6" t="s">
-        <v>179</v>
-      </c>
-      <c r="D6" t="s">
-        <v>189</v>
-      </c>
-      <c r="E6" t="s">
-        <v>199</v>
+        <v>22</v>
+      </c>
+      <c r="C6" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>118.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.7142857142857142</v>
+      </c>
+      <c r="H6" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.0769230769230769</v>
+      </c>
+      <c r="J6" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>188</v>
+      </c>
+      <c r="L6" t="s">
+        <v>197</v>
+      </c>
+      <c r="M6" t="s">
+        <v>206</v>
+      </c>
+      <c r="N6" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="T6" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.6153846153846154</v>
+      </c>
+      <c r="V6" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>215</v>
+      </c>
+      <c r="X6" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="7">
@@ -9104,16 +9690,76 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C7" t="s">
-        <v>180</v>
-      </c>
-      <c r="D7" t="s">
-        <v>190</v>
-      </c>
-      <c r="E7" t="s">
-        <v>200</v>
+        <v>19</v>
+      </c>
+      <c r="C7" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>159.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3.142857142857143</v>
+      </c>
+      <c r="H7" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.4615384615384615</v>
+      </c>
+      <c r="J7" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L7" t="s">
+        <v>198</v>
+      </c>
+      <c r="M7" t="s">
+        <v>207</v>
+      </c>
+      <c r="N7" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.1428571428571428</v>
+      </c>
+      <c r="T7" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="V7" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>216</v>
+      </c>
+      <c r="X7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="8">
@@ -9121,16 +9767,76 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C8" t="s">
-        <v>181</v>
-      </c>
-      <c r="D8" t="s">
-        <v>191</v>
-      </c>
-      <c r="E8" t="s">
-        <v>201</v>
+        <v>23</v>
+      </c>
+      <c r="C8" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>129.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.2307692307692308</v>
+      </c>
+      <c r="H8" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="J8" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>190</v>
+      </c>
+      <c r="L8" t="s">
+        <v>199</v>
+      </c>
+      <c r="M8" t="s">
+        <v>208</v>
+      </c>
+      <c r="N8" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.2857142857142858</v>
+      </c>
+      <c r="V8" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>217</v>
+      </c>
+      <c r="X8" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="9">
@@ -9138,16 +9844,76 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>172</v>
-      </c>
-      <c r="C9" t="s">
-        <v>182</v>
-      </c>
-      <c r="D9" t="s">
-        <v>192</v>
-      </c>
-      <c r="E9" t="s">
-        <v>202</v>
+        <v>27</v>
+      </c>
+      <c r="C9" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="J9" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>190</v>
+      </c>
+      <c r="L9" t="s">
+        <v>200</v>
+      </c>
+      <c r="M9" t="s">
+        <v>186</v>
+      </c>
+      <c r="N9" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>104.0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.2857142857142858</v>
+      </c>
+      <c r="T9" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.1538461538461537</v>
+      </c>
+      <c r="V9" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>218</v>
+      </c>
+      <c r="X9" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="10">
@@ -9155,16 +9921,76 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>173</v>
-      </c>
-      <c r="C10" t="s">
-        <v>183</v>
-      </c>
-      <c r="D10" t="s">
-        <v>193</v>
-      </c>
-      <c r="E10" t="s">
-        <v>203</v>
+        <v>24</v>
+      </c>
+      <c r="C10" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.3076923076923077</v>
+      </c>
+      <c r="H10" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>191</v>
+      </c>
+      <c r="L10" t="s">
+        <v>201</v>
+      </c>
+      <c r="M10" t="s">
+        <v>209</v>
+      </c>
+      <c r="N10" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>131.0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.8461538461538463</v>
+      </c>
+      <c r="T10" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.9285714285714286</v>
+      </c>
+      <c r="V10" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>219</v>
+      </c>
+      <c r="X10" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="11">
@@ -9172,16 +9998,274 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>174</v>
+        <v>21</v>
+      </c>
+      <c r="C11" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.8461538461538463</v>
+      </c>
+      <c r="H11" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>192</v>
+      </c>
+      <c r="L11" t="s">
+        <v>202</v>
+      </c>
+      <c r="M11" t="s">
+        <v>210</v>
+      </c>
+      <c r="N11" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>104.0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.3846153846153846</v>
+      </c>
+      <c r="T11" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.2857142857142858</v>
+      </c>
+      <c r="V11" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>219</v>
+      </c>
+      <c r="X11" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>235</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4" t="s">
+        <v>262</v>
+      </c>
+      <c r="E4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D6" t="s">
+        <v>264</v>
+      </c>
+      <c r="E6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D7" t="s">
+        <v>265</v>
+      </c>
+      <c r="E7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C8" t="s">
+        <v>256</v>
+      </c>
+      <c r="D8" t="s">
+        <v>266</v>
+      </c>
+      <c r="E8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>247</v>
+      </c>
+      <c r="C9" t="s">
+        <v>257</v>
+      </c>
+      <c r="D9" t="s">
+        <v>267</v>
+      </c>
+      <c r="E9" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D10" t="s">
+        <v>268</v>
+      </c>
+      <c r="E10" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>249</v>
       </c>
       <c r="C11" t="s">
-        <v>184</v>
+        <v>259</v>
       </c>
       <c r="D11" t="s">
-        <v>194</v>
+        <v>269</v>
       </c>
       <c r="E11" t="s">
-        <v>204</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/Divisions/SC1.xlsx
+++ b/Divisions/SC1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2858" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2869" uniqueCount="291">
   <si>
     <t>Team</t>
   </si>
@@ -741,6 +741,9 @@
     <t>Total Goals</t>
   </si>
   <si>
+    <t>Team against</t>
+  </si>
+  <si>
     <t>Alloa,D L L L D W</t>
   </si>
   <si>
@@ -859,6 +862,36 @@
   </si>
   <si>
     <t>Raith Rvs,6 4 1 3 3 4</t>
+  </si>
+  <si>
+    <t>Alloa,Ayr Arbroath Hearts Raith Rvs Morton Dunfermline</t>
+  </si>
+  <si>
+    <t>Arbroath,Inverness C Alloa Raith Rvs Ayr Dunfermline Morton</t>
+  </si>
+  <si>
+    <t>Ayr,Alloa Dundee Dunfermline Arbroath Queen of Sth Inverness C</t>
+  </si>
+  <si>
+    <t>Dundee,Ayr Morton Dunfermline Inverness C Raith Rvs Queen of Sth</t>
+  </si>
+  <si>
+    <t>Dunfermline,Hearts Ayr Dundee Queen of Sth Arbroath Alloa</t>
+  </si>
+  <si>
+    <t>Hearts,Queen of Sth Dunfermline Alloa Morton Inverness C Raith Rvs</t>
+  </si>
+  <si>
+    <t>Inverness C,Arbroath Morton Queen of Sth Dundee Hearts Ayr</t>
+  </si>
+  <si>
+    <t>Morton,Raith Rvs Inverness C Dundee Hearts Alloa Arbroath</t>
+  </si>
+  <si>
+    <t>Queen of Sth,Hearts Inverness C Raith Rvs Dunfermline Ayr Dundee</t>
+  </si>
+  <si>
+    <t>Raith Rvs,Dunfermline Arbroath Queen of Sth Alloa Dundee Hearts</t>
   </si>
 </sst>
 </file>
@@ -10097,22 +10130,28 @@
       <c r="E1" t="s">
         <v>239</v>
       </c>
+      <c r="F1" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E2" t="s">
-        <v>270</v>
+        <v>271</v>
+      </c>
+      <c r="F2" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="3">
@@ -10120,16 +10159,19 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E3" t="s">
-        <v>271</v>
+        <v>272</v>
+      </c>
+      <c r="F3" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="4">
@@ -10137,16 +10179,19 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E4" t="s">
-        <v>272</v>
+        <v>273</v>
+      </c>
+      <c r="F4" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="5">
@@ -10154,16 +10199,19 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E5" t="s">
-        <v>273</v>
+        <v>274</v>
+      </c>
+      <c r="F5" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="6">
@@ -10171,16 +10219,19 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E6" t="s">
-        <v>274</v>
+        <v>275</v>
+      </c>
+      <c r="F6" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="7">
@@ -10188,16 +10239,19 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E7" t="s">
-        <v>275</v>
+        <v>276</v>
+      </c>
+      <c r="F7" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="8">
@@ -10205,16 +10259,19 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E8" t="s">
-        <v>276</v>
+        <v>277</v>
+      </c>
+      <c r="F8" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="9">
@@ -10222,16 +10279,19 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C9" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E9" t="s">
-        <v>277</v>
+        <v>278</v>
+      </c>
+      <c r="F9" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="10">
@@ -10239,16 +10299,19 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C10" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D10" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E10" t="s">
-        <v>278</v>
+        <v>279</v>
+      </c>
+      <c r="F10" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="11">
@@ -10256,16 +10319,19 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E11" t="s">
-        <v>279</v>
+        <v>280</v>
+      </c>
+      <c r="F11" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>

--- a/Divisions/SC1.xlsx
+++ b/Divisions/SC1.xlsx
@@ -774,94 +774,94 @@
     <t>Raith Rvs,W D W W L L</t>
   </si>
   <si>
-    <t>Alloa,2 1 0 1 1 1</t>
-  </si>
-  <si>
-    <t>Arbroath,0 2 2 4 3 0</t>
-  </si>
-  <si>
-    <t>Ayr,2 0 1 0 0 2</t>
-  </si>
-  <si>
-    <t>Dundee,3 1 0 1 2 2</t>
-  </si>
-  <si>
-    <t>Dunfermline,0 1 0 3 4 0</t>
-  </si>
-  <si>
-    <t>Hearts,2 0 6 0 3 4</t>
-  </si>
-  <si>
-    <t>Inverness C,1 4 1 1 0 2</t>
-  </si>
-  <si>
-    <t>Morton,0 1 1 0 1 0</t>
-  </si>
-  <si>
-    <t>Queen of Sth,3 1 0 1 0 0</t>
-  </si>
-  <si>
-    <t>Raith Rvs,5 2 1 2 1 0</t>
-  </si>
-  <si>
-    <t>Alloa,2 2 6 2 1 0</t>
-  </si>
-  <si>
-    <t>Arbroath,1 1 2 0 4 0</t>
-  </si>
-  <si>
-    <t>Ayr,2 3 1 4 0 2</t>
-  </si>
-  <si>
-    <t>Dundee,0 1 0 1 1 0</t>
-  </si>
-  <si>
-    <t>Dunfermline,0 1 0 1 3 1</t>
-  </si>
-  <si>
-    <t>Hearts,3 0 0 0 0 0</t>
-  </si>
-  <si>
-    <t>Inverness C,0 1 1 1 3 2</t>
-  </si>
-  <si>
-    <t>Morton,1 4 1 0 1 0</t>
-  </si>
-  <si>
-    <t>Queen of Sth,2 1 1 3 0 2</t>
-  </si>
-  <si>
-    <t>Raith Rvs,1 2 0 1 2 4</t>
-  </si>
-  <si>
-    <t>Alloa,4 3 6 3 2 1</t>
-  </si>
-  <si>
-    <t>Arbroath,1 3 4 4 7 0</t>
-  </si>
-  <si>
-    <t>Ayr,4 3 2 4 0 4</t>
-  </si>
-  <si>
-    <t>Dundee,3 2 0 2 3 2</t>
-  </si>
-  <si>
-    <t>Dunfermline,0 2 0 4 7 1</t>
-  </si>
-  <si>
-    <t>Hearts,5 0 6 0 3 4</t>
-  </si>
-  <si>
-    <t>Inverness C,1 5 2 2 3 4</t>
-  </si>
-  <si>
-    <t>Morton,1 5 2 0 2 0</t>
-  </si>
-  <si>
-    <t>Queen of Sth,5 2 1 4 0 2</t>
-  </si>
-  <si>
-    <t>Raith Rvs,6 4 1 3 3 4</t>
+    <t>Alloa,2 1 0 1 1 1,(6)</t>
+  </si>
+  <si>
+    <t>Arbroath,0 2 2 4 3 0,(11)</t>
+  </si>
+  <si>
+    <t>Ayr,2 0 1 0 0 2,(5)</t>
+  </si>
+  <si>
+    <t>Dundee,3 1 0 1 2 2,(9)</t>
+  </si>
+  <si>
+    <t>Dunfermline,0 1 0 3 4 0,(8)</t>
+  </si>
+  <si>
+    <t>Hearts,2 0 6 0 3 4,(15)</t>
+  </si>
+  <si>
+    <t>Inverness C,1 4 1 1 0 2,(9)</t>
+  </si>
+  <si>
+    <t>Morton,0 1 1 0 1 0,(3)</t>
+  </si>
+  <si>
+    <t>Queen of Sth,3 1 0 1 0 0,(5)</t>
+  </si>
+  <si>
+    <t>Raith Rvs,5 2 1 2 1 0,(11)</t>
+  </si>
+  <si>
+    <t>Alloa,2 2 6 2 1 0,(13)</t>
+  </si>
+  <si>
+    <t>Arbroath,1 1 2 0 4 0,(8)</t>
+  </si>
+  <si>
+    <t>Ayr,2 3 1 4 0 2,(12)</t>
+  </si>
+  <si>
+    <t>Dundee,0 1 0 1 1 0,(3)</t>
+  </si>
+  <si>
+    <t>Dunfermline,0 1 0 1 3 1,(6)</t>
+  </si>
+  <si>
+    <t>Hearts,3 0 0 0 0 0,(3)</t>
+  </si>
+  <si>
+    <t>Inverness C,0 1 1 1 3 2,(8)</t>
+  </si>
+  <si>
+    <t>Morton,1 4 1 0 1 0,(7)</t>
+  </si>
+  <si>
+    <t>Queen of Sth,2 1 1 3 0 2,(9)</t>
+  </si>
+  <si>
+    <t>Raith Rvs,1 2 0 1 2 4,(10)</t>
+  </si>
+  <si>
+    <t>Alloa,4 3 6 3 2 1,(19)</t>
+  </si>
+  <si>
+    <t>Arbroath,1 3 4 4 7 0,(19)</t>
+  </si>
+  <si>
+    <t>Ayr,4 3 2 4 0 4,(17)</t>
+  </si>
+  <si>
+    <t>Dundee,3 2 0 2 3 2,(12)</t>
+  </si>
+  <si>
+    <t>Dunfermline,0 2 0 4 7 1,(14)</t>
+  </si>
+  <si>
+    <t>Hearts,5 0 6 0 3 4,(18)</t>
+  </si>
+  <si>
+    <t>Inverness C,1 5 2 2 3 4,(17)</t>
+  </si>
+  <si>
+    <t>Morton,1 5 2 0 2 0,(10)</t>
+  </si>
+  <si>
+    <t>Queen of Sth,5 2 1 4 0 2,(14)</t>
+  </si>
+  <si>
+    <t>Raith Rvs,6 4 1 3 3 4,(21)</t>
   </si>
   <si>
     <t>Alloa,Ayr Arbroath Hearts Raith Rvs Morton Dunfermline</t>

--- a/Divisions/SC1.xlsx
+++ b/Divisions/SC1.xlsx
@@ -615,214 +615,214 @@
     <t>Team against</t>
   </si>
   <si>
-    <t>Arbroath,W W W D D L</t>
-  </si>
-  <si>
-    <t>Ayr,L W W D L W</t>
-  </si>
-  <si>
-    <t>Dunfermline,L D D D L D</t>
-  </si>
-  <si>
-    <t>Hamilton,W L L D W L</t>
-  </si>
-  <si>
-    <t>Inverness C,W W D W L W</t>
-  </si>
-  <si>
-    <t>Kilmarnock,L W W D L D</t>
-  </si>
-  <si>
-    <t>Morton,L L L D D L</t>
-  </si>
-  <si>
-    <t>Partick,W L L L W W</t>
-  </si>
-  <si>
-    <t>Queen of Sth,L W L L W L</t>
-  </si>
-  <si>
-    <t>Raith Rvs,L W W D W W</t>
-  </si>
-  <si>
-    <t>Arbroath,3 4 2 0 2 1,(12)</t>
-  </si>
-  <si>
-    <t>Ayr,0 3 2 0 0 2,(7)</t>
-  </si>
-  <si>
-    <t>Dunfermline,1 0 0 1 0 2,(4)</t>
-  </si>
-  <si>
-    <t>Hamilton,2 0 0 0 2 1,(5)</t>
-  </si>
-  <si>
-    <t>Inverness C,1 3 0 2 1 2,(9)</t>
-  </si>
-  <si>
-    <t>Kilmarnock,0 1 2 0 1 2,(6)</t>
-  </si>
-  <si>
-    <t>Morton,0 0 0 0 2 0,(2)</t>
-  </si>
-  <si>
-    <t>Partick,3 1 0 2 4 6,(16)</t>
-  </si>
-  <si>
-    <t>Queen of Sth,1 1 0 1 1 1,(5)</t>
-  </si>
-  <si>
-    <t>Raith Rvs,0 1 3 1 3 2,(10)</t>
-  </si>
-  <si>
-    <t>Arbroath,0 0 0 0 2 2,(4)</t>
-  </si>
-  <si>
-    <t>Ayr,2 1 0 0 4 1,(8)</t>
-  </si>
-  <si>
-    <t>Dunfermline,3 0 0 1 1 2,(7)</t>
-  </si>
-  <si>
-    <t>Hamilton,1 4 2 0 1 6,(14)</t>
-  </si>
-  <si>
-    <t>Inverness C,0 1 0 1 2 0,(4)</t>
-  </si>
-  <si>
-    <t>Kilmarnock,1 0 0 0 3 2,(6)</t>
-  </si>
-  <si>
-    <t>Morton,3 1 1 0 2 2,(9)</t>
-  </si>
-  <si>
-    <t>Partick,0 3 2 3 0 1,(9)</t>
-  </si>
-  <si>
-    <t>Queen of Sth,2 0 2 2 0 2,(8)</t>
-  </si>
-  <si>
-    <t>Raith Rvs,1 0 2 1 1 1,(6)</t>
-  </si>
-  <si>
-    <t>Arbroath,3 4 2 0 4 3,(16)</t>
-  </si>
-  <si>
-    <t>Ayr,2 4 2 0 4 3,(15)</t>
-  </si>
-  <si>
-    <t>Dunfermline,4 0 0 2 1 4,(11)</t>
-  </si>
-  <si>
-    <t>Hamilton,3 4 2 0 3 7,(19)</t>
-  </si>
-  <si>
-    <t>Inverness C,1 4 0 3 3 2,(13)</t>
-  </si>
-  <si>
-    <t>Kilmarnock,1 1 2 0 4 4,(12)</t>
-  </si>
-  <si>
-    <t>Morton,3 1 1 0 4 2,(11)</t>
-  </si>
-  <si>
-    <t>Partick,3 4 2 5 4 7,(25)</t>
-  </si>
-  <si>
-    <t>Queen of Sth,3 1 2 3 1 3,(13)</t>
-  </si>
-  <si>
-    <t>Raith Rvs,1 1 5 2 4 3,(16)</t>
-  </si>
-  <si>
-    <t>Arbroath,0-3 4-0 0-2 0-0 2-2 2-1</t>
-  </si>
-  <si>
-    <t>Ayr,0-2 3-1 0-2 0-0 4-0 2-1</t>
-  </si>
-  <si>
-    <t>Dunfermline,3-1 0-0 0-0 1-1 1-0 2-2</t>
-  </si>
-  <si>
-    <t>Hamilton,1-2 4-0 0-2 0-0 2-1 1-6</t>
-  </si>
-  <si>
-    <t>Inverness C,0-1 3-1 0-0 2-1 2-1 2-0</t>
-  </si>
-  <si>
-    <t>Kilmarnock,0-1 1-0 0-2 0-0 1-3 2-2</t>
-  </si>
-  <si>
-    <t>Morton,3-0 1-0 0-1 0-0 2-2 2-0</t>
-  </si>
-  <si>
-    <t>Partick,3-0 3-1 0-2 3-2 4-0 1-6</t>
-  </si>
-  <si>
-    <t>Queen of Sth,1-2 0-1 0-2 2-1 1-0 2-1</t>
-  </si>
-  <si>
-    <t>Raith Rvs,0-1 0-1 3-2 1-1 1-3 2-1</t>
-  </si>
-  <si>
-    <t>Arbroath,3 4 2 0 0 -1,(8)</t>
-  </si>
-  <si>
-    <t>Ayr,-2 2 2 0 -4 1,(-1)</t>
-  </si>
-  <si>
-    <t>Dunfermline,-2 0 0 0 -1 0,(-3)</t>
-  </si>
-  <si>
-    <t>Hamilton,1 -4 -2 0 1 -5,(-9)</t>
-  </si>
-  <si>
-    <t>Inverness C,1 2 0 1 -1 2,(5)</t>
-  </si>
-  <si>
-    <t>Kilmarnock,-1 1 2 0 -2 0,(0)</t>
-  </si>
-  <si>
-    <t>Morton,-3 -1 -1 0 0 -2,(-7)</t>
-  </si>
-  <si>
-    <t>Partick,3 -2 -2 -1 4 5,(7)</t>
-  </si>
-  <si>
-    <t>Queen of Sth,-1 1 -2 -1 1 -1,(-3)</t>
-  </si>
-  <si>
-    <t>Raith Rvs,-1 1 1 0 2 1,(4)</t>
-  </si>
-  <si>
-    <t>Arbroath,Dunfermline(10) Hamilton(8) Queen of Sth(7) Kilmarnock(2) Morton(9) Raith Rvs(3)</t>
-  </si>
-  <si>
-    <t>Ayr,Raith Rvs(3) Dunfermline(10) Hamilton(8) Morton(9) Partick(5) Queen of Sth(7)</t>
-  </si>
-  <si>
-    <t>Dunfermline,Ayr(6) Inverness C(1) Hamilton(8) Raith Rvs(3) Queen of Sth(7) Kilmarnock(2)</t>
-  </si>
-  <si>
-    <t>Hamilton,Queen of Sth(7) Arbroath(4) Ayr(6) Dunfermline(10) Inverness C(1) Partick(5)</t>
-  </si>
-  <si>
-    <t>Inverness C,Kilmarnock(2) Partick(5) Dunfermline(10) Queen of Sth(7) Hamilton(8) Morton(9)</t>
-  </si>
-  <si>
-    <t>Kilmarnock,Inverness C(1) Morton(9) Partick(5) Arbroath(4) Raith Rvs(3) Dunfermline(10)</t>
-  </si>
-  <si>
-    <t>Morton,Partick(5) Kilmarnock(2) Raith Rvs(3) Ayr(6) Arbroath(4) Inverness C(1)</t>
-  </si>
-  <si>
-    <t>Partick,Morton(9) Inverness C(1) Kilmarnock(2) Raith Rvs(3) Ayr(6) Hamilton(8)</t>
-  </si>
-  <si>
-    <t>Queen of Sth,Hamilton(8) Raith Rvs(3) Arbroath(4) Inverness C(1) Dunfermline(10) Ayr(6)</t>
-  </si>
-  <si>
-    <t>Raith Rvs,Queen of Sth(7) Morton(9) Partick(5) Dunfermline(10) Kilmarnock(2) Arbroath(4)</t>
+    <t>Arbroath,L D W W W W D D L</t>
+  </si>
+  <si>
+    <t>Ayr,L D L L W W D L W</t>
+  </si>
+  <si>
+    <t>Dunfermline,D L L L D D D L D</t>
+  </si>
+  <si>
+    <t>Hamilton,D L L W L L D W L</t>
+  </si>
+  <si>
+    <t>Inverness C,W W W W W D W L W</t>
+  </si>
+  <si>
+    <t>Kilmarnock,W W W L W W D L D</t>
+  </si>
+  <si>
+    <t>Morton,D W L L L L D D L</t>
+  </si>
+  <si>
+    <t>Partick,W W L W L L L W W</t>
+  </si>
+  <si>
+    <t>Queen of Sth,L L W L W L L W L</t>
+  </si>
+  <si>
+    <t>Raith Rvs,D L W L W W D W W</t>
+  </si>
+  <si>
+    <t>Arbroath,0 2 3 3 4 2 0 2 1,(17)</t>
+  </si>
+  <si>
+    <t>Ayr,0 2 0 0 3 2 0 0 2,(9)</t>
+  </si>
+  <si>
+    <t>Dunfermline,2 0 0 1 0 0 1 0 2,(6)</t>
+  </si>
+  <si>
+    <t>Hamilton,4 0 0 2 0 0 0 2 1,(9)</t>
+  </si>
+  <si>
+    <t>Inverness C,1 1 1 1 3 0 2 1 2,(12)</t>
+  </si>
+  <si>
+    <t>Kilmarnock,2 1 2 0 1 2 0 1 2,(11)</t>
+  </si>
+  <si>
+    <t>Morton,2 1 2 0 0 0 0 2 0,(7)</t>
+  </si>
+  <si>
+    <t>Partick,3 3 1 3 1 0 2 4 6,(23)</t>
+  </si>
+  <si>
+    <t>Queen of Sth,2 0 3 1 1 0 1 1 1,(10)</t>
+  </si>
+  <si>
+    <t>Raith Rvs,4 0 2 0 1 3 1 3 2,(16)</t>
+  </si>
+  <si>
+    <t>Arbroath,1 2 1 0 0 0 0 2 2,(8)</t>
+  </si>
+  <si>
+    <t>Ayr,2 2 1 2 1 0 0 4 1,(13)</t>
+  </si>
+  <si>
+    <t>Dunfermline,2 3 3 3 0 0 1 1 2,(15)</t>
+  </si>
+  <si>
+    <t>Hamilton,4 1 2 1 4 2 0 1 6,(21)</t>
+  </si>
+  <si>
+    <t>Inverness C,0 0 0 0 1 0 1 2 0,(4)</t>
+  </si>
+  <si>
+    <t>Kilmarnock,0 0 0 1 0 0 0 3 2,(6)</t>
+  </si>
+  <si>
+    <t>Morton,2 0 3 3 1 1 0 2 2,(14)</t>
+  </si>
+  <si>
+    <t>Partick,2 0 3 0 3 2 3 0 1,(14)</t>
+  </si>
+  <si>
+    <t>Queen of Sth,3 1 2 2 0 2 2 0 2,(14)</t>
+  </si>
+  <si>
+    <t>Raith Rvs,4 1 0 1 0 2 1 1 1,(11)</t>
+  </si>
+  <si>
+    <t>Arbroath,1 4 4 3 4 2 0 4 3,(25)</t>
+  </si>
+  <si>
+    <t>Ayr,2 4 1 2 4 2 0 4 3,(22)</t>
+  </si>
+  <si>
+    <t>Dunfermline,4 3 3 4 0 0 2 1 4,(21)</t>
+  </si>
+  <si>
+    <t>Hamilton,8 1 2 3 4 2 0 3 7,(30)</t>
+  </si>
+  <si>
+    <t>Inverness C,1 1 1 1 4 0 3 3 2,(16)</t>
+  </si>
+  <si>
+    <t>Kilmarnock,2 1 2 1 1 2 0 4 4,(17)</t>
+  </si>
+  <si>
+    <t>Morton,4 1 5 3 1 1 0 4 2,(21)</t>
+  </si>
+  <si>
+    <t>Partick,5 3 4 3 4 2 5 4 7,(37)</t>
+  </si>
+  <si>
+    <t>Queen of Sth,5 1 5 3 1 2 3 1 3,(24)</t>
+  </si>
+  <si>
+    <t>Raith Rvs,8 1 2 1 1 5 2 4 3,(27)</t>
+  </si>
+  <si>
+    <t>Arbroath,0-1 2-2 3-1 0-3 4-0 0-2 0-0 2-2 2-1</t>
+  </si>
+  <si>
+    <t>Ayr,2-0 2-2 1-0 0-2 3-1 0-2 0-0 4-0 2-1</t>
+  </si>
+  <si>
+    <t>Dunfermline,2-2 0-3 0-3 3-1 0-0 0-0 1-1 1-0 2-2</t>
+  </si>
+  <si>
+    <t>Hamilton,4-4 0-1 0-2 1-2 4-0 0-2 0-0 2-1 1-6</t>
+  </si>
+  <si>
+    <t>Inverness C,0-1 1-0 1-0 0-1 3-1 0-0 2-1 2-1 2-0</t>
+  </si>
+  <si>
+    <t>Kilmarnock,2-0 0-1 0-2 0-1 1-0 0-2 0-0 1-3 2-2</t>
+  </si>
+  <si>
+    <t>Morton,2-2 0-1 2-3 3-0 1-0 0-1 0-0 2-2 2-0</t>
+  </si>
+  <si>
+    <t>Partick,3-2 0-3 3-1 3-0 3-1 0-2 3-2 4-0 1-6</t>
+  </si>
+  <si>
+    <t>Queen of Sth,3-2 0-1 2-3 1-2 0-1 0-2 2-1 1-0 2-1</t>
+  </si>
+  <si>
+    <t>Raith Rvs,4-4 1-0 0-2 0-1 0-1 3-2 1-1 1-3 2-1</t>
+  </si>
+  <si>
+    <t>Arbroath,-1 0 2 3 4 2 0 0 -1,(9)</t>
+  </si>
+  <si>
+    <t>Ayr,-2 0 -1 -2 2 2 0 -4 1,(-4)</t>
+  </si>
+  <si>
+    <t>Dunfermline,0 -3 -3 -2 0 0 0 -1 0,(-9)</t>
+  </si>
+  <si>
+    <t>Hamilton,0 -1 -2 1 -4 -2 0 1 -5,(-12)</t>
+  </si>
+  <si>
+    <t>Inverness C,1 1 1 1 2 0 1 -1 2,(8)</t>
+  </si>
+  <si>
+    <t>Kilmarnock,2 1 2 -1 1 2 0 -2 0,(5)</t>
+  </si>
+  <si>
+    <t>Morton,0 1 -1 -3 -1 -1 0 0 -2,(-7)</t>
+  </si>
+  <si>
+    <t>Partick,1 3 -2 3 -2 -2 -1 4 5,(9)</t>
+  </si>
+  <si>
+    <t>Queen of Sth,-1 -1 1 -1 1 -2 -1 1 -1,(-4)</t>
+  </si>
+  <si>
+    <t>Raith Rvs,0 -1 2 -1 1 1 0 2 1,(5)</t>
+  </si>
+  <si>
+    <t>Arbroath,Inverness C(1) Ayr(6) Partick(5) Dunfermline(10) Hamilton(8) Queen of Sth(7) Kilmarnock(2) Morton(9) Raith Rvs(3)</t>
+  </si>
+  <si>
+    <t>Ayr,Kilmarnock(2) Arbroath(4) Inverness C(1) Raith Rvs(3) Dunfermline(10) Hamilton(8) Morton(9) Partick(5) Queen of Sth(7)</t>
+  </si>
+  <si>
+    <t>Dunfermline,Morton(9) Partick(5) Arbroath(4) Ayr(6) Inverness C(1) Hamilton(8) Raith Rvs(3) Queen of Sth(7) Kilmarnock(2)</t>
+  </si>
+  <si>
+    <t>Hamilton,Raith Rvs(3) Morton(9) Kilmarnock(2) Queen of Sth(7) Arbroath(4) Ayr(6) Dunfermline(10) Inverness C(1) Partick(5)</t>
+  </si>
+  <si>
+    <t>Inverness C,Arbroath(4) Raith Rvs(3) Ayr(6) Kilmarnock(2) Partick(5) Dunfermline(10) Queen of Sth(7) Hamilton(8) Morton(9)</t>
+  </si>
+  <si>
+    <t>Kilmarnock,Ayr(6) Queen of Sth(7) Hamilton(8) Inverness C(1) Morton(9) Partick(5) Arbroath(4) Raith Rvs(3) Dunfermline(10)</t>
+  </si>
+  <si>
+    <t>Morton,Dunfermline(10) Hamilton(8) Queen of Sth(7) Partick(5) Kilmarnock(2) Raith Rvs(3) Ayr(6) Arbroath(4) Inverness C(1)</t>
+  </si>
+  <si>
+    <t>Partick,Queen of Sth(7) Dunfermline(10) Arbroath(4) Morton(9) Inverness C(1) Kilmarnock(2) Raith Rvs(3) Ayr(6) Hamilton(8)</t>
+  </si>
+  <si>
+    <t>Queen of Sth,Partick(5) Kilmarnock(2) Morton(9) Hamilton(8) Raith Rvs(3) Arbroath(4) Inverness C(1) Dunfermline(10) Ayr(6)</t>
+  </si>
+  <si>
+    <t>Raith Rvs,Hamilton(8) Inverness C(1) Ayr(6) Queen of Sth(7) Morton(9) Partick(5) Dunfermline(10) Kilmarnock(2) Arbroath(4)</t>
   </si>
   <si>
     <t>Div</t>

--- a/Divisions/SC1.xlsx
+++ b/Divisions/SC1.xlsx
@@ -615,214 +615,214 @@
     <t>Team against</t>
   </si>
   <si>
-    <t>Arbroath,L D W W W W D D L</t>
-  </si>
-  <si>
-    <t>Ayr,L D L L W W D L W</t>
-  </si>
-  <si>
-    <t>Dunfermline,D L L L D D D L D</t>
-  </si>
-  <si>
-    <t>Hamilton,D L L W L L D W L</t>
-  </si>
-  <si>
-    <t>Inverness C,W W W W W D W L W</t>
-  </si>
-  <si>
-    <t>Kilmarnock,W W W L W W D L D</t>
-  </si>
-  <si>
-    <t>Morton,D W L L L L D D L</t>
-  </si>
-  <si>
-    <t>Partick,W W L W L L L W W</t>
-  </si>
-  <si>
-    <t>Queen of Sth,L L W L W L L W L</t>
-  </si>
-  <si>
-    <t>Raith Rvs,D L W L W W D W W</t>
-  </si>
-  <si>
-    <t>Arbroath,0 2 3 3 4 2 0 2 1,(17)</t>
-  </si>
-  <si>
-    <t>Ayr,0 2 0 0 3 2 0 0 2,(9)</t>
-  </si>
-  <si>
-    <t>Dunfermline,2 0 0 1 0 0 1 0 2,(6)</t>
-  </si>
-  <si>
-    <t>Hamilton,4 0 0 2 0 0 0 2 1,(9)</t>
-  </si>
-  <si>
-    <t>Inverness C,1 1 1 1 3 0 2 1 2,(12)</t>
-  </si>
-  <si>
-    <t>Kilmarnock,2 1 2 0 1 2 0 1 2,(11)</t>
-  </si>
-  <si>
-    <t>Morton,2 1 2 0 0 0 0 2 0,(7)</t>
-  </si>
-  <si>
-    <t>Partick,3 3 1 3 1 0 2 4 6,(23)</t>
-  </si>
-  <si>
-    <t>Queen of Sth,2 0 3 1 1 0 1 1 1,(10)</t>
-  </si>
-  <si>
-    <t>Raith Rvs,4 0 2 0 1 3 1 3 2,(16)</t>
-  </si>
-  <si>
-    <t>Arbroath,1 2 1 0 0 0 0 2 2,(8)</t>
-  </si>
-  <si>
-    <t>Ayr,2 2 1 2 1 0 0 4 1,(13)</t>
-  </si>
-  <si>
-    <t>Dunfermline,2 3 3 3 0 0 1 1 2,(15)</t>
-  </si>
-  <si>
-    <t>Hamilton,4 1 2 1 4 2 0 1 6,(21)</t>
-  </si>
-  <si>
-    <t>Inverness C,0 0 0 0 1 0 1 2 0,(4)</t>
-  </si>
-  <si>
-    <t>Kilmarnock,0 0 0 1 0 0 0 3 2,(6)</t>
-  </si>
-  <si>
-    <t>Morton,2 0 3 3 1 1 0 2 2,(14)</t>
-  </si>
-  <si>
-    <t>Partick,2 0 3 0 3 2 3 0 1,(14)</t>
-  </si>
-  <si>
-    <t>Queen of Sth,3 1 2 2 0 2 2 0 2,(14)</t>
-  </si>
-  <si>
-    <t>Raith Rvs,4 1 0 1 0 2 1 1 1,(11)</t>
-  </si>
-  <si>
-    <t>Arbroath,1 4 4 3 4 2 0 4 3,(25)</t>
-  </si>
-  <si>
-    <t>Ayr,2 4 1 2 4 2 0 4 3,(22)</t>
-  </si>
-  <si>
-    <t>Dunfermline,4 3 3 4 0 0 2 1 4,(21)</t>
-  </si>
-  <si>
-    <t>Hamilton,8 1 2 3 4 2 0 3 7,(30)</t>
-  </si>
-  <si>
-    <t>Inverness C,1 1 1 1 4 0 3 3 2,(16)</t>
-  </si>
-  <si>
-    <t>Kilmarnock,2 1 2 1 1 2 0 4 4,(17)</t>
-  </si>
-  <si>
-    <t>Morton,4 1 5 3 1 1 0 4 2,(21)</t>
-  </si>
-  <si>
-    <t>Partick,5 3 4 3 4 2 5 4 7,(37)</t>
-  </si>
-  <si>
-    <t>Queen of Sth,5 1 5 3 1 2 3 1 3,(24)</t>
-  </si>
-  <si>
-    <t>Raith Rvs,8 1 2 1 1 5 2 4 3,(27)</t>
-  </si>
-  <si>
-    <t>Arbroath,0-1 2-2 3-1 0-3 4-0 0-2 0-0 2-2 2-1</t>
-  </si>
-  <si>
-    <t>Ayr,2-0 2-2 1-0 0-2 3-1 0-2 0-0 4-0 2-1</t>
-  </si>
-  <si>
-    <t>Dunfermline,2-2 0-3 0-3 3-1 0-0 0-0 1-1 1-0 2-2</t>
-  </si>
-  <si>
-    <t>Hamilton,4-4 0-1 0-2 1-2 4-0 0-2 0-0 2-1 1-6</t>
-  </si>
-  <si>
-    <t>Inverness C,0-1 1-0 1-0 0-1 3-1 0-0 2-1 2-1 2-0</t>
-  </si>
-  <si>
-    <t>Kilmarnock,2-0 0-1 0-2 0-1 1-0 0-2 0-0 1-3 2-2</t>
-  </si>
-  <si>
-    <t>Morton,2-2 0-1 2-3 3-0 1-0 0-1 0-0 2-2 2-0</t>
-  </si>
-  <si>
-    <t>Partick,3-2 0-3 3-1 3-0 3-1 0-2 3-2 4-0 1-6</t>
-  </si>
-  <si>
-    <t>Queen of Sth,3-2 0-1 2-3 1-2 0-1 0-2 2-1 1-0 2-1</t>
-  </si>
-  <si>
-    <t>Raith Rvs,4-4 1-0 0-2 0-1 0-1 3-2 1-1 1-3 2-1</t>
-  </si>
-  <si>
-    <t>Arbroath,-1 0 2 3 4 2 0 0 -1,(9)</t>
-  </si>
-  <si>
-    <t>Ayr,-2 0 -1 -2 2 2 0 -4 1,(-4)</t>
-  </si>
-  <si>
-    <t>Dunfermline,0 -3 -3 -2 0 0 0 -1 0,(-9)</t>
-  </si>
-  <si>
-    <t>Hamilton,0 -1 -2 1 -4 -2 0 1 -5,(-12)</t>
-  </si>
-  <si>
-    <t>Inverness C,1 1 1 1 2 0 1 -1 2,(8)</t>
-  </si>
-  <si>
-    <t>Kilmarnock,2 1 2 -1 1 2 0 -2 0,(5)</t>
-  </si>
-  <si>
-    <t>Morton,0 1 -1 -3 -1 -1 0 0 -2,(-7)</t>
-  </si>
-  <si>
-    <t>Partick,1 3 -2 3 -2 -2 -1 4 5,(9)</t>
-  </si>
-  <si>
-    <t>Queen of Sth,-1 -1 1 -1 1 -2 -1 1 -1,(-4)</t>
-  </si>
-  <si>
-    <t>Raith Rvs,0 -1 2 -1 1 1 0 2 1,(5)</t>
-  </si>
-  <si>
-    <t>Arbroath,Inverness C(1) Ayr(6) Partick(5) Dunfermline(10) Hamilton(8) Queen of Sth(7) Kilmarnock(2) Morton(9) Raith Rvs(3)</t>
-  </si>
-  <si>
-    <t>Ayr,Kilmarnock(2) Arbroath(4) Inverness C(1) Raith Rvs(3) Dunfermline(10) Hamilton(8) Morton(9) Partick(5) Queen of Sth(7)</t>
-  </si>
-  <si>
-    <t>Dunfermline,Morton(9) Partick(5) Arbroath(4) Ayr(6) Inverness C(1) Hamilton(8) Raith Rvs(3) Queen of Sth(7) Kilmarnock(2)</t>
-  </si>
-  <si>
-    <t>Hamilton,Raith Rvs(3) Morton(9) Kilmarnock(2) Queen of Sth(7) Arbroath(4) Ayr(6) Dunfermline(10) Inverness C(1) Partick(5)</t>
-  </si>
-  <si>
-    <t>Inverness C,Arbroath(4) Raith Rvs(3) Ayr(6) Kilmarnock(2) Partick(5) Dunfermline(10) Queen of Sth(7) Hamilton(8) Morton(9)</t>
-  </si>
-  <si>
-    <t>Kilmarnock,Ayr(6) Queen of Sth(7) Hamilton(8) Inverness C(1) Morton(9) Partick(5) Arbroath(4) Raith Rvs(3) Dunfermline(10)</t>
-  </si>
-  <si>
-    <t>Morton,Dunfermline(10) Hamilton(8) Queen of Sth(7) Partick(5) Kilmarnock(2) Raith Rvs(3) Ayr(6) Arbroath(4) Inverness C(1)</t>
-  </si>
-  <si>
-    <t>Partick,Queen of Sth(7) Dunfermline(10) Arbroath(4) Morton(9) Inverness C(1) Kilmarnock(2) Raith Rvs(3) Ayr(6) Hamilton(8)</t>
-  </si>
-  <si>
-    <t>Queen of Sth,Partick(5) Kilmarnock(2) Morton(9) Hamilton(8) Raith Rvs(3) Arbroath(4) Inverness C(1) Dunfermline(10) Ayr(6)</t>
-  </si>
-  <si>
-    <t>Raith Rvs,Hamilton(8) Inverness C(1) Ayr(6) Queen of Sth(7) Morton(9) Partick(5) Dunfermline(10) Kilmarnock(2) Arbroath(4)</t>
+    <t>Arbroath,W W W D D L</t>
+  </si>
+  <si>
+    <t>Ayr,L W W D L W</t>
+  </si>
+  <si>
+    <t>Dunfermline,L D D D L D</t>
+  </si>
+  <si>
+    <t>Hamilton,W L L D W L</t>
+  </si>
+  <si>
+    <t>Inverness C,W W D W L W</t>
+  </si>
+  <si>
+    <t>Kilmarnock,L W W D L D</t>
+  </si>
+  <si>
+    <t>Morton,L L L D D L</t>
+  </si>
+  <si>
+    <t>Partick,W L L L W W</t>
+  </si>
+  <si>
+    <t>Queen of Sth,L W L L W L</t>
+  </si>
+  <si>
+    <t>Raith Rvs,L W W D W W</t>
+  </si>
+  <si>
+    <t>Arbroath,3 4 2 0 2 1,(12)</t>
+  </si>
+  <si>
+    <t>Ayr,0 3 2 0 0 2,(7)</t>
+  </si>
+  <si>
+    <t>Dunfermline,1 0 0 1 0 2,(4)</t>
+  </si>
+  <si>
+    <t>Hamilton,2 0 0 0 2 1,(5)</t>
+  </si>
+  <si>
+    <t>Inverness C,1 3 0 2 1 2,(9)</t>
+  </si>
+  <si>
+    <t>Kilmarnock,0 1 2 0 1 2,(6)</t>
+  </si>
+  <si>
+    <t>Morton,0 0 0 0 2 0,(2)</t>
+  </si>
+  <si>
+    <t>Partick,3 1 0 2 4 6,(16)</t>
+  </si>
+  <si>
+    <t>Queen of Sth,1 1 0 1 1 1,(5)</t>
+  </si>
+  <si>
+    <t>Raith Rvs,0 1 3 1 3 2,(10)</t>
+  </si>
+  <si>
+    <t>Arbroath,0 0 0 0 2 2,(4)</t>
+  </si>
+  <si>
+    <t>Ayr,2 1 0 0 4 1,(8)</t>
+  </si>
+  <si>
+    <t>Dunfermline,3 0 0 1 1 2,(7)</t>
+  </si>
+  <si>
+    <t>Hamilton,1 4 2 0 1 6,(14)</t>
+  </si>
+  <si>
+    <t>Inverness C,0 1 0 1 2 0,(4)</t>
+  </si>
+  <si>
+    <t>Kilmarnock,1 0 0 0 3 2,(6)</t>
+  </si>
+  <si>
+    <t>Morton,3 1 1 0 2 2,(9)</t>
+  </si>
+  <si>
+    <t>Partick,0 3 2 3 0 1,(9)</t>
+  </si>
+  <si>
+    <t>Queen of Sth,2 0 2 2 0 2,(8)</t>
+  </si>
+  <si>
+    <t>Raith Rvs,1 0 2 1 1 1,(6)</t>
+  </si>
+  <si>
+    <t>Arbroath,3 4 2 0 4 3,(16)</t>
+  </si>
+  <si>
+    <t>Ayr,2 4 2 0 4 3,(15)</t>
+  </si>
+  <si>
+    <t>Dunfermline,4 0 0 2 1 4,(11)</t>
+  </si>
+  <si>
+    <t>Hamilton,3 4 2 0 3 7,(19)</t>
+  </si>
+  <si>
+    <t>Inverness C,1 4 0 3 3 2,(13)</t>
+  </si>
+  <si>
+    <t>Kilmarnock,1 1 2 0 4 4,(12)</t>
+  </si>
+  <si>
+    <t>Morton,3 1 1 0 4 2,(11)</t>
+  </si>
+  <si>
+    <t>Partick,3 4 2 5 4 7,(25)</t>
+  </si>
+  <si>
+    <t>Queen of Sth,3 1 2 3 1 3,(13)</t>
+  </si>
+  <si>
+    <t>Raith Rvs,1 1 5 2 4 3,(16)</t>
+  </si>
+  <si>
+    <t>Arbroath,0-3 4-0 0-2 0-0 2-2 2-1</t>
+  </si>
+  <si>
+    <t>Ayr,0-2 3-1 0-2 0-0 4-0 2-1</t>
+  </si>
+  <si>
+    <t>Dunfermline,3-1 0-0 0-0 1-1 1-0 2-2</t>
+  </si>
+  <si>
+    <t>Hamilton,1-2 4-0 0-2 0-0 2-1 1-6</t>
+  </si>
+  <si>
+    <t>Inverness C,0-1 3-1 0-0 2-1 2-1 2-0</t>
+  </si>
+  <si>
+    <t>Kilmarnock,0-1 1-0 0-2 0-0 1-3 2-2</t>
+  </si>
+  <si>
+    <t>Morton,3-0 1-0 0-1 0-0 2-2 2-0</t>
+  </si>
+  <si>
+    <t>Partick,3-0 3-1 0-2 3-2 4-0 1-6</t>
+  </si>
+  <si>
+    <t>Queen of Sth,1-2 0-1 0-2 2-1 1-0 2-1</t>
+  </si>
+  <si>
+    <t>Raith Rvs,0-1 0-1 3-2 1-1 1-3 2-1</t>
+  </si>
+  <si>
+    <t>Arbroath,3 4 2 0 0 -1,(8)</t>
+  </si>
+  <si>
+    <t>Ayr,-2 2 2 0 -4 1,(-1)</t>
+  </si>
+  <si>
+    <t>Dunfermline,-2 0 0 0 -1 0,(-3)</t>
+  </si>
+  <si>
+    <t>Hamilton,1 -4 -2 0 1 -5,(-9)</t>
+  </si>
+  <si>
+    <t>Inverness C,1 2 0 1 -1 2,(5)</t>
+  </si>
+  <si>
+    <t>Kilmarnock,-1 1 2 0 -2 0,(0)</t>
+  </si>
+  <si>
+    <t>Morton,-3 -1 -1 0 0 -2,(-7)</t>
+  </si>
+  <si>
+    <t>Partick,3 -2 -2 -1 4 5,(7)</t>
+  </si>
+  <si>
+    <t>Queen of Sth,-1 1 -2 -1 1 -1,(-3)</t>
+  </si>
+  <si>
+    <t>Raith Rvs,-1 1 1 0 2 1,(4)</t>
+  </si>
+  <si>
+    <t>Arbroath,Dunfermline(10) Hamilton(8) Queen of Sth(7) Kilmarnock(2) Morton(9) Raith Rvs(3)</t>
+  </si>
+  <si>
+    <t>Ayr,Raith Rvs(3) Dunfermline(10) Hamilton(8) Morton(9) Partick(5) Queen of Sth(7)</t>
+  </si>
+  <si>
+    <t>Dunfermline,Ayr(6) Inverness C(1) Hamilton(8) Raith Rvs(3) Queen of Sth(7) Kilmarnock(2)</t>
+  </si>
+  <si>
+    <t>Hamilton,Queen of Sth(7) Arbroath(4) Ayr(6) Dunfermline(10) Inverness C(1) Partick(5)</t>
+  </si>
+  <si>
+    <t>Inverness C,Kilmarnock(2) Partick(5) Dunfermline(10) Queen of Sth(7) Hamilton(8) Morton(9)</t>
+  </si>
+  <si>
+    <t>Kilmarnock,Inverness C(1) Morton(9) Partick(5) Arbroath(4) Raith Rvs(3) Dunfermline(10)</t>
+  </si>
+  <si>
+    <t>Morton,Partick(5) Kilmarnock(2) Raith Rvs(3) Ayr(6) Arbroath(4) Inverness C(1)</t>
+  </si>
+  <si>
+    <t>Partick,Morton(9) Inverness C(1) Kilmarnock(2) Raith Rvs(3) Ayr(6) Hamilton(8)</t>
+  </si>
+  <si>
+    <t>Queen of Sth,Hamilton(8) Raith Rvs(3) Arbroath(4) Inverness C(1) Dunfermline(10) Ayr(6)</t>
+  </si>
+  <si>
+    <t>Raith Rvs,Queen of Sth(7) Morton(9) Partick(5) Dunfermline(10) Kilmarnock(2) Arbroath(4)</t>
   </si>
   <si>
     <t>Div</t>

--- a/Divisions/SC1.xlsx
+++ b/Divisions/SC1.xlsx
@@ -636,214 +636,214 @@
     <t>Team against</t>
   </si>
   <si>
-    <t>Arbroath,L D W W W W D D L D W</t>
-  </si>
-  <si>
-    <t>Ayr,L D L L W W D L W D L</t>
-  </si>
-  <si>
-    <t>Dunfermline,D L L L D D D L D D D</t>
-  </si>
-  <si>
-    <t>Hamilton,D L L W L L D W L L W</t>
-  </si>
-  <si>
-    <t>Inverness C,W W W W W D W L W D L</t>
-  </si>
-  <si>
-    <t>Kilmarnock,W W W L W W D L D W W</t>
-  </si>
-  <si>
-    <t>Morton,D W L L L L D D L D D</t>
-  </si>
-  <si>
-    <t>Partick,W W L W L L L W W D D</t>
-  </si>
-  <si>
-    <t>Queen of Sth,L L W L W L L W L D L</t>
-  </si>
-  <si>
-    <t>Raith Rvs,D L W L W W D W W D D</t>
-  </si>
-  <si>
-    <t>Arbroath,0 2 3 3 4 2 0 2 1 1 1,(19)</t>
-  </si>
-  <si>
-    <t>Ayr,0 2 0 0 3 2 0 0 2 1 0,(10)</t>
-  </si>
-  <si>
-    <t>Dunfermline,2 0 0 1 0 0 1 0 2 0 1,(7)</t>
-  </si>
-  <si>
-    <t>Hamilton,4 0 0 2 0 0 0 2 1 1 1,(11)</t>
-  </si>
-  <si>
-    <t>Inverness C,1 1 1 1 3 0 2 1 2 1 0,(13)</t>
-  </si>
-  <si>
-    <t>Kilmarnock,2 1 2 0 1 2 0 1 2 2 1,(14)</t>
-  </si>
-  <si>
-    <t>Morton,2 1 2 0 0 0 0 2 0 0 0,(7)</t>
-  </si>
-  <si>
-    <t>Partick,3 3 1 3 1 0 2 4 6 0 0,(23)</t>
-  </si>
-  <si>
-    <t>Queen of Sth,2 0 3 1 1 0 1 1 1 0 0,(10)</t>
-  </si>
-  <si>
-    <t>Raith Rvs,4 0 2 0 1 3 1 3 2 1 1,(18)</t>
-  </si>
-  <si>
-    <t>Arbroath,1 2 1 0 0 0 0 2 2 1 0,(9)</t>
-  </si>
-  <si>
-    <t>Ayr,2 2 1 2 1 0 0 4 1 1 1,(15)</t>
-  </si>
-  <si>
-    <t>Dunfermline,2 3 3 3 0 0 1 1 2 0 1,(16)</t>
-  </si>
-  <si>
-    <t>Hamilton,4 1 2 1 4 2 0 1 6 2 0,(23)</t>
-  </si>
-  <si>
-    <t>Inverness C,0 0 0 0 1 0 1 2 0 1 1,(6)</t>
-  </si>
-  <si>
-    <t>Kilmarnock,0 0 0 1 0 0 0 3 2 1 0,(7)</t>
-  </si>
-  <si>
-    <t>Morton,2 0 3 3 1 1 0 2 2 0 0,(14)</t>
-  </si>
-  <si>
-    <t>Partick,2 0 3 0 3 2 3 0 1 0 0,(14)</t>
-  </si>
-  <si>
-    <t>Queen of Sth,3 1 2 2 0 2 2 0 2 0 1,(15)</t>
-  </si>
-  <si>
-    <t>Raith Rvs,4 1 0 1 0 2 1 1 1 1 1,(13)</t>
-  </si>
-  <si>
-    <t>Arbroath,1 4 4 3 4 2 0 4 3 2 1,(28)</t>
-  </si>
-  <si>
-    <t>Ayr,2 4 1 2 4 2 0 4 3 2 1,(25)</t>
-  </si>
-  <si>
-    <t>Dunfermline,4 3 3 4 0 0 2 1 4 0 2,(23)</t>
-  </si>
-  <si>
-    <t>Hamilton,8 1 2 3 4 2 0 3 7 3 1,(34)</t>
-  </si>
-  <si>
-    <t>Inverness C,1 1 1 1 4 0 3 3 2 2 1,(19)</t>
-  </si>
-  <si>
-    <t>Kilmarnock,2 1 2 1 1 2 0 4 4 3 1,(21)</t>
-  </si>
-  <si>
-    <t>Morton,4 1 5 3 1 1 0 4 2 0 0,(21)</t>
-  </si>
-  <si>
-    <t>Partick,5 3 4 3 4 2 5 4 7 0 0,(37)</t>
-  </si>
-  <si>
-    <t>Queen of Sth,5 1 5 3 1 2 3 1 3 0 1,(25)</t>
-  </si>
-  <si>
-    <t>Raith Rvs,8 1 2 1 1 5 2 4 3 2 2,(31)</t>
-  </si>
-  <si>
-    <t>Arbroath,0-1 2-2 3-1 0-3 4-0 0-2 0-0 2-2 2-1 1-1 0-1</t>
-  </si>
-  <si>
-    <t>Ayr,2-0 2-2 1-0 0-2 3-1 0-2 0-0 4-0 2-1 1-1 0-1</t>
-  </si>
-  <si>
-    <t>Dunfermline,2-2 0-3 0-3 3-1 0-0 0-0 1-1 1-0 2-2 0-0 1-1</t>
-  </si>
-  <si>
-    <t>Hamilton,4-4 0-1 0-2 1-2 4-0 0-2 0-0 2-1 1-6 2-1 1-0</t>
-  </si>
-  <si>
-    <t>Inverness C,0-1 1-0 1-0 0-1 3-1 0-0 2-1 2-1 2-0 1-1 0-1</t>
-  </si>
-  <si>
-    <t>Kilmarnock,2-0 0-1 0-2 0-1 1-0 0-2 0-0 1-3 2-2 2-1 0-1</t>
-  </si>
-  <si>
-    <t>Morton,2-2 0-1 2-3 3-0 1-0 0-1 0-0 2-2 2-0 0-0 0-0</t>
-  </si>
-  <si>
-    <t>Partick,3-2 0-3 3-1 3-0 3-1 0-2 3-2 4-0 1-6 0-0 0-0</t>
-  </si>
-  <si>
-    <t>Queen of Sth,3-2 0-1 2-3 1-2 0-1 0-2 2-1 1-0 2-1 0-0 1-0</t>
-  </si>
-  <si>
-    <t>Raith Rvs,4-4 1-0 0-2 0-1 0-1 3-2 1-1 1-3 2-1 1-1 1-1</t>
-  </si>
-  <si>
-    <t>Arbroath,-1 0 2 3 4 2 0 0 -1 0 1,(10)</t>
-  </si>
-  <si>
-    <t>Ayr,-2 0 -1 -2 2 2 0 -4 1 0 -1,(-5)</t>
-  </si>
-  <si>
-    <t>Dunfermline,0 -3 -3 -2 0 0 0 -1 0 0 0,(-9)</t>
-  </si>
-  <si>
-    <t>Hamilton,0 -1 -2 1 -4 -2 0 1 -5 -1 1,(-12)</t>
-  </si>
-  <si>
-    <t>Inverness C,1 1 1 1 2 0 1 -1 2 0 -1,(7)</t>
-  </si>
-  <si>
-    <t>Kilmarnock,2 1 2 -1 1 2 0 -2 0 1 1,(7)</t>
-  </si>
-  <si>
-    <t>Morton,0 1 -1 -3 -1 -1 0 0 -2 0 0,(-7)</t>
-  </si>
-  <si>
-    <t>Partick,1 3 -2 3 -2 -2 -1 4 5 0 0,(9)</t>
-  </si>
-  <si>
-    <t>Queen of Sth,-1 -1 1 -1 1 -2 -1 1 -1 0 -1,(-5)</t>
-  </si>
-  <si>
-    <t>Raith Rvs,0 -1 2 -1 1 1 0 2 1 0 0,(5)</t>
-  </si>
-  <si>
-    <t>Arbroath,Inverness C(1) Ayr(6) Partick(5) Dunfermline(10) Hamilton(7) Queen of Sth(8) Kilmarnock(2) Morton(9) Raith Rvs(4) Ayr(6) Inverness C(1)</t>
-  </si>
-  <si>
-    <t>Ayr,Kilmarnock(2) Arbroath(3) Inverness C(1) Raith Rvs(4) Dunfermline(10) Hamilton(7) Morton(9) Partick(5) Queen of Sth(8) Arbroath(3) Kilmarnock(2)</t>
-  </si>
-  <si>
-    <t>Dunfermline,Morton(9) Partick(5) Arbroath(3) Ayr(6) Inverness C(1) Hamilton(7) Raith Rvs(4) Queen of Sth(8) Kilmarnock(2) Partick(5) Raith Rvs(4)</t>
-  </si>
-  <si>
-    <t>Hamilton,Raith Rvs(4) Morton(9) Kilmarnock(2) Queen of Sth(8) Arbroath(3) Ayr(6) Dunfermline(10) Inverness C(1) Partick(5) Kilmarnock(2) Queen of Sth(8)</t>
-  </si>
-  <si>
-    <t>Inverness C,Arbroath(3) Raith Rvs(4) Ayr(6) Kilmarnock(2) Partick(5) Dunfermline(10) Queen of Sth(8) Hamilton(7) Morton(9) Raith Rvs(4) Arbroath(3)</t>
-  </si>
-  <si>
-    <t>Kilmarnock,Ayr(6) Queen of Sth(8) Hamilton(7) Inverness C(1) Morton(9) Partick(5) Arbroath(3) Raith Rvs(4) Dunfermline(10) Hamilton(7) Ayr(6)</t>
-  </si>
-  <si>
-    <t>Morton,Dunfermline(10) Hamilton(7) Queen of Sth(8) Partick(5) Kilmarnock(2) Raith Rvs(4) Ayr(6) Arbroath(3) Inverness C(1) Queen of Sth(8) Partick(5)</t>
-  </si>
-  <si>
-    <t>Partick,Queen of Sth(8) Dunfermline(10) Arbroath(3) Morton(9) Inverness C(1) Kilmarnock(2) Raith Rvs(4) Ayr(6) Hamilton(7) Dunfermline(10) Morton(9)</t>
-  </si>
-  <si>
-    <t>Queen of Sth,Partick(5) Kilmarnock(2) Morton(9) Hamilton(7) Raith Rvs(4) Arbroath(3) Inverness C(1) Dunfermline(10) Ayr(6) Morton(9) Hamilton(7)</t>
-  </si>
-  <si>
-    <t>Raith Rvs,Hamilton(7) Inverness C(1) Ayr(6) Queen of Sth(8) Morton(9) Partick(5) Dunfermline(10) Kilmarnock(2) Arbroath(3) Inverness C(1) Dunfermline(10)</t>
+    <t>Arbroath,W D D L D W</t>
+  </si>
+  <si>
+    <t>Ayr,W D L W D L</t>
+  </si>
+  <si>
+    <t>Dunfermline,D D L D D D</t>
+  </si>
+  <si>
+    <t>Hamilton,L D W L L W</t>
+  </si>
+  <si>
+    <t>Inverness C,D W L W D L</t>
+  </si>
+  <si>
+    <t>Kilmarnock,W D L D W W</t>
+  </si>
+  <si>
+    <t>Morton,L D D L D D</t>
+  </si>
+  <si>
+    <t>Partick,L L W W D D</t>
+  </si>
+  <si>
+    <t>Queen of Sth,L L W L D L</t>
+  </si>
+  <si>
+    <t>Raith Rvs,W D W W D D</t>
+  </si>
+  <si>
+    <t>Arbroath,2 0 2 1 1 1,(7)</t>
+  </si>
+  <si>
+    <t>Ayr,2 0 0 2 1 0,(5)</t>
+  </si>
+  <si>
+    <t>Dunfermline,0 1 0 2 0 1,(4)</t>
+  </si>
+  <si>
+    <t>Hamilton,0 0 2 1 1 1,(5)</t>
+  </si>
+  <si>
+    <t>Inverness C,0 2 1 2 1 0,(6)</t>
+  </si>
+  <si>
+    <t>Kilmarnock,2 0 1 2 2 1,(8)</t>
+  </si>
+  <si>
+    <t>Morton,0 0 2 0 0 0,(2)</t>
+  </si>
+  <si>
+    <t>Partick,0 2 4 6 0 0,(12)</t>
+  </si>
+  <si>
+    <t>Queen of Sth,0 1 1 1 0 0,(3)</t>
+  </si>
+  <si>
+    <t>Raith Rvs,3 1 3 2 1 1,(11)</t>
+  </si>
+  <si>
+    <t>Arbroath,0 0 2 2 1 0,(5)</t>
+  </si>
+  <si>
+    <t>Ayr,0 0 4 1 1 1,(7)</t>
+  </si>
+  <si>
+    <t>Dunfermline,0 1 1 2 0 1,(5)</t>
+  </si>
+  <si>
+    <t>Hamilton,2 0 1 6 2 0,(11)</t>
+  </si>
+  <si>
+    <t>Inverness C,0 1 2 0 1 1,(5)</t>
+  </si>
+  <si>
+    <t>Kilmarnock,0 0 3 2 1 0,(6)</t>
+  </si>
+  <si>
+    <t>Morton,1 0 2 2 0 0,(5)</t>
+  </si>
+  <si>
+    <t>Partick,2 3 0 1 0 0,(6)</t>
+  </si>
+  <si>
+    <t>Queen of Sth,2 2 0 2 0 1,(7)</t>
+  </si>
+  <si>
+    <t>Raith Rvs,2 1 1 1 1 1,(7)</t>
+  </si>
+  <si>
+    <t>Arbroath,2 0 4 3 2 1,(12)</t>
+  </si>
+  <si>
+    <t>Ayr,2 0 4 3 2 1,(12)</t>
+  </si>
+  <si>
+    <t>Dunfermline,0 2 1 4 0 2,(9)</t>
+  </si>
+  <si>
+    <t>Hamilton,2 0 3 7 3 1,(16)</t>
+  </si>
+  <si>
+    <t>Inverness C,0 3 3 2 2 1,(11)</t>
+  </si>
+  <si>
+    <t>Kilmarnock,2 0 4 4 3 1,(14)</t>
+  </si>
+  <si>
+    <t>Morton,1 0 4 2 0 0,(7)</t>
+  </si>
+  <si>
+    <t>Partick,2 5 4 7 0 0,(18)</t>
+  </si>
+  <si>
+    <t>Queen of Sth,2 3 1 3 0 1,(10)</t>
+  </si>
+  <si>
+    <t>Raith Rvs,5 2 4 3 2 2,(18)</t>
+  </si>
+  <si>
+    <t>Arbroath,0-2 0-0 2-2 2-1 1-1 0-1</t>
+  </si>
+  <si>
+    <t>Ayr,0-2 0-0 4-0 2-1 1-1 0-1</t>
+  </si>
+  <si>
+    <t>Dunfermline,0-0 1-1 1-0 2-2 0-0 1-1</t>
+  </si>
+  <si>
+    <t>Hamilton,0-2 0-0 2-1 1-6 2-1 1-0</t>
+  </si>
+  <si>
+    <t>Inverness C,0-0 2-1 2-1 2-0 1-1 0-1</t>
+  </si>
+  <si>
+    <t>Kilmarnock,0-2 0-0 1-3 2-2 2-1 0-1</t>
+  </si>
+  <si>
+    <t>Morton,0-1 0-0 2-2 2-0 0-0 0-0</t>
+  </si>
+  <si>
+    <t>Partick,0-2 3-2 4-0 1-6 0-0 0-0</t>
+  </si>
+  <si>
+    <t>Queen of Sth,0-2 2-1 1-0 2-1 0-0 1-0</t>
+  </si>
+  <si>
+    <t>Raith Rvs,3-2 1-1 1-3 2-1 1-1 1-1</t>
+  </si>
+  <si>
+    <t>Arbroath,2 0 0 -1 0 1,(2)</t>
+  </si>
+  <si>
+    <t>Ayr,2 0 -4 1 0 -1,(-2)</t>
+  </si>
+  <si>
+    <t>Dunfermline,0 0 -1 0 0 0,(-1)</t>
+  </si>
+  <si>
+    <t>Hamilton,-2 0 1 -5 -1 1,(-6)</t>
+  </si>
+  <si>
+    <t>Inverness C,0 1 -1 2 0 -1,(1)</t>
+  </si>
+  <si>
+    <t>Kilmarnock,2 0 -2 0 1 1,(2)</t>
+  </si>
+  <si>
+    <t>Morton,-1 0 0 -2 0 0,(-3)</t>
+  </si>
+  <si>
+    <t>Partick,-2 -1 4 5 0 0,(6)</t>
+  </si>
+  <si>
+    <t>Queen of Sth,-2 -1 1 -1 0 -1,(-4)</t>
+  </si>
+  <si>
+    <t>Raith Rvs,1 0 2 1 0 0,(4)</t>
+  </si>
+  <si>
+    <t>Arbroath,Queen of Sth(8) Kilmarnock(2) Morton(9) Raith Rvs(4) Ayr(6) Inverness C(1)</t>
+  </si>
+  <si>
+    <t>Ayr,Hamilton(7) Morton(9) Partick(5) Queen of Sth(8) Arbroath(3) Kilmarnock(2)</t>
+  </si>
+  <si>
+    <t>Dunfermline,Hamilton(7) Raith Rvs(4) Queen of Sth(8) Kilmarnock(2) Partick(5) Raith Rvs(4)</t>
+  </si>
+  <si>
+    <t>Hamilton,Ayr(6) Dunfermline(10) Inverness C(1) Partick(5) Kilmarnock(2) Queen of Sth(8)</t>
+  </si>
+  <si>
+    <t>Inverness C,Dunfermline(10) Queen of Sth(8) Hamilton(7) Morton(9) Raith Rvs(4) Arbroath(3)</t>
+  </si>
+  <si>
+    <t>Kilmarnock,Partick(5) Arbroath(3) Raith Rvs(4) Dunfermline(10) Hamilton(7) Ayr(6)</t>
+  </si>
+  <si>
+    <t>Morton,Raith Rvs(4) Ayr(6) Arbroath(3) Inverness C(1) Queen of Sth(8) Partick(5)</t>
+  </si>
+  <si>
+    <t>Partick,Kilmarnock(2) Raith Rvs(4) Ayr(6) Hamilton(7) Dunfermline(10) Morton(9)</t>
+  </si>
+  <si>
+    <t>Queen of Sth,Arbroath(3) Inverness C(1) Dunfermline(10) Ayr(6) Morton(9) Hamilton(7)</t>
+  </si>
+  <si>
+    <t>Raith Rvs,Partick(5) Dunfermline(10) Kilmarnock(2) Arbroath(3) Inverness C(1) Dunfermline(10)</t>
   </si>
   <si>
     <t>Div</t>

--- a/Divisions/SC1.xlsx
+++ b/Divisions/SC1.xlsx
@@ -711,214 +711,214 @@
     <t>Team against</t>
   </si>
   <si>
-    <t>Arbroath,L D W W W W D D L D W W D D W D W W</t>
-  </si>
-  <si>
-    <t>Ayr,L D L L W W D L W D L L D L L D D L</t>
-  </si>
-  <si>
-    <t>Dunfermline,D L L L D D D L D D D L L W W L D</t>
-  </si>
-  <si>
-    <t>Hamilton,D L L W L L D W L L W D D L L W D W</t>
-  </si>
-  <si>
-    <t>Inverness C,W W W W W D W L W D L D D L W W W L</t>
-  </si>
-  <si>
-    <t>Kilmarnock,W W W L W W D L D W W W L W L L L</t>
-  </si>
-  <si>
-    <t>Morton,D W L L L L D D L D D D W L L D L L</t>
-  </si>
-  <si>
-    <t>Partick,W W L W L L L W W D D D W W W D L W</t>
-  </si>
-  <si>
-    <t>Queen of Sth,L L W L W L L W L D L L D D L D D W</t>
-  </si>
-  <si>
-    <t>Raith Rvs,D L W L W W D W W D D W D W W D W L</t>
-  </si>
-  <si>
-    <t>Arbroath,0 2 3 3 4 2 0 2 1 1 1 4 1 1 1 0 2 2,(30)</t>
-  </si>
-  <si>
-    <t>Ayr,0 2 0 0 3 2 0 0 2 1 0 1 2 0 0 2 1 0,(16)</t>
-  </si>
-  <si>
-    <t>Dunfermline,2 0 0 1 0 0 1 0 2 0 1 2 1 2 3 0 3,(18)</t>
-  </si>
-  <si>
-    <t>Hamilton,4 0 0 2 0 0 0 2 1 1 1 1 1 0 0 1 1 2,(17)</t>
-  </si>
-  <si>
-    <t>Inverness C,1 1 1 1 3 0 2 1 2 1 0 0 2 1 2 1 6 1,(26)</t>
-  </si>
-  <si>
-    <t>Kilmarnock,2 1 2 0 1 2 0 1 2 2 1 4 0 2 0 0 0,(20)</t>
-  </si>
-  <si>
-    <t>Morton,2 1 2 0 0 0 0 2 0 0 0 1 3 0 1 2 1 1,(16)</t>
-  </si>
-  <si>
-    <t>Partick,3 3 1 3 1 0 2 4 6 0 0 0 1 4 1 0 0 1,(30)</t>
-  </si>
-  <si>
-    <t>Queen of Sth,2 0 3 1 1 0 1 1 1 0 0 0 1 1 1 0 3 3,(19)</t>
-  </si>
-  <si>
-    <t>Raith Rvs,4 0 2 0 1 3 1 3 2 1 1 2 1 3 2 0 1 0,(27)</t>
-  </si>
-  <si>
-    <t>Arbroath,1 2 1 0 0 0 0 2 2 1 0 2 1 1 0 0 0 1,(14)</t>
-  </si>
-  <si>
-    <t>Ayr,2 2 1 2 1 0 0 4 1 1 1 2 2 4 3 2 1 3,(32)</t>
-  </si>
-  <si>
-    <t>Dunfermline,2 3 3 3 0 0 1 1 2 0 1 4 3 1 0 1 3,(28)</t>
-  </si>
-  <si>
-    <t>Hamilton,4 1 2 1 4 2 0 1 6 2 0 1 1 3 1 0 1 1,(31)</t>
-  </si>
-  <si>
-    <t>Inverness C,0 0 0 0 1 0 1 2 0 1 1 0 2 2 1 0 1 2,(14)</t>
-  </si>
-  <si>
-    <t>Kilmarnock,0 0 0 1 0 0 0 3 2 1 0 0 1 0 1 1 1,(11)</t>
-  </si>
-  <si>
-    <t>Morton,2 0 3 3 1 1 0 2 2 0 0 1 1 2 2 2 6 2,(30)</t>
-  </si>
-  <si>
-    <t>Partick,2 0 3 0 3 2 3 0 1 0 0 0 0 0 0 0 2 0,(16)</t>
-  </si>
-  <si>
-    <t>Queen of Sth,3 1 2 2 0 2 2 0 2 0 1 4 1 1 2 0 3 0,(26)</t>
-  </si>
-  <si>
-    <t>Raith Rvs,4 1 0 1 0 2 1 1 1 1 1 1 1 0 1 0 0 1,(17)</t>
-  </si>
-  <si>
-    <t>Arbroath,1 4 4 3 4 2 0 4 3 2 1 6 2 2 1 0 2 3,(44)</t>
-  </si>
-  <si>
-    <t>Ayr,2 4 1 2 4 2 0 4 3 2 1 3 4 4 3 4 2 3,(48)</t>
-  </si>
-  <si>
-    <t>Dunfermline,4 3 3 4 0 0 2 1 4 0 2 6 4 3 3 1 6,(46)</t>
-  </si>
-  <si>
-    <t>Hamilton,8 1 2 3 4 2 0 3 7 3 1 2 2 3 1 1 2 3,(48)</t>
-  </si>
-  <si>
-    <t>Inverness C,1 1 1 1 4 0 3 3 2 2 1 0 4 3 3 1 7 3,(40)</t>
-  </si>
-  <si>
-    <t>Kilmarnock,2 1 2 1 1 2 0 4 4 3 1 4 1 2 1 1 1,(31)</t>
-  </si>
-  <si>
-    <t>Morton,4 1 5 3 1 1 0 4 2 0 0 2 4 2 3 4 7 3,(46)</t>
-  </si>
-  <si>
-    <t>Partick,5 3 4 3 4 2 5 4 7 0 0 0 1 4 1 0 2 1,(46)</t>
-  </si>
-  <si>
-    <t>Queen of Sth,5 1 5 3 1 2 3 1 3 0 1 4 2 2 3 0 6 3,(45)</t>
-  </si>
-  <si>
-    <t>Raith Rvs,8 1 2 1 1 5 2 4 3 2 2 3 2 3 3 0 1 1,(44)</t>
-  </si>
-  <si>
-    <t>Arbroath,0-1 2-2 3-1 0-3 4-0 0-2 0-0 2-2 2-1 1-1 0-1 4-2 1-1 1-1 0-1 0-0 0-2 2-1</t>
-  </si>
-  <si>
-    <t>Ayr,2-0 2-2 1-0 0-2 3-1 0-2 0-0 4-0 2-1 1-1 0-1 2-1 2-2 0-4 3-0 2-2 1-1 3-0</t>
-  </si>
-  <si>
-    <t>Dunfermline,2-2 0-3 0-3 3-1 0-0 0-0 1-1 1-0 2-2 0-0 1-1 4-2 1-3 1-2 3-0 1-0 3-3</t>
-  </si>
-  <si>
-    <t>Hamilton,4-4 0-1 0-2 1-2 4-0 0-2 0-0 2-1 1-6 2-1 1-0 1-1 1-1 0-3 1-0 1-0 1-1 1-2</t>
-  </si>
-  <si>
-    <t>Inverness C,0-1 1-0 1-0 0-1 3-1 0-0 2-1 2-1 2-0 1-1 0-1 0-0 2-2 1-2 1-2 1-0 1-6 1-2</t>
-  </si>
-  <si>
-    <t>Kilmarnock,2-0 0-1 0-2 0-1 1-0 0-2 0-0 1-3 2-2 2-1 0-1 4-0 0-1 0-2 0-1 1-0 1-0</t>
-  </si>
-  <si>
-    <t>Morton,2-2 0-1 2-3 3-0 1-0 0-1 0-0 2-2 2-0 0-0 0-0 1-1 1-3 0-2 2-1 2-2 1-6 2-1</t>
-  </si>
-  <si>
-    <t>Partick,3-2 0-3 3-1 3-0 3-1 0-2 3-2 4-0 1-6 0-0 0-0 0-0 0-1 0-4 1-0 0-0 0-2 1-0</t>
-  </si>
-  <si>
-    <t>Queen of Sth,3-2 0-1 2-3 1-2 0-1 0-2 2-1 1-0 2-1 0-0 1-0 4-0 1-1 1-1 1-2 0-0 3-3 3-0</t>
-  </si>
-  <si>
-    <t>Raith Rvs,4-4 1-0 0-2 0-1 0-1 3-2 1-1 1-3 2-1 1-1 1-1 2-1 1-1 0-3 2-1 0-0 1-0 1-0</t>
-  </si>
-  <si>
-    <t>Arbroath,-1 0 2 3 4 2 0 0 -1 0 1 2 0 0 1 0 2 1,(16)</t>
-  </si>
-  <si>
-    <t>Ayr,-2 0 -1 -2 2 2 0 -4 1 0 -1 -1 0 -4 -3 0 0 -3,(-16)</t>
-  </si>
-  <si>
-    <t>Dunfermline,0 -3 -3 -2 0 0 0 -1 0 0 0 -2 -2 1 3 -1 0,(-10)</t>
-  </si>
-  <si>
-    <t>Hamilton,0 -1 -2 1 -4 -2 0 1 -5 -1 1 0 0 -3 -1 1 0 1,(-14)</t>
-  </si>
-  <si>
-    <t>Inverness C,1 1 1 1 2 0 1 -1 2 0 -1 0 0 -1 1 1 5 -1,(12)</t>
-  </si>
-  <si>
-    <t>Kilmarnock,2 1 2 -1 1 2 0 -2 0 1 1 4 -1 2 -1 -1 -1,(9)</t>
-  </si>
-  <si>
-    <t>Morton,0 1 -1 -3 -1 -1 0 0 -2 0 0 0 2 -2 -1 0 -5 -1,(-14)</t>
-  </si>
-  <si>
-    <t>Partick,1 3 -2 3 -2 -2 -1 4 5 0 0 0 1 4 1 0 -2 1,(14)</t>
-  </si>
-  <si>
-    <t>Queen of Sth,-1 -1 1 -1 1 -2 -1 1 -1 0 -1 -4 0 0 -1 0 0 3,(-7)</t>
-  </si>
-  <si>
-    <t>Raith Rvs,0 -1 2 -1 1 1 0 2 1 0 0 1 0 3 1 0 1 -1,(10)</t>
-  </si>
-  <si>
-    <t>Arbroath,Inverness C(2) Ayr(8) Partick(4) Dunfermline(9) Hamilton(6) Queen of Sth(7) Kilmarnock(5) Morton(10) Raith Rvs(3) Ayr(8) Inverness C(2) Dunfermline(9) Hamilton(6) Queen of Sth(7) Kilmarnock(5) Raith Rvs(3) Partick(4) Morton(10)</t>
-  </si>
-  <si>
-    <t>Ayr,Kilmarnock(5) Arbroath(1) Inverness C(2) Raith Rvs(3) Dunfermline(9) Hamilton(6) Morton(10) Partick(4) Queen of Sth(7) Arbroath(1) Kilmarnock(5) Raith Rvs(3) Inverness C(2) Partick(4) Dunfermline(9) Morton(10) Hamilton(6) Queen of Sth(7)</t>
-  </si>
-  <si>
-    <t>Dunfermline,Morton(10) Partick(4) Arbroath(1) Ayr(8) Inverness C(2) Hamilton(6) Raith Rvs(3) Queen of Sth(7) Kilmarnock(5) Partick(4) Raith Rvs(3) Arbroath(1) Morton(10) Inverness C(2) Ayr(8) Hamilton(6) Queen of Sth(7)</t>
-  </si>
-  <si>
-    <t>Hamilton,Raith Rvs(3) Morton(10) Kilmarnock(5) Queen of Sth(7) Arbroath(1) Ayr(8) Dunfermline(9) Inverness C(2) Partick(4) Kilmarnock(5) Queen of Sth(7) Morton(10) Arbroath(1) Raith Rvs(3) Partick(4) Dunfermline(9) Ayr(8) Inverness C(2)</t>
-  </si>
-  <si>
-    <t>Inverness C,Arbroath(1) Raith Rvs(3) Ayr(8) Kilmarnock(5) Partick(4) Dunfermline(9) Queen of Sth(7) Hamilton(6) Morton(10) Raith Rvs(3) Arbroath(1) Partick(4) Ayr(8) Dunfermline(9) Queen of Sth(7) Kilmarnock(5) Morton(10) Hamilton(6)</t>
-  </si>
-  <si>
-    <t>Kilmarnock,Ayr(8) Queen of Sth(7) Hamilton(6) Inverness C(2) Morton(10) Partick(4) Arbroath(1) Raith Rvs(3) Dunfermline(9) Hamilton(6) Ayr(8) Queen of Sth(7) Partick(4) Morton(10) Arbroath(1) Inverness C(2) Raith Rvs(3)</t>
-  </si>
-  <si>
-    <t>Morton,Dunfermline(9) Hamilton(6) Queen of Sth(7) Partick(4) Kilmarnock(5) Raith Rvs(3) Ayr(8) Arbroath(1) Inverness C(2) Queen of Sth(7) Partick(4) Hamilton(6) Dunfermline(9) Kilmarnock(5) Raith Rvs(3) Ayr(8) Inverness C(2) Arbroath(1)</t>
-  </si>
-  <si>
-    <t>Partick,Queen of Sth(7) Dunfermline(9) Arbroath(1) Morton(10) Inverness C(2) Kilmarnock(5) Raith Rvs(3) Ayr(8) Hamilton(6) Dunfermline(9) Morton(10) Inverness C(2) Kilmarnock(5) Ayr(8) Hamilton(6) Queen of Sth(7) Arbroath(1) Raith Rvs(3)</t>
-  </si>
-  <si>
-    <t>Queen of Sth,Partick(4) Kilmarnock(5) Morton(10) Hamilton(6) Raith Rvs(3) Arbroath(1) Inverness C(2) Dunfermline(9) Ayr(8) Morton(10) Hamilton(6) Kilmarnock(5) Raith Rvs(3) Arbroath(1) Inverness C(2) Partick(4) Dunfermline(9) Ayr(8)</t>
-  </si>
-  <si>
-    <t>Raith Rvs,Hamilton(6) Inverness C(2) Ayr(8) Queen of Sth(7) Morton(10) Partick(4) Dunfermline(9) Kilmarnock(5) Arbroath(1) Inverness C(2) Dunfermline(9) Ayr(8) Queen of Sth(7) Hamilton(6) Morton(10) Arbroath(1) Kilmarnock(5) Partick(4)</t>
+    <t>Arbroath,D D W D W W</t>
+  </si>
+  <si>
+    <t>Ayr,D L L D D L</t>
+  </si>
+  <si>
+    <t>Dunfermline,L L W W L D</t>
+  </si>
+  <si>
+    <t>Hamilton,D L L W D W</t>
+  </si>
+  <si>
+    <t>Inverness C,D L W W W L</t>
+  </si>
+  <si>
+    <t>Kilmarnock,W L W L L L</t>
+  </si>
+  <si>
+    <t>Morton,W L L D L L</t>
+  </si>
+  <si>
+    <t>Partick,W W W D L W</t>
+  </si>
+  <si>
+    <t>Queen of Sth,D D L D D W</t>
+  </si>
+  <si>
+    <t>Raith Rvs,D W W D W L</t>
+  </si>
+  <si>
+    <t>Arbroath,1 1 1 0 2 2,(7)</t>
+  </si>
+  <si>
+    <t>Ayr,2 0 0 2 1 0,(5)</t>
+  </si>
+  <si>
+    <t>Dunfermline,2 1 2 3 0 3,(11)</t>
+  </si>
+  <si>
+    <t>Hamilton,1 0 0 1 1 2,(5)</t>
+  </si>
+  <si>
+    <t>Inverness C,2 1 2 1 6 1,(13)</t>
+  </si>
+  <si>
+    <t>Kilmarnock,4 0 2 0 0 0,(6)</t>
+  </si>
+  <si>
+    <t>Morton,3 0 1 2 1 1,(8)</t>
+  </si>
+  <si>
+    <t>Partick,1 4 1 0 0 1,(7)</t>
+  </si>
+  <si>
+    <t>Queen of Sth,1 1 1 0 3 3,(9)</t>
+  </si>
+  <si>
+    <t>Raith Rvs,1 3 2 0 1 0,(7)</t>
+  </si>
+  <si>
+    <t>Arbroath,1 1 0 0 0 1,(3)</t>
+  </si>
+  <si>
+    <t>Ayr,2 4 3 2 1 3,(15)</t>
+  </si>
+  <si>
+    <t>Dunfermline,4 3 1 0 1 3,(12)</t>
+  </si>
+  <si>
+    <t>Hamilton,1 3 1 0 1 1,(7)</t>
+  </si>
+  <si>
+    <t>Inverness C,2 2 1 0 1 2,(8)</t>
+  </si>
+  <si>
+    <t>Kilmarnock,0 1 0 1 1 1,(4)</t>
+  </si>
+  <si>
+    <t>Morton,1 2 2 2 6 2,(15)</t>
+  </si>
+  <si>
+    <t>Partick,0 0 0 0 2 0,(2)</t>
+  </si>
+  <si>
+    <t>Queen of Sth,1 1 2 0 3 0,(7)</t>
+  </si>
+  <si>
+    <t>Raith Rvs,1 0 1 0 0 1,(3)</t>
+  </si>
+  <si>
+    <t>Arbroath,2 2 1 0 2 3,(10)</t>
+  </si>
+  <si>
+    <t>Ayr,4 4 3 4 2 3,(20)</t>
+  </si>
+  <si>
+    <t>Dunfermline,6 4 3 3 1 6,(23)</t>
+  </si>
+  <si>
+    <t>Hamilton,2 3 1 1 2 3,(12)</t>
+  </si>
+  <si>
+    <t>Inverness C,4 3 3 1 7 3,(21)</t>
+  </si>
+  <si>
+    <t>Kilmarnock,4 1 2 1 1 1,(10)</t>
+  </si>
+  <si>
+    <t>Morton,4 2 3 4 7 3,(23)</t>
+  </si>
+  <si>
+    <t>Partick,1 4 1 0 2 1,(9)</t>
+  </si>
+  <si>
+    <t>Queen of Sth,2 2 3 0 6 3,(16)</t>
+  </si>
+  <si>
+    <t>Raith Rvs,2 3 3 0 1 1,(10)</t>
+  </si>
+  <si>
+    <t>Arbroath,1-1 1-1 0-1 0-0 0-2 2-1</t>
+  </si>
+  <si>
+    <t>Ayr,2-2 0-4 3-0 2-2 1-1 3-0</t>
+  </si>
+  <si>
+    <t>Dunfermline,4-2 1-3 1-2 3-0 1-0 3-3</t>
+  </si>
+  <si>
+    <t>Hamilton,1-1 0-3 1-0 1-0 1-1 1-2</t>
+  </si>
+  <si>
+    <t>Inverness C,2-2 1-2 1-2 1-0 1-6 1-2</t>
+  </si>
+  <si>
+    <t>Kilmarnock,4-0 0-1 0-2 0-1 1-0 1-0</t>
+  </si>
+  <si>
+    <t>Morton,1-3 0-2 2-1 2-2 1-6 2-1</t>
+  </si>
+  <si>
+    <t>Partick,0-1 0-4 1-0 0-0 0-2 1-0</t>
+  </si>
+  <si>
+    <t>Queen of Sth,1-1 1-1 1-2 0-0 3-3 3-0</t>
+  </si>
+  <si>
+    <t>Raith Rvs,1-1 0-3 2-1 0-0 1-0 1-0</t>
+  </si>
+  <si>
+    <t>Arbroath,0 0 1 0 2 1,(4)</t>
+  </si>
+  <si>
+    <t>Ayr,0 -4 -3 0 0 -3,(-10)</t>
+  </si>
+  <si>
+    <t>Dunfermline,-2 -2 1 3 -1 0,(-1)</t>
+  </si>
+  <si>
+    <t>Hamilton,0 -3 -1 1 0 1,(-2)</t>
+  </si>
+  <si>
+    <t>Inverness C,0 -1 1 1 5 -1,(5)</t>
+  </si>
+  <si>
+    <t>Kilmarnock,4 -1 2 -1 -1 -1,(2)</t>
+  </si>
+  <si>
+    <t>Morton,2 -2 -1 0 -5 -1,(-7)</t>
+  </si>
+  <si>
+    <t>Partick,1 4 1 0 -2 1,(5)</t>
+  </si>
+  <si>
+    <t>Queen of Sth,0 0 -1 0 0 3,(2)</t>
+  </si>
+  <si>
+    <t>Raith Rvs,0 3 1 0 1 -1,(4)</t>
+  </si>
+  <si>
+    <t>Arbroath,Hamilton(6) Queen of Sth(7) Kilmarnock(5) Raith Rvs(3) Partick(4) Morton(10)</t>
+  </si>
+  <si>
+    <t>Ayr,Inverness C(2) Partick(4) Dunfermline(9) Morton(10) Hamilton(6) Queen of Sth(7)</t>
+  </si>
+  <si>
+    <t>Dunfermline,Arbroath(1) Morton(10) Inverness C(2) Ayr(8) Hamilton(6) Queen of Sth(7)</t>
+  </si>
+  <si>
+    <t>Hamilton,Arbroath(1) Raith Rvs(3) Partick(4) Dunfermline(9) Ayr(8) Inverness C(2)</t>
+  </si>
+  <si>
+    <t>Inverness C,Ayr(8) Dunfermline(9) Queen of Sth(7) Kilmarnock(5) Morton(10) Hamilton(6)</t>
+  </si>
+  <si>
+    <t>Kilmarnock,Queen of Sth(7) Partick(4) Morton(10) Arbroath(1) Inverness C(2) Raith Rvs(3)</t>
+  </si>
+  <si>
+    <t>Morton,Dunfermline(9) Kilmarnock(5) Raith Rvs(3) Ayr(8) Inverness C(2) Arbroath(1)</t>
+  </si>
+  <si>
+    <t>Partick,Kilmarnock(5) Ayr(8) Hamilton(6) Queen of Sth(7) Arbroath(1) Raith Rvs(3)</t>
+  </si>
+  <si>
+    <t>Queen of Sth,Raith Rvs(3) Arbroath(1) Inverness C(2) Partick(4) Dunfermline(9) Ayr(8)</t>
+  </si>
+  <si>
+    <t>Raith Rvs,Queen of Sth(7) Hamilton(6) Morton(10) Arbroath(1) Kilmarnock(5) Partick(4)</t>
   </si>
   <si>
     <t>Div</t>

--- a/Divisions/SC1.xlsx
+++ b/Divisions/SC1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2174" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2196" uniqueCount="290">
   <si>
     <t>Team</t>
   </si>
@@ -103,12 +103,12 @@
     <t>Hamilton</t>
   </si>
   <si>
+    <t>Morton</t>
+  </si>
+  <si>
     <t>Ayr</t>
   </si>
   <si>
-    <t>Morton</t>
-  </si>
-  <si>
     <t>Dunfermline</t>
   </si>
   <si>
@@ -124,36 +124,45 @@
     <t>22</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
     <t>23</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
     <t>18</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>40</t>
   </si>
   <si>
@@ -166,27 +175,27 @@
     <t>-13</t>
   </si>
   <si>
+    <t>-5</t>
+  </si>
+  <si>
     <t>-15</t>
   </si>
   <si>
-    <t>-6</t>
-  </si>
-  <si>
-    <t>-14</t>
+    <t>-16</t>
   </si>
   <si>
     <t>45</t>
   </si>
   <si>
+    <t>43</t>
+  </si>
+  <si>
     <t>39</t>
   </si>
   <si>
     <t>26</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>sc1_teams</t>
   </si>
   <si>
@@ -313,7 +322,10 @@
     <t>20.5</t>
   </si>
   <si>
-    <t>31</t>
+    <t>21</t>
+  </si>
+  <si>
+    <t>30</t>
   </si>
   <si>
     <t>16.5</t>
@@ -331,13 +343,16 @@
     <t>27.5</t>
   </si>
   <si>
+    <t>32</t>
+  </si>
+  <si>
     <t>42.5</t>
   </si>
   <si>
     <t>45.5</t>
   </si>
   <si>
-    <t>46.5</t>
+    <t>49.5</t>
   </si>
   <si>
     <t>44.5</t>
@@ -346,10 +361,10 @@
     <t>42</t>
   </si>
   <si>
-    <t>34.5</t>
-  </si>
-  <si>
-    <t>49</t>
+    <t>37.5</t>
+  </si>
+  <si>
+    <t>48</t>
   </si>
   <si>
     <t>44</t>
@@ -364,7 +379,7 @@
     <t>1.82</t>
   </si>
   <si>
-    <t>1.9375</t>
+    <t>1.98</t>
   </si>
   <si>
     <t>1.78</t>
@@ -373,12 +388,6 @@
     <t>1.68</t>
   </si>
   <si>
-    <t>1.4375</t>
-  </si>
-  <si>
-    <t>2.1304</t>
-  </si>
-  <si>
     <t>1.74</t>
   </si>
   <si>
@@ -502,6 +511,9 @@
     <t>X2022.02.09</t>
   </si>
   <si>
+    <t>X2022.02.12</t>
+  </si>
+  <si>
     <t>sc1_hytotals</t>
   </si>
   <si>
@@ -520,15 +532,6 @@
     <t>28.5</t>
   </si>
   <si>
-    <t>37.5</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
     <t>24.5</t>
   </si>
   <si>
@@ -541,7 +544,7 @@
     <t>59.5</t>
   </si>
   <si>
-    <t>50.5</t>
+    <t>58.5</t>
   </si>
   <si>
     <t>64.5</t>
@@ -550,18 +553,12 @@
     <t>60.5</t>
   </si>
   <si>
-    <t>52.5</t>
-  </si>
-  <si>
-    <t>50</t>
+    <t>47</t>
   </si>
   <si>
     <t>57.5</t>
   </si>
   <si>
-    <t>51</t>
-  </si>
-  <si>
     <t>71.5</t>
   </si>
   <si>
@@ -571,7 +568,7 @@
     <t>2.38</t>
   </si>
   <si>
-    <t>2.1042</t>
+    <t>2.34</t>
   </si>
   <si>
     <t>2.58</t>
@@ -580,18 +577,12 @@
     <t>2.42</t>
   </si>
   <si>
-    <t>2.1875</t>
-  </si>
-  <si>
-    <t>2.1739</t>
+    <t>1.9583</t>
   </si>
   <si>
     <t>2.6136</t>
   </si>
   <si>
-    <t>2.2174</t>
-  </si>
-  <si>
     <t>2.86</t>
   </si>
   <si>
@@ -613,27 +604,24 @@
     <t>0.04</t>
   </si>
   <si>
-    <t>0.0417</t>
+    <t>0.08</t>
   </si>
   <si>
     <t>0.18</t>
   </si>
   <si>
-    <t>0.08</t>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>0.1042</t>
+  </si>
+  <si>
+    <t>0.0455</t>
   </si>
   <si>
     <t>0.0625</t>
   </si>
   <si>
-    <t>0.1087</t>
-  </si>
-  <si>
-    <t>0.0455</t>
-  </si>
-  <si>
-    <t>0.0652</t>
-  </si>
-  <si>
     <t>0.16</t>
   </si>
   <si>
@@ -673,18 +661,12 @@
     <t>sc1_ov55</t>
   </si>
   <si>
-    <t>21</t>
+    <t>14</t>
   </si>
   <si>
     <t>17</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>Group.1</t>
   </si>
   <si>
@@ -769,10 +751,10 @@
     <t>28.57%</t>
   </si>
   <si>
-    <t>26.00%</t>
-  </si>
-  <si>
-    <t>35.42%</t>
+    <t>25.86%</t>
+  </si>
+  <si>
+    <t>33.33%</t>
   </si>
   <si>
     <t>31.11%</t>
@@ -790,7 +772,7 @@
     <t>25.00%</t>
   </si>
   <si>
-    <t>31.43%</t>
+    <t>30.00%</t>
   </si>
   <si>
     <t>32.65%</t>
@@ -808,7 +790,7 @@
     <t>46.94%</t>
   </si>
   <si>
-    <t>36.96%</t>
+    <t>36.73%</t>
   </si>
   <si>
     <t>37.84%</t>
@@ -820,7 +802,7 @@
     <t>31.08%</t>
   </si>
   <si>
-    <t>28.75%</t>
+    <t>28.24%</t>
   </si>
   <si>
     <t>27.84%</t>
@@ -829,16 +811,16 @@
     <t>29.73%</t>
   </si>
   <si>
-    <t>29.00%</t>
-  </si>
-  <si>
-    <t>32.14%</t>
+    <t>28.70%</t>
+  </si>
+  <si>
+    <t>31.18%</t>
   </si>
   <si>
     <t>39.36%</t>
   </si>
   <si>
-    <t>30.38%</t>
+    <t>30.49%</t>
   </si>
   <si>
     <t>40.96%</t>
@@ -859,10 +841,7 @@
     <t>30.43%</t>
   </si>
   <si>
-    <t>23.26%</t>
-  </si>
-  <si>
-    <t>43.75%</t>
+    <t>43.14%</t>
   </si>
   <si>
     <t>38.64%</t>
@@ -874,7 +853,7 @@
     <t>44.68%</t>
   </si>
   <si>
-    <t>39.58%</t>
+    <t>37.50%</t>
   </si>
   <si>
     <t>33.96%</t>
@@ -886,10 +865,7 @@
     <t>23.53%</t>
   </si>
   <si>
-    <t>33.33%</t>
-  </si>
-  <si>
-    <t>35.38%</t>
+    <t>33.78%</t>
   </si>
   <si>
     <t>20.41%</t>
@@ -901,7 +877,7 @@
     <t>38.00%</t>
   </si>
   <si>
-    <t>40.86%</t>
+    <t>39.60%</t>
   </si>
   <si>
     <t>39.22%</t>
@@ -910,10 +886,13 @@
     <t>29.87%</t>
   </si>
   <si>
-    <t>20.22%</t>
+    <t>20.21%</t>
   </si>
   <si>
     <t>28.21%</t>
+  </si>
+  <si>
+    <t>32.79%</t>
   </si>
 </sst>
 </file>
@@ -1008,7 +987,7 @@
         <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
@@ -1020,13 +999,13 @@
         <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -1040,7 +1019,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
         <v>34</v>
@@ -1055,13 +1034,13 @@
         <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="K3" t="n">
         <v>2.0</v>
@@ -1090,13 +1069,13 @@
         <v>38</v>
       </c>
       <c r="H4" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="I4" t="s">
         <v>19</v>
       </c>
       <c r="J4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K4" t="n">
         <v>3.0</v>
@@ -1163,7 +1142,7 @@
         <v>32</v>
       </c>
       <c r="I6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J6" t="s">
         <v>40</v>
@@ -1195,10 +1174,10 @@
         <v>41</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J7" t="s">
         <v>41</v>
@@ -1215,28 +1194,28 @@
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J8" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="K8" t="n">
         <v>7.0</v>
@@ -1250,28 +1229,28 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J9" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="K9" t="n">
         <v>8.0</v>
@@ -1285,7 +1264,7 @@
         <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -1294,19 +1273,19 @@
         <v>35</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H10" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J10" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="K10" t="n">
         <v>9.0</v>
@@ -1320,7 +1299,7 @@
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
@@ -1332,16 +1311,16 @@
         <v>34</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H11" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J11" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K11" t="n">
         <v>10.0</v>
@@ -1366,7 +1345,7 @@
         <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
         <v>28</v>
@@ -1375,37 +1354,37 @@
         <v>25</v>
       </c>
       <c r="F1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G1" t="s">
         <v>21</v>
       </c>
       <c r="H1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L1" t="s">
+        <v>187</v>
+      </c>
+      <c r="M1" t="s">
+        <v>188</v>
+      </c>
+      <c r="N1" t="s">
+        <v>189</v>
+      </c>
+      <c r="O1" t="s">
+        <v>86</v>
+      </c>
+      <c r="P1" t="s">
         <v>190</v>
-      </c>
-      <c r="M1" t="s">
-        <v>191</v>
-      </c>
-      <c r="N1" t="s">
-        <v>192</v>
-      </c>
-      <c r="O1" t="s">
-        <v>83</v>
-      </c>
-      <c r="P1" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="2">
@@ -1413,34 +1392,34 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L2" t="s">
         <v>10</v>
@@ -1455,39 +1434,39 @@
         <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K3" t="s">
         <v>10</v>
@@ -1496,7 +1475,7 @@
         <v>10</v>
       </c>
       <c r="M3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N3" t="s">
         <v>10</v>
@@ -1505,7 +1484,7 @@
         <v>31</v>
       </c>
       <c r="P3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4">
@@ -1513,49 +1492,49 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5">
@@ -1563,49 +1542,49 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
       </c>
       <c r="G5" t="s">
+        <v>93</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>91</v>
+      </c>
+      <c r="J5" t="s">
+        <v>91</v>
+      </c>
+      <c r="K5" t="s">
+        <v>91</v>
+      </c>
+      <c r="L5" t="s">
+        <v>94</v>
+      </c>
+      <c r="M5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" t="s">
         <v>90</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" t="s">
-        <v>88</v>
-      </c>
-      <c r="J5" t="s">
-        <v>88</v>
-      </c>
-      <c r="K5" t="s">
-        <v>88</v>
-      </c>
-      <c r="L5" t="s">
-        <v>91</v>
-      </c>
-      <c r="M5" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" t="s">
-        <v>87</v>
       </c>
       <c r="O5" t="s">
         <v>31</v>
       </c>
       <c r="P5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6">
@@ -1613,37 +1592,37 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M6" t="s">
         <v>11</v>
@@ -1655,7 +1634,7 @@
         <v>31</v>
       </c>
       <c r="P6" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7">
@@ -1663,37 +1642,37 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D7" t="s">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M7" t="s">
         <v>10</v>
@@ -1702,60 +1681,60 @@
         <v>89</v>
       </c>
       <c r="O7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="N8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="O8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="P8" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9">
@@ -1763,31 +1742,31 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K9" t="s">
         <v>10</v>
@@ -1796,7 +1775,7 @@
         <v>10</v>
       </c>
       <c r="M9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N9" t="s">
         <v>10</v>
@@ -1805,7 +1784,7 @@
         <v>32</v>
       </c>
       <c r="P9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10">
@@ -1816,46 +1795,46 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E10" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L10" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N10" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="P10" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11">
@@ -1863,34 +1842,34 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E11" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H11" t="s">
         <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J11" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L11" t="s">
         <v>11</v>
@@ -1905,7 +1884,7 @@
         <v>31</v>
       </c>
       <c r="P11" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -1924,43 +1903,43 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G1" t="s">
         <v>204</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>205</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>206</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>207</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>208</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>209</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>210</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>211</v>
-      </c>
-      <c r="K1" t="s">
-        <v>212</v>
-      </c>
-      <c r="L1" t="s">
-        <v>213</v>
-      </c>
-      <c r="M1" t="s">
-        <v>214</v>
-      </c>
-      <c r="N1" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="2">
@@ -1974,34 +1953,34 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>216</v>
+        <v>99</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G2" t="s">
-        <v>219</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
         <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J2" t="s">
         <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="L2" t="s">
         <v>10</v>
       </c>
       <c r="M2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="N2" t="s">
         <v>10</v>
@@ -2012,7 +1991,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -2024,16 +2003,16 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H3" t="s">
         <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J3" t="s">
         <v>15</v>
@@ -2042,13 +2021,13 @@
         <v>31</v>
       </c>
       <c r="L3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M3" t="s">
         <v>31</v>
       </c>
       <c r="N3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4">
@@ -2062,34 +2041,34 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>217</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
         <v>34</v>
       </c>
       <c r="I4" t="s">
-        <v>217</v>
+        <v>44</v>
       </c>
       <c r="J4" t="s">
         <v>16</v>
       </c>
       <c r="K4" t="s">
-        <v>216</v>
+        <v>32</v>
       </c>
       <c r="L4" t="s">
         <v>12</v>
       </c>
       <c r="M4" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="N4" t="s">
         <v>11</v>
@@ -2106,22 +2085,22 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s">
-        <v>219</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J5" t="s">
         <v>15</v>
@@ -2133,7 +2112,7 @@
         <v>12</v>
       </c>
       <c r="M5" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="N5" t="s">
         <v>11</v>
@@ -2156,28 +2135,28 @@
         <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s">
         <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J6" t="s">
         <v>14</v>
       </c>
       <c r="K6" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="L6" t="s">
         <v>11</v>
       </c>
       <c r="M6" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="N6" t="s">
         <v>11</v>
@@ -2194,37 +2173,37 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="J7" t="s">
         <v>13</v>
       </c>
       <c r="K7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L7" t="s">
         <v>10</v>
       </c>
       <c r="M7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
@@ -2232,40 +2211,40 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>213</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I8" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="J8" t="s">
         <v>17</v>
       </c>
       <c r="K8" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="L8" t="s">
         <v>12</v>
       </c>
       <c r="M8" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="N8" t="s">
         <v>10</v>
@@ -2282,13 +2261,13 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
@@ -2297,19 +2276,19 @@
         <v>35</v>
       </c>
       <c r="I9" t="s">
-        <v>219</v>
+        <v>34</v>
       </c>
       <c r="J9" t="s">
         <v>18</v>
       </c>
       <c r="K9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L9" t="s">
         <v>13</v>
       </c>
       <c r="M9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N9" t="s">
         <v>11</v>
@@ -2326,13 +2305,13 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>216</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
         <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>217</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s">
         <v>35</v>
@@ -2341,19 +2320,19 @@
         <v>34</v>
       </c>
       <c r="I10" t="s">
-        <v>217</v>
+        <v>44</v>
       </c>
       <c r="J10" t="s">
         <v>15</v>
       </c>
       <c r="K10" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="L10" t="s">
         <v>13</v>
       </c>
       <c r="M10" t="s">
-        <v>216</v>
+        <v>32</v>
       </c>
       <c r="N10" t="s">
         <v>11</v>
@@ -2376,16 +2355,16 @@
         <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H11" t="s">
         <v>19</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J11" t="s">
         <v>14</v>
@@ -2397,7 +2376,7 @@
         <v>12</v>
       </c>
       <c r="M11" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="N11" t="s">
         <v>11</v>
@@ -2419,76 +2398,76 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G1" t="s">
+        <v>219</v>
+      </c>
+      <c r="H1" t="s">
         <v>220</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I1" t="s">
         <v>221</v>
       </c>
-      <c r="D1" t="s">
+      <c r="J1" t="s">
         <v>222</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
         <v>223</v>
       </c>
-      <c r="F1" t="s">
+      <c r="L1" t="s">
         <v>224</v>
       </c>
-      <c r="G1" t="s">
+      <c r="M1" t="s">
         <v>225</v>
       </c>
-      <c r="H1" t="s">
+      <c r="N1" t="s">
+        <v>86</v>
+      </c>
+      <c r="O1" t="s">
         <v>226</v>
       </c>
-      <c r="I1" t="s">
+      <c r="P1" t="s">
         <v>227</v>
       </c>
-      <c r="J1" t="s">
+      <c r="Q1" t="s">
         <v>228</v>
       </c>
-      <c r="K1" t="s">
+      <c r="R1" t="s">
         <v>229</v>
       </c>
-      <c r="L1" t="s">
+      <c r="S1" t="s">
         <v>230</v>
       </c>
-      <c r="M1" t="s">
+      <c r="T1" t="s">
         <v>231</v>
       </c>
-      <c r="N1" t="s">
-        <v>83</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="U1" t="s">
         <v>232</v>
       </c>
-      <c r="P1" t="s">
+      <c r="V1" t="s">
         <v>233</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="W1" t="s">
         <v>234</v>
       </c>
-      <c r="R1" t="s">
+      <c r="X1" t="s">
         <v>235</v>
       </c>
-      <c r="S1" t="s">
+      <c r="Y1" t="s">
         <v>236</v>
-      </c>
-      <c r="T1" t="s">
-        <v>237</v>
-      </c>
-      <c r="U1" t="s">
-        <v>238</v>
-      </c>
-      <c r="V1" t="s">
-        <v>239</v>
-      </c>
-      <c r="W1" t="s">
-        <v>240</v>
-      </c>
-      <c r="X1" t="s">
-        <v>241</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="2">
@@ -2523,13 +2502,13 @@
         <v>38.0</v>
       </c>
       <c r="K2" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="L2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="M2" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="N2" t="n">
         <v>24.0</v>
@@ -2559,13 +2538,13 @@
         <v>18.0</v>
       </c>
       <c r="W2" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="X2" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="Y2" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3">
@@ -2573,7 +2552,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" t="n">
         <v>38.0</v>
@@ -2600,13 +2579,13 @@
         <v>23.0</v>
       </c>
       <c r="K3" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="L3" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="M3" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="N3" t="n">
         <v>25.0</v>
@@ -2636,13 +2615,13 @@
         <v>38.0</v>
       </c>
       <c r="W3" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="X3" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="Y3" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4">
@@ -2656,10 +2635,10 @@
         <v>45.0</v>
       </c>
       <c r="D4" t="n">
-        <v>35.0</v>
+        <v>40.0</v>
       </c>
       <c r="E4" t="n">
-        <v>80.0</v>
+        <v>85.0</v>
       </c>
       <c r="F4" t="n">
         <v>12.0</v>
@@ -2668,34 +2647,34 @@
         <v>1.0</v>
       </c>
       <c r="H4" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="J4" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="K4" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="L4" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="M4" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="N4" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="O4" t="n">
         <v>45.0</v>
       </c>
       <c r="P4" t="n">
-        <v>48.0</v>
+        <v>56.0</v>
       </c>
       <c r="Q4" t="n">
-        <v>93.0</v>
+        <v>101.0</v>
       </c>
       <c r="R4" t="n">
         <v>19.0</v>
@@ -2704,22 +2683,22 @@
         <v>1.5833333333333333</v>
       </c>
       <c r="T4" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="U4" t="n">
-        <v>1.5833333333333333</v>
+        <v>1.6153846153846154</v>
       </c>
       <c r="V4" t="n">
-        <v>38.0</v>
+        <v>40.0</v>
       </c>
       <c r="W4" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="X4" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="Y4" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5">
@@ -2754,13 +2733,13 @@
         <v>27.0</v>
       </c>
       <c r="K5" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="L5" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="M5" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="N5" t="n">
         <v>25.0</v>
@@ -2790,13 +2769,13 @@
         <v>40.0</v>
       </c>
       <c r="W5" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="X5" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="Y5" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6">
@@ -2831,13 +2810,13 @@
         <v>33.0</v>
       </c>
       <c r="K6" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="L6" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="M6" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="N6" t="n">
         <v>25.0</v>
@@ -2867,13 +2846,13 @@
         <v>23.0</v>
       </c>
       <c r="W6" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="X6" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="Y6" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7">
@@ -2884,19 +2863,19 @@
         <v>21</v>
       </c>
       <c r="C7" t="n">
-        <v>50.0</v>
+        <v>58.0</v>
       </c>
       <c r="D7" t="n">
         <v>50.0</v>
       </c>
       <c r="E7" t="n">
-        <v>100.0</v>
+        <v>108.0</v>
       </c>
       <c r="F7" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.1818181818181819</v>
+        <v>1.25</v>
       </c>
       <c r="H7" t="n">
         <v>16.0</v>
@@ -2905,34 +2884,34 @@
         <v>1.2307692307692308</v>
       </c>
       <c r="J7" t="n">
-        <v>29.0</v>
+        <v>31.0</v>
       </c>
       <c r="K7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="L7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="M7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="N7" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="O7" t="n">
-        <v>43.0</v>
+        <v>48.0</v>
       </c>
       <c r="P7" t="n">
         <v>46.0</v>
       </c>
       <c r="Q7" t="n">
-        <v>89.0</v>
+        <v>94.0</v>
       </c>
       <c r="R7" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="T7" t="n">
         <v>8.0</v>
@@ -2941,16 +2920,16 @@
         <v>0.6153846153846154</v>
       </c>
       <c r="V7" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="W7" t="s">
+        <v>240</v>
+      </c>
+      <c r="X7" t="s">
         <v>278</v>
       </c>
-      <c r="X7" t="s">
-        <v>285</v>
-      </c>
       <c r="Y7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8">
@@ -2958,22 +2937,22 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" t="n">
-        <v>48.0</v>
+        <v>57.0</v>
       </c>
       <c r="D8" t="n">
         <v>36.0</v>
       </c>
       <c r="E8" t="n">
-        <v>84.0</v>
+        <v>93.0</v>
       </c>
       <c r="F8" t="n">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.5454545454545454</v>
+        <v>1.5833333333333333</v>
       </c>
       <c r="H8" t="n">
         <v>10.0</v>
@@ -2982,34 +2961,34 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="J8" t="n">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
       <c r="K8" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="L8" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="M8" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="N8" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="O8" t="n">
-        <v>48.0</v>
+        <v>51.0</v>
       </c>
       <c r="P8" t="n">
         <v>51.0</v>
       </c>
       <c r="Q8" t="n">
-        <v>99.0</v>
+        <v>102.0</v>
       </c>
       <c r="R8" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="S8" t="n">
-        <v>1.9090909090909092</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="T8" t="n">
         <v>12.0</v>
@@ -3018,16 +2997,16 @@
         <v>1.0</v>
       </c>
       <c r="V8" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="W8" t="s">
+        <v>272</v>
+      </c>
+      <c r="X8" t="s">
         <v>279</v>
       </c>
-      <c r="X8" t="s">
-        <v>286</v>
-      </c>
       <c r="Y8" t="s">
-        <v>287</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9">
@@ -3062,13 +3041,13 @@
         <v>37.0</v>
       </c>
       <c r="K9" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="L9" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="M9" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="N9" t="n">
         <v>22.0</v>
@@ -3098,13 +3077,13 @@
         <v>22.0</v>
       </c>
       <c r="W9" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="X9" t="s">
-        <v>287</v>
+        <v>243</v>
       </c>
       <c r="Y9" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10">
@@ -3118,10 +3097,10 @@
         <v>33.0</v>
       </c>
       <c r="D10" t="n">
-        <v>46.0</v>
+        <v>49.0</v>
       </c>
       <c r="E10" t="n">
-        <v>79.0</v>
+        <v>82.0</v>
       </c>
       <c r="F10" t="n">
         <v>7.0</v>
@@ -3130,34 +3109,34 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="H10" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.5454545454545454</v>
+        <v>1.5</v>
       </c>
       <c r="J10" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>245</v>
+      </c>
+      <c r="L10" t="s">
+        <v>255</v>
+      </c>
+      <c r="M10" t="s">
+        <v>265</v>
+      </c>
+      <c r="N10" t="n">
         <v>24.0</v>
-      </c>
-      <c r="K10" t="s">
-        <v>251</v>
-      </c>
-      <c r="L10" t="s">
-        <v>261</v>
-      </c>
-      <c r="M10" t="s">
-        <v>271</v>
-      </c>
-      <c r="N10" t="n">
-        <v>23.0</v>
       </c>
       <c r="O10" t="n">
         <v>48.0</v>
       </c>
       <c r="P10" t="n">
-        <v>65.0</v>
+        <v>74.0</v>
       </c>
       <c r="Q10" t="n">
-        <v>113.0</v>
+        <v>122.0</v>
       </c>
       <c r="R10" t="n">
         <v>15.0</v>
@@ -3166,22 +3145,22 @@
         <v>1.25</v>
       </c>
       <c r="T10" t="n">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="U10" t="n">
-        <v>2.090909090909091</v>
+        <v>2.0833333333333335</v>
       </c>
       <c r="V10" t="n">
-        <v>38.0</v>
+        <v>40.0</v>
       </c>
       <c r="W10" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="X10" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="Y10" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11">
@@ -3216,13 +3195,13 @@
         <v>34.0</v>
       </c>
       <c r="K11" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="L11" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="M11" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="N11" t="n">
         <v>25.0</v>
@@ -3252,13 +3231,13 @@
         <v>27.0</v>
       </c>
       <c r="W11" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="X11" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="Y11" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -3277,73 +3256,73 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="N1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="Q1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="R1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="S1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="W1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="X1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2">
@@ -3425,7 +3404,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -3795,7 +3774,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
@@ -4102,73 +4081,73 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="N1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="Q1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="R1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="S1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="W1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="X1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2">
@@ -4250,7 +4229,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" t="n">
         <v>0.0</v>
@@ -4620,7 +4599,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" t="n">
         <v>2.0</v>
@@ -4927,73 +4906,73 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="N1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="Q1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="R1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="S1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="W1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="X1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2">
@@ -5075,7 +5054,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -5445,7 +5424,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" t="n">
         <v>2.0</v>
@@ -5752,73 +5731,73 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="N1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="Q1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="R1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="S1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="W1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="X1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2">
@@ -5900,7 +5879,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -6270,7 +6249,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" t="n">
         <v>4.0</v>
@@ -6580,7 +6559,7 @@
         <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
         <v>28</v>
@@ -6589,37 +6568,37 @@
         <v>25</v>
       </c>
       <c r="F1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G1" t="s">
         <v>21</v>
       </c>
       <c r="H1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="N1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="P1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2">
@@ -6627,7 +6606,7 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -6639,10 +6618,10 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H2" t="s">
         <v>12</v>
@@ -6654,33 +6633,33 @@
         <v>11</v>
       </c>
       <c r="K2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L2" t="s">
         <v>32</v>
       </c>
       <c r="M2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="N2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="O2" t="s">
         <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -6707,19 +6686,19 @@
         <v>11</v>
       </c>
       <c r="L3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="M3" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="N3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="O3" t="s">
         <v>31</v>
       </c>
       <c r="P3" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4">
@@ -6733,10 +6712,10 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
@@ -6757,19 +6736,19 @@
         <v>11</v>
       </c>
       <c r="L4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="O4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P4" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5">
@@ -6786,19 +6765,19 @@
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H5" t="s">
         <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J5" t="s">
         <v>10</v>
@@ -6810,16 +6789,16 @@
         <v>32</v>
       </c>
       <c r="M5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="N5" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="O5" t="s">
         <v>31</v>
       </c>
       <c r="P5" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6">
@@ -6839,37 +6818,37 @@
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I6" t="s">
         <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="N6" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="O6" t="s">
         <v>31</v>
       </c>
       <c r="P6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7">
@@ -6880,10 +6859,10 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D7" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -6892,10 +6871,10 @@
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I7" t="s">
         <v>10</v>
@@ -6907,24 +6886,24 @@
         <v>13</v>
       </c>
       <c r="L7" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="M7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="N7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="O7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P7" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -6933,7 +6912,7 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
@@ -6945,31 +6924,31 @@
         <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L8" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N8" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="O8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="P8" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -6980,16 +6959,16 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G9" t="s">
         <v>11</v>
@@ -6998,7 +6977,7 @@
         <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J9" t="s">
         <v>14</v>
@@ -7007,13 +6986,13 @@
         <v>10</v>
       </c>
       <c r="L9" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="M9" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="N9" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="O9" t="s">
         <v>32</v>
@@ -7033,7 +7012,7 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -7042,34 +7021,34 @@
         <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K10" t="s">
         <v>11</v>
       </c>
       <c r="L10" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="M10" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="N10" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="O10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="P10" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -7101,25 +7080,25 @@
         <v>14</v>
       </c>
       <c r="J11" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L11" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N11" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="O11" t="s">
         <v>31</v>
       </c>
       <c r="P11" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -7138,124 +7117,127 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="I1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="J1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="N1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="O1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="P1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="R1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="S1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="T1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="U1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="V1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="W1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="X1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Z1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AA1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AB1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AC1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AD1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AE1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AF1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AG1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AH1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="AI1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="AJ1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="AK1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AL1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AM1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AN1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AO1" t="s">
-        <v>158</v>
+        <v>161</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="2">
@@ -7266,7 +7248,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -7278,7 +7260,7 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H2" t="s">
         <v>10</v>
@@ -7290,25 +7272,25 @@
         <v>11</v>
       </c>
       <c r="K2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="N2" t="s">
         <v>10</v>
       </c>
       <c r="O2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P2" t="s">
         <v>12</v>
       </c>
       <c r="Q2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="R2" t="s">
         <v>10</v>
@@ -7323,19 +7305,19 @@
         <v>10</v>
       </c>
       <c r="V2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="W2" t="s">
         <v>12</v>
       </c>
       <c r="X2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Y2" t="s">
         <v>13</v>
       </c>
       <c r="Z2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AA2" t="s">
         <v>11</v>
@@ -7347,48 +7329,51 @@
         <v>10</v>
       </c>
       <c r="AD2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AE2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AF2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AG2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AH2" t="s">
         <v>11</v>
       </c>
       <c r="AI2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AJ2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AK2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AL2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AM2" t="s">
         <v>11</v>
       </c>
       <c r="AN2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AO2" t="s">
         <v>11</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -7400,7 +7385,7 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -7412,22 +7397,22 @@
         <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="N3" t="s">
         <v>11</v>
       </c>
       <c r="O3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P3" t="s">
         <v>10</v>
@@ -7448,22 +7433,22 @@
         <v>11</v>
       </c>
       <c r="V3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="W3" t="s">
         <v>10</v>
       </c>
       <c r="X3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Y3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Z3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AA3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AB3" t="s">
         <v>13</v>
@@ -7472,25 +7457,25 @@
         <v>11</v>
       </c>
       <c r="AD3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AE3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AF3" t="s">
         <v>10</v>
       </c>
       <c r="AG3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AH3" t="s">
         <v>13</v>
       </c>
       <c r="AI3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AJ3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AK3" t="s">
         <v>12</v>
@@ -7499,13 +7484,16 @@
         <v>12</v>
       </c>
       <c r="AM3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AN3" t="s">
         <v>12</v>
       </c>
       <c r="AO3" t="s">
         <v>11</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="4">
@@ -7516,19 +7504,19 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H4" t="s">
         <v>11</v>
@@ -7537,28 +7525,28 @@
         <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K4" t="s">
         <v>12</v>
       </c>
       <c r="L4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M4" t="s">
         <v>11</v>
       </c>
       <c r="N4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P4" t="s">
         <v>11</v>
       </c>
       <c r="Q4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="R4" t="s">
         <v>12</v>
@@ -7573,40 +7561,40 @@
         <v>13</v>
       </c>
       <c r="V4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="W4" t="s">
         <v>10</v>
       </c>
       <c r="X4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Y4" t="s">
         <v>12</v>
       </c>
       <c r="Z4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AA4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AB4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AC4" t="s">
         <v>12</v>
       </c>
       <c r="AD4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AE4" t="s">
         <v>11</v>
       </c>
       <c r="AF4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AG4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AH4" t="s">
         <v>11</v>
@@ -7615,22 +7603,25 @@
         <v>12</v>
       </c>
       <c r="AJ4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AK4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AL4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AM4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AN4" t="s">
         <v>12</v>
       </c>
       <c r="AO4" t="s">
-        <v>85</v>
+        <v>88</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -7638,13 +7629,13 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -7653,25 +7644,25 @@
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I5" t="s">
         <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K5" t="s">
         <v>11</v>
       </c>
       <c r="L5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="N5" t="s">
         <v>13</v>
@@ -7680,10 +7671,10 @@
         <v>11</v>
       </c>
       <c r="P5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Q5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="R5" t="s">
         <v>11</v>
@@ -7698,13 +7689,13 @@
         <v>14</v>
       </c>
       <c r="V5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="W5" t="s">
         <v>11</v>
       </c>
       <c r="X5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Y5" t="s">
         <v>11</v>
@@ -7713,7 +7704,7 @@
         <v>11</v>
       </c>
       <c r="AA5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AB5" t="s">
         <v>12</v>
@@ -7722,40 +7713,43 @@
         <v>10</v>
       </c>
       <c r="AD5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AE5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AF5" t="s">
         <v>11</v>
       </c>
       <c r="AG5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AH5" t="s">
         <v>10</v>
       </c>
       <c r="AI5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AJ5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AK5" t="s">
         <v>11</v>
       </c>
       <c r="AL5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AM5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AN5" t="s">
         <v>11</v>
       </c>
       <c r="AO5" t="s">
         <v>11</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="6">
@@ -7766,7 +7760,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -7778,7 +7772,7 @@
         <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H6" t="s">
         <v>10</v>
@@ -7787,22 +7781,22 @@
         <v>10</v>
       </c>
       <c r="J6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K6" t="s">
         <v>10</v>
       </c>
       <c r="L6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="N6" t="s">
         <v>11</v>
       </c>
       <c r="O6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P6" t="s">
         <v>12</v>
@@ -7820,34 +7814,34 @@
         <v>10</v>
       </c>
       <c r="U6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="V6" t="s">
         <v>10</v>
       </c>
       <c r="W6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="X6" t="s">
         <v>10</v>
       </c>
       <c r="Y6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Z6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AA6" t="s">
         <v>10</v>
       </c>
       <c r="AB6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AC6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AD6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AE6" t="s">
         <v>12</v>
@@ -7856,7 +7850,7 @@
         <v>10</v>
       </c>
       <c r="AG6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AH6" t="s">
         <v>11</v>
@@ -7865,22 +7859,25 @@
         <v>12</v>
       </c>
       <c r="AJ6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AK6" t="s">
         <v>11</v>
       </c>
       <c r="AL6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AM6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AN6" t="s">
         <v>10</v>
       </c>
       <c r="AO6" t="s">
         <v>10</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="7">
@@ -7888,7 +7885,7 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -7903,31 +7900,31 @@
         <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="N7" t="s">
         <v>11</v>
       </c>
       <c r="O7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P7" t="s">
         <v>11</v>
@@ -7945,10 +7942,10 @@
         <v>11</v>
       </c>
       <c r="U7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="V7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="W7" t="s">
         <v>12</v>
@@ -7957,16 +7954,16 @@
         <v>10</v>
       </c>
       <c r="Y7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Z7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AA7" t="s">
         <v>10</v>
       </c>
       <c r="AB7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AC7" t="s">
         <v>10</v>
@@ -7975,7 +7972,7 @@
         <v>10</v>
       </c>
       <c r="AE7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AF7" t="s">
         <v>10</v>
@@ -7984,39 +7981,42 @@
         <v>10</v>
       </c>
       <c r="AH7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AI7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AJ7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AK7" t="s">
         <v>10</v>
       </c>
       <c r="AL7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AM7" t="s">
         <v>10</v>
       </c>
       <c r="AN7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AO7" t="s">
-        <v>88</v>
+        <v>91</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -8028,34 +8028,34 @@
         <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H8" t="s">
         <v>11</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="N8" t="s">
         <v>11</v>
       </c>
       <c r="O8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q8" t="s">
         <v>10</v>
@@ -8070,22 +8070,22 @@
         <v>10</v>
       </c>
       <c r="U8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="V8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="W8" t="s">
         <v>11</v>
       </c>
       <c r="X8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Y8" t="s">
         <v>10</v>
       </c>
       <c r="Z8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AA8" t="s">
         <v>10</v>
@@ -8094,43 +8094,46 @@
         <v>10</v>
       </c>
       <c r="AC8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AD8" t="s">
         <v>13</v>
       </c>
       <c r="AE8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AF8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AG8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AH8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AI8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AJ8" t="s">
         <v>12</v>
       </c>
       <c r="AK8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AL8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AM8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AN8" t="s">
         <v>11</v>
       </c>
       <c r="AO8" t="s">
-        <v>85</v>
+        <v>88</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -8141,10 +8144,10 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -8153,7 +8156,7 @@
         <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H9" t="s">
         <v>11</v>
@@ -8162,16 +8165,16 @@
         <v>11</v>
       </c>
       <c r="J9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L9" t="s">
         <v>12</v>
       </c>
       <c r="M9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="N9" t="s">
         <v>11</v>
@@ -8180,13 +8183,13 @@
         <v>12</v>
       </c>
       <c r="P9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Q9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="R9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="S9" t="s">
         <v>11</v>
@@ -8195,22 +8198,22 @@
         <v>12</v>
       </c>
       <c r="U9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="V9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="W9" t="s">
         <v>12</v>
       </c>
       <c r="X9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Y9" t="s">
         <v>11</v>
       </c>
       <c r="Z9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AA9" t="s">
         <v>10</v>
@@ -8219,13 +8222,13 @@
         <v>10</v>
       </c>
       <c r="AC9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AD9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AE9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AF9" t="s">
         <v>10</v>
@@ -8234,27 +8237,30 @@
         <v>11</v>
       </c>
       <c r="AH9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AI9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AJ9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AK9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AL9" t="s">
         <v>12</v>
       </c>
       <c r="AM9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AN9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AO9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP9" t="s">
         <v>88</v>
       </c>
     </row>
@@ -8266,10 +8272,10 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -8278,7 +8284,7 @@
         <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H10" t="s">
         <v>10</v>
@@ -8287,22 +8293,22 @@
         <v>10</v>
       </c>
       <c r="J10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K10" t="s">
         <v>10</v>
       </c>
       <c r="L10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="N10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P10" t="s">
         <v>11</v>
@@ -8323,64 +8329,67 @@
         <v>12</v>
       </c>
       <c r="V10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="W10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="X10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Y10" t="s">
         <v>10</v>
       </c>
       <c r="Z10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AA10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AB10" t="s">
         <v>11</v>
       </c>
       <c r="AC10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AD10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AE10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AF10" t="s">
         <v>10</v>
       </c>
       <c r="AG10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AH10" t="s">
         <v>11</v>
       </c>
       <c r="AI10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AJ10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AK10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AL10" t="s">
         <v>10</v>
       </c>
       <c r="AM10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AN10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AO10" t="s">
-        <v>85</v>
+        <v>88</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -8391,16 +8400,16 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -8412,10 +8421,10 @@
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L11" t="s">
         <v>11</v>
@@ -8427,7 +8436,7 @@
         <v>11</v>
       </c>
       <c r="O11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P11" t="s">
         <v>11</v>
@@ -8448,22 +8457,22 @@
         <v>12</v>
       </c>
       <c r="V11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="W11" t="s">
         <v>11</v>
       </c>
       <c r="X11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Y11" t="s">
         <v>10</v>
       </c>
       <c r="Z11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AA11" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AB11" t="s">
         <v>12</v>
@@ -8472,7 +8481,7 @@
         <v>11</v>
       </c>
       <c r="AD11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AE11" t="s">
         <v>10</v>
@@ -8481,31 +8490,34 @@
         <v>13</v>
       </c>
       <c r="AG11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AH11" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AI11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AJ11" t="s">
         <v>11</v>
       </c>
       <c r="AK11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AL11" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AM11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AN11" t="s">
         <v>11</v>
       </c>
       <c r="AO11" t="s">
-        <v>85</v>
+        <v>88</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -8527,7 +8539,7 @@
         <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
         <v>28</v>
@@ -8536,37 +8548,37 @@
         <v>25</v>
       </c>
       <c r="F1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G1" t="s">
         <v>21</v>
       </c>
       <c r="H1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="N1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="O1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="P1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2">
@@ -8574,7 +8586,7 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -8583,13 +8595,13 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
@@ -8604,30 +8616,30 @@
         <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M2" t="s">
-        <v>166</v>
+        <v>100</v>
       </c>
       <c r="N2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O2" t="s">
         <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -8654,19 +8666,19 @@
         <v>12</v>
       </c>
       <c r="L3" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M3" t="s">
-        <v>167</v>
+        <v>106</v>
       </c>
       <c r="N3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O3" t="s">
         <v>31</v>
       </c>
       <c r="P3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4">
@@ -8680,13 +8692,13 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
@@ -8695,28 +8707,28 @@
         <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K4" t="s">
         <v>16</v>
       </c>
       <c r="L4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="M4" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="N4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5">
@@ -8727,13 +8739,13 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F5" t="s">
         <v>15</v>
@@ -8754,19 +8766,19 @@
         <v>17</v>
       </c>
       <c r="L5" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="M5" t="s">
         <v>41</v>
       </c>
       <c r="N5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O5" t="s">
         <v>31</v>
       </c>
       <c r="P5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6">
@@ -8786,7 +8798,7 @@
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
@@ -8801,22 +8813,22 @@
         <v>12</v>
       </c>
       <c r="K6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L6" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="M6" t="s">
-        <v>167</v>
+        <v>106</v>
       </c>
       <c r="N6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O6" t="s">
         <v>31</v>
       </c>
       <c r="P6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7">
@@ -8827,10 +8839,10 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D7" t="s">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -8839,10 +8851,10 @@
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I7" t="s">
         <v>14</v>
@@ -8854,24 +8866,24 @@
         <v>13</v>
       </c>
       <c r="L7" t="s">
-        <v>166</v>
+        <v>36</v>
       </c>
       <c r="M7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="N7" t="s">
         <v>175</v>
       </c>
       <c r="O7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -8880,7 +8892,7 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -8889,34 +8901,34 @@
         <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I8" t="s">
         <v>12</v>
       </c>
       <c r="J8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K8" t="s">
         <v>12</v>
       </c>
       <c r="L8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="M8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N8" t="s">
         <v>176</v>
       </c>
       <c r="O8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="P8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9">
@@ -8930,7 +8942,7 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -8939,13 +8951,13 @@
         <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H9" t="s">
         <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J9" t="s">
         <v>12</v>
@@ -8954,10 +8966,10 @@
         <v>13</v>
       </c>
       <c r="L9" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N9" t="s">
         <v>177</v>
@@ -8966,7 +8978,7 @@
         <v>32</v>
       </c>
       <c r="P9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10">
@@ -8980,16 +8992,16 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E10" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H10" t="s">
         <v>11</v>
@@ -8998,7 +9010,7 @@
         <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K10" t="s">
         <v>12</v>
@@ -9007,16 +9019,16 @@
         <v>32</v>
       </c>
       <c r="M10" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="N10" t="s">
-        <v>178</v>
+        <v>113</v>
       </c>
       <c r="O10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="P10" t="s">
-        <v>188</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -9024,13 +9036,13 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
@@ -9051,22 +9063,22 @@
         <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L11" t="s">
-        <v>166</v>
+        <v>100</v>
       </c>
       <c r="M11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O11" t="s">
         <v>31</v>
       </c>
       <c r="P11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -9085,124 +9097,127 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="I1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="J1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="N1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="O1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="P1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="R1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="S1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="T1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="U1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="V1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="W1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="X1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Z1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AA1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AB1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AC1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AD1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AE1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AF1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AG1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AH1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="AI1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="AJ1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="AK1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AL1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AM1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AN1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AO1" t="s">
-        <v>158</v>
+        <v>161</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="2">
@@ -9210,248 +9225,254 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I2" t="s">
         <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="N2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="R2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="S2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="T2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="U2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="V2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="W2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="X2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Y2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Z2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AA2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AB2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AC2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AD2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AE2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AF2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AG2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AH2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AI2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AJ2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AK2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AL2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AM2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AN2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AO2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP2" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="N3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="R3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="S3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="T3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="U3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="V3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="W3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="X3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Y3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Z3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AA3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AB3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AC3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AD3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AE3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AF3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AG3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AH3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AI3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AJ3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AK3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AL3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AM3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AN3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AO3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP3" t="s">
         <v>88</v>
       </c>
     </row>
@@ -9460,124 +9481,127 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="R4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="S4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="T4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="U4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="V4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="W4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="X4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Y4" t="s">
         <v>10</v>
       </c>
       <c r="Z4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AA4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AB4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AC4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AD4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AE4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AF4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AG4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AH4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AI4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AJ4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AK4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AL4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AM4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AN4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AO4" t="s">
-        <v>85</v>
+        <v>88</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -9585,123 +9609,126 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H5" t="s">
         <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="N5" t="s">
         <v>10</v>
       </c>
       <c r="O5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Q5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="R5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="S5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="T5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="U5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="V5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="W5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="X5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Y5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Z5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AA5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AB5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AC5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AD5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AE5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AF5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AG5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AH5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AI5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AJ5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AK5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AL5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AM5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AN5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AO5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP5" t="s">
         <v>88</v>
       </c>
     </row>
@@ -9710,123 +9737,126 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="N6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="R6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="S6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="T6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="U6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="V6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="W6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="X6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Y6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Z6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AA6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AB6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AC6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AD6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AE6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AF6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AG6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AH6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AI6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AJ6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AK6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AL6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AM6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AN6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AO6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP6" t="s">
         <v>88</v>
       </c>
     </row>
@@ -9835,85 +9865,85 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="N7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="R7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="S7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="T7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="U7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="V7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="W7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="X7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Y7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Z7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AA7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AB7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AC7" t="s">
         <v>10</v>
@@ -9922,162 +9952,168 @@
         <v>10</v>
       </c>
       <c r="AE7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AF7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AG7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AH7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AI7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AJ7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AK7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AL7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AM7" t="s">
         <v>10</v>
       </c>
       <c r="AN7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AO7" t="s">
-        <v>88</v>
+        <v>91</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="N8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="R8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="S8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="T8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="U8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="V8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="W8" t="s">
         <v>10</v>
       </c>
       <c r="X8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Y8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Z8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AA8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AB8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AC8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AD8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AE8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AF8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AG8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AH8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AI8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AJ8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AK8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AL8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AM8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AN8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AO8" t="s">
-        <v>85</v>
+        <v>88</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="9">
@@ -10085,123 +10121,126 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="N9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Q9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="R9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="S9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="T9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="U9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="V9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="W9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="X9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Y9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Z9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AA9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AB9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AC9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AD9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AE9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AF9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AG9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AH9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AI9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AJ9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AK9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AL9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AM9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AN9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AO9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP9" t="s">
         <v>88</v>
       </c>
     </row>
@@ -10210,124 +10249,127 @@
         <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="N10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="R10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="S10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="T10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="U10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="V10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="W10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="X10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Y10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Z10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AA10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AB10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AC10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AD10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AE10" t="s">
         <v>10</v>
       </c>
       <c r="AF10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AG10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AH10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AI10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AJ10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AK10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AL10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AM10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AN10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AO10" t="s">
-        <v>85</v>
+        <v>88</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="11">
@@ -10335,124 +10377,127 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I11" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L11" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M11" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N11" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q11" t="s">
         <v>10</v>
       </c>
       <c r="R11" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="S11" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="T11" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="U11" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="V11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="W11" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="X11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Y11" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Z11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AA11" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AB11" t="s">
         <v>10</v>
       </c>
       <c r="AC11" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AD11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AE11" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AF11" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AG11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AH11" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AI11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AJ11" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AK11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AL11" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AM11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AN11" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AO11" t="s">
-        <v>85</v>
+        <v>88</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/Divisions/SC1.xlsx
+++ b/Divisions/SC1.xlsx
@@ -296,354 +296,354 @@
     <t>sum_sc1_three_gs</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>suml6_sc1_gc</t>
+  </si>
+  <si>
+    <t>sum_sc1_zero_gc</t>
+  </si>
+  <si>
+    <t>sum_sc1_one_gc</t>
+  </si>
+  <si>
+    <t>sum_sc1_two_gc</t>
+  </si>
+  <si>
+    <t>sum_sc1_three_gc</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>suml6_sc1_wm</t>
+  </si>
+  <si>
+    <t>suml6_sc1_wm_negtwo</t>
+  </si>
+  <si>
+    <t>suml6_sc1_wm_negone</t>
+  </si>
+  <si>
+    <t>suml6_sc1_wm_zero</t>
+  </si>
+  <si>
+    <t>suml6_sc1_wm_posone</t>
+  </si>
+  <si>
+    <t>suml6_sc1_wm_postwo</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>-2</t>
+  </si>
+  <si>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>-4</t>
+  </si>
+  <si>
+    <t>-5</t>
+  </si>
+  <si>
+    <t>suml6_sc1_tg</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>Inverness.C</t>
+  </si>
+  <si>
+    <t>Queen.of.Sth</t>
+  </si>
+  <si>
+    <t>Raith.Rvs</t>
+  </si>
+  <si>
+    <t>sc1_hgtotals</t>
+  </si>
+  <si>
+    <t>sc1_agtotals</t>
+  </si>
+  <si>
+    <t>sc1_totalgoals</t>
+  </si>
+  <si>
+    <t>sc1_games_played</t>
+  </si>
+  <si>
+    <t>sc1_avg_totalgoals</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>24.5</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>20.5</t>
+  </si>
+  <si>
+    <t>28.5</t>
+  </si>
+  <si>
+    <t>14.5</t>
+  </si>
+  <si>
+    <t>17.5</t>
+  </si>
+  <si>
+    <t>21.5</t>
+  </si>
+  <si>
+    <t>23.5</t>
+  </si>
+  <si>
+    <t>27.5</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>38.5</t>
+  </si>
+  <si>
+    <t>46.5</t>
+  </si>
+  <si>
+    <t>36.5</t>
+  </si>
+  <si>
+    <t>44.5</t>
+  </si>
+  <si>
+    <t>1.2031</t>
+  </si>
+  <si>
+    <t>1.4375</t>
+  </si>
+  <si>
+    <t>1.4839</t>
+  </si>
+  <si>
+    <t>1.4531</t>
+  </si>
+  <si>
+    <t>1.4516</t>
+  </si>
+  <si>
+    <t>1.1406</t>
+  </si>
+  <si>
+    <t>1.3125</t>
+  </si>
+  <si>
+    <t>1.4355</t>
+  </si>
+  <si>
+    <t>sc1_hytotals</t>
+  </si>
+  <si>
+    <t>sc1_aytotals</t>
+  </si>
+  <si>
+    <t>sc1_totalyellows</t>
+  </si>
+  <si>
+    <t>sc1_avg_totalyellows</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>25.5</t>
+  </si>
+  <si>
+    <t>31.5</t>
+  </si>
+  <si>
+    <t>26.5</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>59.5</t>
+  </si>
+  <si>
+    <t>60.5</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>66.5</t>
+  </si>
+  <si>
+    <t>57.5</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>53.5</t>
+  </si>
+  <si>
+    <t>47.5</t>
+  </si>
+  <si>
+    <t>1.8594</t>
+  </si>
+  <si>
+    <t>1.8906</t>
+  </si>
+  <si>
+    <t>1.871</t>
+  </si>
+  <si>
+    <t>2.0781</t>
+  </si>
+  <si>
+    <t>1.7969</t>
+  </si>
+  <si>
+    <t>1.6719</t>
+  </si>
+  <si>
+    <t>1.5323</t>
+  </si>
+  <si>
+    <t>2.1613</t>
+  </si>
+  <si>
+    <t>sc1_hrtotals</t>
+  </si>
+  <si>
+    <t>sc1_artotals</t>
+  </si>
+  <si>
+    <t>sc1_totalreds</t>
+  </si>
+  <si>
+    <t>sc1_avg_totalreds</t>
+  </si>
+  <si>
+    <t>0.0625</t>
+  </si>
+  <si>
+    <t>0.0781</t>
+  </si>
+  <si>
+    <t>0.0484</t>
+  </si>
+  <si>
+    <t>0.1094</t>
+  </si>
+  <si>
+    <t>0.0806</t>
+  </si>
+  <si>
+    <t>0.0938</t>
+  </si>
+  <si>
+    <t>0.0312</t>
+  </si>
+  <si>
+    <t>0.1452</t>
+  </si>
+  <si>
+    <t>sc1_un05</t>
+  </si>
+  <si>
+    <t>sc1_ov05</t>
+  </si>
+  <si>
+    <t>sc1_un15</t>
+  </si>
+  <si>
+    <t>sc1_ov15</t>
+  </si>
+  <si>
+    <t>sc1_un25</t>
+  </si>
+  <si>
+    <t>sc1_ov25</t>
+  </si>
+  <si>
+    <t>sc1_un35</t>
+  </si>
+  <si>
+    <t>sc1_ov35</t>
+  </si>
+  <si>
+    <t>sc1_un45</t>
+  </si>
+  <si>
+    <t>sc1_ov45</t>
+  </si>
+  <si>
+    <t>sc1_un55</t>
+  </si>
+  <si>
+    <t>sc1_ov55</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
     <t>24</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>suml6_sc1_gc</t>
-  </si>
-  <si>
-    <t>sum_sc1_zero_gc</t>
-  </si>
-  <si>
-    <t>sum_sc1_one_gc</t>
-  </si>
-  <si>
-    <t>sum_sc1_two_gc</t>
-  </si>
-  <si>
-    <t>sum_sc1_three_gc</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>suml6_sc1_wm</t>
-  </si>
-  <si>
-    <t>suml6_sc1_wm_negtwo</t>
-  </si>
-  <si>
-    <t>suml6_sc1_wm_negone</t>
-  </si>
-  <si>
-    <t>suml6_sc1_wm_zero</t>
-  </si>
-  <si>
-    <t>suml6_sc1_wm_posone</t>
-  </si>
-  <si>
-    <t>suml6_sc1_wm_postwo</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>-2</t>
-  </si>
-  <si>
-    <t>-3</t>
-  </si>
-  <si>
-    <t>-4</t>
-  </si>
-  <si>
-    <t>-5</t>
-  </si>
-  <si>
-    <t>suml6_sc1_tg</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>Inverness.C</t>
-  </si>
-  <si>
-    <t>Queen.of.Sth</t>
-  </si>
-  <si>
-    <t>Raith.Rvs</t>
-  </si>
-  <si>
-    <t>sc1_hgtotals</t>
-  </si>
-  <si>
-    <t>sc1_agtotals</t>
-  </si>
-  <si>
-    <t>sc1_totalgoals</t>
-  </si>
-  <si>
-    <t>sc1_games_played</t>
-  </si>
-  <si>
-    <t>sc1_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>5.5</t>
-  </si>
-  <si>
-    <t>24.5</t>
-  </si>
-  <si>
-    <t>20.5</t>
-  </si>
-  <si>
-    <t>28.5</t>
-  </si>
-  <si>
-    <t>14.5</t>
-  </si>
-  <si>
-    <t>17.5</t>
-  </si>
-  <si>
-    <t>21.5</t>
-  </si>
-  <si>
-    <t>23.5</t>
-  </si>
-  <si>
-    <t>27.5</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>38.5</t>
-  </si>
-  <si>
-    <t>46.5</t>
-  </si>
-  <si>
-    <t>36.5</t>
-  </si>
-  <si>
-    <t>44.5</t>
-  </si>
-  <si>
-    <t>1.2031</t>
-  </si>
-  <si>
-    <t>1.4375</t>
-  </si>
-  <si>
-    <t>1.4839</t>
-  </si>
-  <si>
-    <t>1.4531</t>
-  </si>
-  <si>
-    <t>1.4516</t>
-  </si>
-  <si>
-    <t>1.1406</t>
-  </si>
-  <si>
-    <t>1.3125</t>
-  </si>
-  <si>
-    <t>1.4355</t>
-  </si>
-  <si>
-    <t>sc1_hytotals</t>
-  </si>
-  <si>
-    <t>sc1_aytotals</t>
-  </si>
-  <si>
-    <t>sc1_totalyellows</t>
-  </si>
-  <si>
-    <t>sc1_avg_totalyellows</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>25.5</t>
-  </si>
-  <si>
-    <t>31.5</t>
-  </si>
-  <si>
-    <t>26.5</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>59.5</t>
-  </si>
-  <si>
-    <t>60.5</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>66.5</t>
-  </si>
-  <si>
-    <t>57.5</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>53.5</t>
-  </si>
-  <si>
-    <t>47.5</t>
-  </si>
-  <si>
-    <t>1.8594</t>
-  </si>
-  <si>
-    <t>1.8906</t>
-  </si>
-  <si>
-    <t>1.871</t>
-  </si>
-  <si>
-    <t>2.0781</t>
-  </si>
-  <si>
-    <t>1.7969</t>
-  </si>
-  <si>
-    <t>1.6719</t>
-  </si>
-  <si>
-    <t>1.5323</t>
-  </si>
-  <si>
-    <t>2.1613</t>
-  </si>
-  <si>
-    <t>sc1_hrtotals</t>
-  </si>
-  <si>
-    <t>sc1_artotals</t>
-  </si>
-  <si>
-    <t>sc1_totalreds</t>
-  </si>
-  <si>
-    <t>sc1_avg_totalreds</t>
-  </si>
-  <si>
-    <t>0.0625</t>
-  </si>
-  <si>
-    <t>0.0781</t>
-  </si>
-  <si>
-    <t>0.0484</t>
-  </si>
-  <si>
-    <t>0.1094</t>
-  </si>
-  <si>
-    <t>0.0806</t>
-  </si>
-  <si>
-    <t>0.0938</t>
-  </si>
-  <si>
-    <t>0.0312</t>
-  </si>
-  <si>
-    <t>0.1452</t>
-  </si>
-  <si>
-    <t>sc1_un05</t>
-  </si>
-  <si>
-    <t>sc1_ov05</t>
-  </si>
-  <si>
-    <t>sc1_un15</t>
-  </si>
-  <si>
-    <t>sc1_ov15</t>
-  </si>
-  <si>
-    <t>sc1_un25</t>
-  </si>
-  <si>
-    <t>sc1_ov25</t>
-  </si>
-  <si>
-    <t>sc1_un35</t>
-  </si>
-  <si>
-    <t>sc1_ov35</t>
-  </si>
-  <si>
-    <t>sc1_un45</t>
-  </si>
-  <si>
-    <t>sc1_ov45</t>
-  </si>
-  <si>
-    <t>sc1_un55</t>
-  </si>
-  <si>
-    <t>sc1_ov55</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
     <t>Group.1</t>
   </si>
   <si>
@@ -926,34 +926,34 @@
     <t>Raith Rvs,L D L W L D</t>
   </si>
   <si>
-    <t>Arbroath,1 2 1 1 1 3,(9)</t>
-  </si>
-  <si>
-    <t>Ayr,1 0 1 0 1 1,(4)</t>
-  </si>
-  <si>
-    <t>Dunfermline,0 1 1 0 1 4,(7)</t>
-  </si>
-  <si>
-    <t>Hamilton,2 1 1 1 2 1,(8)</t>
-  </si>
-  <si>
-    <t>Inverness C,2 0 3 1 3 2,(11)</t>
-  </si>
-  <si>
-    <t>Kilmarnock,1 2 3 2 2 2,(12)</t>
-  </si>
-  <si>
-    <t>Morton,2 2 0 2 1 1,(8)</t>
-  </si>
-  <si>
-    <t>Partick,1 0 1 1 0 0,(3)</t>
-  </si>
-  <si>
-    <t>Queen of Sth,0 0 0 0 3 0,(3)</t>
-  </si>
-  <si>
-    <t>Raith Rvs,1 3 0 0 0 2,(6)</t>
+    <t>Arbroath,1 1 0 1 3 0,(6)</t>
+  </si>
+  <si>
+    <t>Ayr,0 4 1 0 1 1,(7)</t>
+  </si>
+  <si>
+    <t>Dunfermline,0 0 2 1 4 0,(7)</t>
+  </si>
+  <si>
+    <t>Hamilton,1 0 2 4 1 1,(9)</t>
+  </si>
+  <si>
+    <t>Inverness C,1 1 0 3 3 2,(10)</t>
+  </si>
+  <si>
+    <t>Kilmarnock,0 2 3 2 2 1,(10)</t>
+  </si>
+  <si>
+    <t>Morton,0 0 2 1 1 1,(5)</t>
+  </si>
+  <si>
+    <t>Partick,1 1 0 1 1 0,(4)</t>
+  </si>
+  <si>
+    <t>Queen of Sth,1 3 0 0 1 0,(5)</t>
+  </si>
+  <si>
+    <t>Raith Rvs,0 0 0 1 2 3,(6)</t>
   </si>
   <si>
     <t>Arbroath,1 0 3 0 3 0,(7)</t>
@@ -3599,40 +3599,40 @@
         <v>66</v>
       </c>
       <c r="C1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" t="s">
         <v>193</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>194</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>195</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>196</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>197</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>198</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>199</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>200</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>201</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>202</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>203</v>
-      </c>
-      <c r="N1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="2">
@@ -3705,7 +3705,7 @@
         <v>33</v>
       </c>
       <c r="I3" t="s">
-        <v>91</v>
+        <v>205</v>
       </c>
       <c r="J3" t="s">
         <v>17</v>
@@ -3740,22 +3740,22 @@
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="G4" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H4" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="I4" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="J4" t="s">
         <v>18</v>
       </c>
       <c r="K4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L4" t="s">
         <v>13</v>
@@ -3793,7 +3793,7 @@
         <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>91</v>
+        <v>205</v>
       </c>
       <c r="J5" t="s">
         <v>17</v>
@@ -3822,7 +3822,7 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E6" t="s">
         <v>35</v>
@@ -3843,7 +3843,7 @@
         <v>15</v>
       </c>
       <c r="K6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L6" t="s">
         <v>12</v>
@@ -3872,7 +3872,7 @@
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G7" t="s">
         <v>52</v>
@@ -3881,7 +3881,7 @@
         <v>36</v>
       </c>
       <c r="I7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J7" t="s">
         <v>14</v>
@@ -3910,13 +3910,13 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E8" t="s">
         <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="G8" t="s">
         <v>32</v>
@@ -3925,7 +3925,7 @@
         <v>33</v>
       </c>
       <c r="I8" t="s">
-        <v>91</v>
+        <v>205</v>
       </c>
       <c r="J8" t="s">
         <v>17</v>
@@ -3966,7 +3966,7 @@
         <v>37</v>
       </c>
       <c r="H9" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="I9" t="s">
         <v>52</v>
@@ -3975,7 +3975,7 @@
         <v>36</v>
       </c>
       <c r="K9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L9" t="s">
         <v>14</v>
@@ -3998,19 +3998,19 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E10" t="s">
         <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G10" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H10" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="I10" t="s">
         <v>45</v>
@@ -4019,7 +4019,7 @@
         <v>15</v>
       </c>
       <c r="K10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L10" t="s">
         <v>13</v>
@@ -4042,7 +4042,7 @@
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E11" t="s">
         <v>19</v>
@@ -4069,7 +4069,7 @@
         <v>14</v>
       </c>
       <c r="M11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N11" t="s">
         <v>12</v>
@@ -4127,7 +4127,7 @@
         <v>217</v>
       </c>
       <c r="N1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="O1" t="s">
         <v>218</v>
@@ -5435,10 +5435,10 @@
         <v>422</v>
       </c>
       <c r="BM1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BN1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BO1" t="s">
         <v>423</v>
@@ -9458,7 +9458,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B16" t="s">
         <v>481</v>
@@ -9739,7 +9739,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B17" t="s">
         <v>481</v>
@@ -10863,7 +10863,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B21" t="s">
         <v>481</v>
@@ -11425,7 +11425,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="B23" t="s">
         <v>481</v>
@@ -11987,7 +11987,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>91</v>
+        <v>205</v>
       </c>
       <c r="B25" t="s">
         <v>481</v>
@@ -12830,7 +12830,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B28" t="s">
         <v>481</v>
@@ -13111,7 +13111,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B29" t="s">
         <v>481</v>
@@ -15921,7 +15921,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B39" t="s">
         <v>481</v>
@@ -18731,7 +18731,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B49" t="s">
         <v>481</v>
@@ -21541,7 +21541,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B59" t="s">
         <v>481</v>
@@ -24070,7 +24070,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B68" t="s">
         <v>481</v>
@@ -24632,7 +24632,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B70" t="s">
         <v>481</v>
@@ -25475,7 +25475,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B73" t="s">
         <v>481</v>
@@ -26318,7 +26318,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B76" t="s">
         <v>481</v>
@@ -26880,7 +26880,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B78" t="s">
         <v>481</v>
@@ -27161,7 +27161,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B79" t="s">
         <v>481</v>
@@ -27442,7 +27442,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B80" t="s">
         <v>481</v>
@@ -27723,7 +27723,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B81" t="s">
         <v>481</v>
@@ -28566,7 +28566,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B84" t="s">
         <v>481</v>
@@ -31604,37 +31604,37 @@
         <v>54</v>
       </c>
       <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
         <v>54</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>10</v>
-      </c>
-      <c r="J2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" t="s">
-        <v>54</v>
       </c>
       <c r="M2" t="s">
         <v>10</v>
       </c>
       <c r="N2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O2" t="s">
         <v>10</v>
@@ -31646,28 +31646,28 @@
         <v>10</v>
       </c>
       <c r="R2" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="S2" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="T2" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="U2" t="s">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="V2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="W2" t="s">
+        <v>19</v>
+      </c>
+      <c r="X2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y2" t="s">
         <v>15</v>
-      </c>
-      <c r="X2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3">
@@ -31678,73 +31678,73 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>54</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
       </c>
       <c r="F3" t="s">
         <v>54</v>
       </c>
       <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>54</v>
-      </c>
-      <c r="I3" t="s">
-        <v>11</v>
       </c>
       <c r="J3" t="s">
         <v>54</v>
       </c>
       <c r="K3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" t="s">
         <v>10</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" t="s">
         <v>11</v>
-      </c>
-      <c r="M3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" t="s">
-        <v>54</v>
-      </c>
-      <c r="O3" t="s">
-        <v>10</v>
       </c>
       <c r="P3" t="s">
         <v>54</v>
       </c>
       <c r="Q3" t="s">
+        <v>54</v>
+      </c>
+      <c r="R3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S3" t="s">
         <v>10</v>
       </c>
-      <c r="R3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S3" t="s">
-        <v>90</v>
-      </c>
       <c r="T3" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="U3" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="V3" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="W3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="X3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="Y3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -31755,7 +31755,7 @@
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
         <v>54</v>
@@ -31764,22 +31764,22 @@
         <v>54</v>
       </c>
       <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
         <v>54</v>
       </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
       <c r="H4" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="I4" t="s">
         <v>10</v>
       </c>
       <c r="J4" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="K4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L4" t="s">
         <v>54</v>
@@ -31788,37 +31788,37 @@
         <v>10</v>
       </c>
       <c r="N4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" t="s">
         <v>10</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" t="s">
         <v>54</v>
       </c>
-      <c r="P4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>13</v>
-      </c>
-      <c r="R4" t="s">
-        <v>90</v>
-      </c>
       <c r="S4" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="T4" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="U4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="V4" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="W4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="X4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Y4" t="s">
         <v>12</v>
@@ -31832,7 +31832,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
         <v>54</v>
@@ -31844,25 +31844,25 @@
         <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="H5" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="I5" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="J5" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="K5" t="s">
         <v>10</v>
       </c>
       <c r="L5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N5" t="s">
         <v>10</v>
@@ -31871,34 +31871,34 @@
         <v>10</v>
       </c>
       <c r="P5" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="Q5" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="R5" t="s">
         <v>10</v>
       </c>
       <c r="S5" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="T5" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="U5" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="V5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="W5" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="X5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Y5" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -31915,67 +31915,67 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
         <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
       </c>
       <c r="H6" t="s">
         <v>54</v>
       </c>
       <c r="I6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J6" t="s">
         <v>10</v>
       </c>
       <c r="K6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L6" t="s">
         <v>10</v>
       </c>
       <c r="M6" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="N6" t="s">
         <v>54</v>
       </c>
       <c r="O6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P6" t="s">
         <v>10</v>
       </c>
       <c r="Q6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S6" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="T6" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="U6" t="s">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="V6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="W6" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="X6" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="Y6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -31989,70 +31989,70 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
         <v>54</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>10</v>
       </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>11</v>
-      </c>
-      <c r="H7" t="s">
-        <v>13</v>
       </c>
       <c r="I7" t="s">
         <v>54</v>
       </c>
       <c r="J7" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="K7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M7" t="s">
         <v>10</v>
       </c>
       <c r="N7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O7" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="P7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="R7" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="S7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T7" t="s">
+        <v>12</v>
+      </c>
+      <c r="U7" t="s">
+        <v>38</v>
+      </c>
+      <c r="V7" t="s">
+        <v>17</v>
+      </c>
+      <c r="W7" t="s">
+        <v>18</v>
+      </c>
+      <c r="X7" t="s">
         <v>90</v>
       </c>
-      <c r="T7" t="s">
-        <v>90</v>
-      </c>
-      <c r="U7" t="s">
-        <v>91</v>
-      </c>
-      <c r="V7" t="s">
-        <v>12</v>
-      </c>
-      <c r="W7" t="s">
-        <v>14</v>
-      </c>
-      <c r="X7" t="s">
-        <v>17</v>
-      </c>
       <c r="Y7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -32066,19 +32066,19 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
         <v>11</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>54</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
       </c>
       <c r="G8" t="s">
         <v>54</v>
       </c>
       <c r="H8" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="I8" t="s">
         <v>54</v>
@@ -32087,49 +32087,49 @@
         <v>11</v>
       </c>
       <c r="K8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L8" t="s">
+        <v>54</v>
+      </c>
+      <c r="M8" t="s">
+        <v>54</v>
+      </c>
+      <c r="N8" t="s">
         <v>10</v>
       </c>
-      <c r="L8" t="s">
-        <v>14</v>
-      </c>
-      <c r="M8" t="s">
-        <v>11</v>
-      </c>
-      <c r="N8" t="s">
-        <v>11</v>
-      </c>
       <c r="O8" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" t="s">
         <v>54</v>
-      </c>
-      <c r="P8" t="s">
-        <v>11</v>
       </c>
       <c r="Q8" t="s">
         <v>10</v>
       </c>
       <c r="R8" t="s">
+        <v>11</v>
+      </c>
+      <c r="S8" t="s">
         <v>10</v>
       </c>
-      <c r="S8" t="s">
-        <v>90</v>
-      </c>
       <c r="T8" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="U8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="V8" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="W8" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="X8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -32146,31 +32146,31 @@
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="H9" t="s">
         <v>54</v>
       </c>
       <c r="I9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" t="s">
         <v>54</v>
       </c>
-      <c r="K9" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" t="s">
-        <v>10</v>
-      </c>
       <c r="M9" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="N9" t="s">
         <v>54</v>
@@ -32179,34 +32179,34 @@
         <v>10</v>
       </c>
       <c r="P9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q9" t="s">
         <v>10</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>54</v>
       </c>
       <c r="R9" t="s">
         <v>54</v>
       </c>
       <c r="S9" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="T9" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="U9" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="V9" t="s">
+        <v>19</v>
+      </c>
+      <c r="W9" t="s">
+        <v>34</v>
+      </c>
+      <c r="X9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y9" t="s">
         <v>16</v>
-      </c>
-      <c r="W9" t="s">
-        <v>15</v>
-      </c>
-      <c r="X9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -32217,31 +32217,31 @@
         <v>29</v>
       </c>
       <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
         <v>54</v>
       </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
       </c>
       <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" t="s">
         <v>54</v>
-      </c>
-      <c r="H10" t="s">
-        <v>10</v>
       </c>
       <c r="I10" t="s">
         <v>10</v>
       </c>
       <c r="J10" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="K10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L10" t="s">
         <v>54</v>
@@ -32253,37 +32253,37 @@
         <v>54</v>
       </c>
       <c r="O10" t="s">
+        <v>10</v>
+      </c>
+      <c r="P10" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>10</v>
+      </c>
+      <c r="R10" t="s">
         <v>54</v>
       </c>
-      <c r="P10" t="s">
+      <c r="S10" t="s">
         <v>12</v>
       </c>
-      <c r="Q10" t="s">
-        <v>54</v>
-      </c>
-      <c r="R10" t="s">
-        <v>90</v>
-      </c>
-      <c r="S10" t="s">
-        <v>90</v>
-      </c>
       <c r="T10" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="U10" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="V10" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="W10" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="X10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="Y10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
@@ -32300,67 +32300,67 @@
         <v>54</v>
       </c>
       <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" t="s">
         <v>12</v>
       </c>
-      <c r="F11" t="s">
+      <c r="I11" t="s">
         <v>10</v>
       </c>
-      <c r="G11" t="s">
+      <c r="J11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" t="s">
         <v>11</v>
       </c>
-      <c r="H11" t="s">
+      <c r="L11" t="s">
         <v>10</v>
-      </c>
-      <c r="I11" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" t="s">
-        <v>10</v>
-      </c>
-      <c r="L11" t="s">
-        <v>54</v>
       </c>
       <c r="M11" t="s">
         <v>10</v>
       </c>
       <c r="N11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O11" t="s">
+        <v>10</v>
+      </c>
+      <c r="P11" t="s">
         <v>12</v>
       </c>
-      <c r="O11" t="s">
+      <c r="Q11" t="s">
+        <v>11</v>
+      </c>
+      <c r="R11" t="s">
         <v>54</v>
       </c>
-      <c r="P11" t="s">
+      <c r="S11" t="s">
+        <v>10</v>
+      </c>
+      <c r="T11" t="s">
         <v>54</v>
       </c>
-      <c r="Q11" t="s">
-        <v>54</v>
-      </c>
-      <c r="R11" t="s">
-        <v>11</v>
-      </c>
-      <c r="S11" t="s">
-        <v>90</v>
-      </c>
-      <c r="T11" t="s">
-        <v>90</v>
-      </c>
       <c r="U11" t="s">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="V11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="W11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="X11" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="Y11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -32436,19 +32436,19 @@
         <v>84</v>
       </c>
       <c r="U1" t="s">
+        <v>91</v>
+      </c>
+      <c r="V1" t="s">
+        <v>92</v>
+      </c>
+      <c r="W1" t="s">
+        <v>93</v>
+      </c>
+      <c r="X1" t="s">
         <v>94</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>95</v>
-      </c>
-      <c r="W1" t="s">
-        <v>96</v>
-      </c>
-      <c r="X1" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2">
@@ -32516,7 +32516,7 @@
         <v>45</v>
       </c>
       <c r="V2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="W2" t="s">
         <v>18</v>
@@ -32596,7 +32596,7 @@
         <v>14</v>
       </c>
       <c r="W3" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="X3" t="s">
         <v>35</v>
@@ -33055,7 +33055,7 @@
         <v>47</v>
       </c>
       <c r="V9" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="W9" t="s">
         <v>13</v>
@@ -33138,7 +33138,7 @@
         <v>16</v>
       </c>
       <c r="X10" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Y10" t="s">
         <v>14</v>
@@ -33294,22 +33294,22 @@
         <v>84</v>
       </c>
       <c r="U1" t="s">
+        <v>97</v>
+      </c>
+      <c r="V1" t="s">
+        <v>98</v>
+      </c>
+      <c r="W1" t="s">
+        <v>99</v>
+      </c>
+      <c r="X1" t="s">
         <v>100</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>101</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>102</v>
-      </c>
-      <c r="X1" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="2">
@@ -33320,7 +33320,7 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
         <v>54</v>
@@ -33344,7 +33344,7 @@
         <v>54</v>
       </c>
       <c r="K2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L2" t="s">
         <v>54</v>
@@ -33400,16 +33400,16 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D3" t="s">
         <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -33421,7 +33421,7 @@
         <v>54</v>
       </c>
       <c r="J3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K3" t="s">
         <v>10</v>
@@ -33430,19 +33430,19 @@
         <v>54</v>
       </c>
       <c r="M3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="N3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="O3" t="s">
         <v>54</v>
       </c>
       <c r="P3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="R3" t="s">
         <v>54</v>
@@ -33451,7 +33451,7 @@
         <v>54</v>
       </c>
       <c r="T3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="U3" t="s">
         <v>57</v>
@@ -33483,13 +33483,13 @@
         <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G4" t="s">
         <v>54</v>
@@ -33501,7 +33501,7 @@
         <v>54</v>
       </c>
       <c r="J4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K4" t="s">
         <v>54</v>
@@ -33513,10 +33513,10 @@
         <v>54</v>
       </c>
       <c r="N4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="O4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="P4" t="s">
         <v>10</v>
@@ -33525,13 +33525,13 @@
         <v>12</v>
       </c>
       <c r="R4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="S4" t="s">
         <v>54</v>
       </c>
       <c r="T4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="U4" t="s">
         <v>58</v>
@@ -33563,19 +33563,19 @@
         <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I5" t="s">
         <v>54</v>
@@ -33584,10 +33584,10 @@
         <v>10</v>
       </c>
       <c r="K5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M5" t="s">
         <v>10</v>
@@ -33599,10 +33599,10 @@
         <v>54</v>
       </c>
       <c r="P5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="Q5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="R5" t="s">
         <v>10</v>
@@ -33661,7 +33661,7 @@
         <v>10</v>
       </c>
       <c r="J6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K6" t="s">
         <v>11</v>
@@ -33670,7 +33670,7 @@
         <v>54</v>
       </c>
       <c r="M6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="N6" t="s">
         <v>54</v>
@@ -33679,7 +33679,7 @@
         <v>54</v>
       </c>
       <c r="P6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="Q6" t="s">
         <v>10</v>
@@ -33691,7 +33691,7 @@
         <v>14</v>
       </c>
       <c r="T6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="U6" t="s">
         <v>33</v>
@@ -33729,7 +33729,7 @@
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -33741,7 +33741,7 @@
         <v>54</v>
       </c>
       <c r="J7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K7" t="s">
         <v>54</v>
@@ -33756,19 +33756,19 @@
         <v>13</v>
       </c>
       <c r="O7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="P7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="R7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="S7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="T7" t="s">
         <v>10</v>
@@ -33806,16 +33806,16 @@
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I8" t="s">
         <v>54</v>
@@ -33824,7 +33824,7 @@
         <v>54</v>
       </c>
       <c r="K8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="L8" t="s">
         <v>54</v>
@@ -33839,19 +33839,19 @@
         <v>11</v>
       </c>
       <c r="P8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="Q8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="R8" t="s">
         <v>54</v>
       </c>
       <c r="S8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="T8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="U8" t="s">
         <v>56</v>
@@ -33886,19 +33886,19 @@
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J9" t="s">
         <v>13</v>
@@ -33928,7 +33928,7 @@
         <v>54</v>
       </c>
       <c r="S9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="T9" t="s">
         <v>10</v>
@@ -33960,40 +33960,40 @@
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J10" t="s">
         <v>10</v>
       </c>
       <c r="K10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L10" t="s">
         <v>54</v>
       </c>
       <c r="M10" t="s">
+        <v>103</v>
+      </c>
+      <c r="N10" t="s">
         <v>106</v>
-      </c>
-      <c r="N10" t="s">
-        <v>109</v>
       </c>
       <c r="O10" t="s">
         <v>54</v>
@@ -34002,7 +34002,7 @@
         <v>54</v>
       </c>
       <c r="Q10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="R10" t="s">
         <v>54</v>
@@ -34043,13 +34043,13 @@
         <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -34091,7 +34091,7 @@
         <v>10</v>
       </c>
       <c r="T11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="U11" t="s">
         <v>54</v>
@@ -34185,7 +34185,7 @@
         <v>84</v>
       </c>
       <c r="U1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2">
@@ -34250,7 +34250,7 @@
         <v>12</v>
       </c>
       <c r="U2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3">
@@ -34315,7 +34315,7 @@
         <v>12</v>
       </c>
       <c r="U3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4">
@@ -34380,7 +34380,7 @@
         <v>12</v>
       </c>
       <c r="U4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5">
@@ -34445,7 +34445,7 @@
         <v>12</v>
       </c>
       <c r="U5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6">
@@ -34510,7 +34510,7 @@
         <v>12</v>
       </c>
       <c r="U6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7">
@@ -34575,7 +34575,7 @@
         <v>14</v>
       </c>
       <c r="U7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8">
@@ -34640,7 +34640,7 @@
         <v>12</v>
       </c>
       <c r="U8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9">
@@ -34705,7 +34705,7 @@
         <v>10</v>
       </c>
       <c r="U9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10">
@@ -34770,7 +34770,7 @@
         <v>12</v>
       </c>
       <c r="U10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11">
@@ -34835,7 +34835,7 @@
         <v>10</v>
       </c>
       <c r="U11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -34866,7 +34866,7 @@
         <v>25</v>
       </c>
       <c r="F1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G1" t="s">
         <v>20</v>
@@ -34878,25 +34878,25 @@
         <v>23</v>
       </c>
       <c r="J1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L1" t="s">
+        <v>121</v>
+      </c>
+      <c r="M1" t="s">
         <v>122</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>123</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>124</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>125</v>
-      </c>
-      <c r="N1" t="s">
-        <v>126</v>
-      </c>
-      <c r="O1" t="s">
-        <v>127</v>
-      </c>
-      <c r="P1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="2">
@@ -34904,22 +34904,22 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="C2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H2" t="s">
         <v>12</v>
@@ -34937,16 +34937,16 @@
         <v>52</v>
       </c>
       <c r="M2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O2" t="s">
         <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3">
@@ -34954,10 +34954,10 @@
         <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -34969,7 +34969,7 @@
         <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H3" t="s">
         <v>10</v>
@@ -34996,7 +34996,7 @@
         <v>30</v>
       </c>
       <c r="P3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4">
@@ -35010,10 +35010,10 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="E4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
@@ -35034,10 +35034,10 @@
         <v>11</v>
       </c>
       <c r="L4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N4" t="s">
         <v>48</v>
@@ -35046,7 +35046,7 @@
         <v>31</v>
       </c>
       <c r="P4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5">
@@ -35060,22 +35060,22 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" t="s">
         <v>129</v>
-      </c>
-      <c r="E5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G5" t="s">
-        <v>131</v>
       </c>
       <c r="H5" t="s">
         <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J5" t="s">
         <v>10</v>
@@ -35087,16 +35087,16 @@
         <v>44</v>
       </c>
       <c r="M5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O5" t="s">
         <v>30</v>
       </c>
       <c r="P5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6">
@@ -35110,31 +35110,31 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I6" t="s">
         <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L6" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="M6" t="s">
         <v>44</v>
@@ -35146,7 +35146,7 @@
         <v>31</v>
       </c>
       <c r="P6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7">
@@ -35157,46 +35157,46 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="H7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I7" t="s">
         <v>11</v>
       </c>
       <c r="J7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="N7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O7" t="s">
         <v>30</v>
       </c>
       <c r="P7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8">
@@ -35210,7 +35210,7 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
@@ -35222,22 +35222,22 @@
         <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="I8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J8" t="s">
         <v>13</v>
       </c>
       <c r="K8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N8" t="s">
         <v>48</v>
@@ -35246,7 +35246,7 @@
         <v>30</v>
       </c>
       <c r="P8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9">
@@ -35257,16 +35257,16 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D9" t="s">
         <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G9" t="s">
         <v>11</v>
@@ -35275,7 +35275,7 @@
         <v>11</v>
       </c>
       <c r="I9" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="J9" t="s">
         <v>12</v>
@@ -35284,10 +35284,10 @@
         <v>10</v>
       </c>
       <c r="L9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N9" t="s">
         <v>49</v>
@@ -35296,7 +35296,7 @@
         <v>30</v>
       </c>
       <c r="P9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10">
@@ -35310,7 +35310,7 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -35319,34 +35319,34 @@
         <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I10" t="s">
         <v>54</v>
       </c>
       <c r="J10" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="K10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L10" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="M10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O10" t="s">
         <v>31</v>
       </c>
       <c r="P10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11">
@@ -35357,7 +35357,7 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -35366,7 +35366,7 @@
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -35375,19 +35375,19 @@
         <v>12</v>
       </c>
       <c r="I11" t="s">
+        <v>127</v>
+      </c>
+      <c r="J11" t="s">
         <v>129</v>
       </c>
-      <c r="J11" t="s">
-        <v>131</v>
-      </c>
       <c r="K11" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="L11" t="s">
         <v>45</v>
       </c>
       <c r="M11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N11" t="s">
         <v>51</v>
@@ -35396,7 +35396,7 @@
         <v>31</v>
       </c>
       <c r="P11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -35427,7 +35427,7 @@
         <v>25</v>
       </c>
       <c r="F1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G1" t="s">
         <v>20</v>
@@ -35439,25 +35439,25 @@
         <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L1" t="s">
+        <v>155</v>
+      </c>
+      <c r="M1" t="s">
         <v>156</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>157</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>124</v>
+      </c>
+      <c r="P1" t="s">
         <v>158</v>
-      </c>
-      <c r="O1" t="s">
-        <v>127</v>
-      </c>
-      <c r="P1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="2">
@@ -35465,7 +35465,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -35474,19 +35474,19 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" t="s">
         <v>129</v>
       </c>
-      <c r="F2" t="s">
-        <v>131</v>
-      </c>
       <c r="G2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J2" t="s">
         <v>13</v>
@@ -35498,16 +35498,16 @@
         <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O2" t="s">
         <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3">
@@ -35515,10 +35515,10 @@
         <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -35530,7 +35530,7 @@
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H3" t="s">
         <v>11</v>
@@ -35548,16 +35548,16 @@
         <v>46</v>
       </c>
       <c r="M3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O3" t="s">
         <v>30</v>
       </c>
       <c r="P3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4">
@@ -35571,13 +35571,13 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
@@ -35586,7 +35586,7 @@
         <v>11</v>
       </c>
       <c r="I4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J4" t="s">
         <v>54</v>
@@ -35601,13 +35601,13 @@
         <v>46</v>
       </c>
       <c r="N4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O4" t="s">
         <v>31</v>
       </c>
       <c r="P4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5">
@@ -35618,46 +35618,46 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E5" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="F5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I5" t="s">
         <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K5" t="s">
         <v>17</v>
       </c>
       <c r="L5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M5" t="s">
         <v>43</v>
       </c>
       <c r="N5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O5" t="s">
         <v>30</v>
       </c>
       <c r="P5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6">
@@ -35671,13 +35671,13 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
@@ -35692,22 +35692,22 @@
         <v>12</v>
       </c>
       <c r="K6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M6" t="s">
         <v>43</v>
       </c>
       <c r="N6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O6" t="s">
         <v>31</v>
       </c>
       <c r="P6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7">
@@ -35718,7 +35718,7 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -35730,10 +35730,10 @@
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="H7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I7" t="s">
         <v>13</v>
@@ -35748,16 +35748,16 @@
         <v>47</v>
       </c>
       <c r="M7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O7" t="s">
         <v>30</v>
       </c>
       <c r="P7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8">
@@ -35765,13 +35765,13 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -35780,10 +35780,10 @@
         <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H8" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="I8" t="s">
         <v>12</v>
@@ -35801,13 +35801,13 @@
         <v>45</v>
       </c>
       <c r="N8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O8" t="s">
         <v>30</v>
       </c>
       <c r="P8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9">
@@ -35815,7 +35815,7 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -35827,16 +35827,16 @@
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H9" t="s">
         <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="J9" t="s">
         <v>12</v>
@@ -35845,19 +35845,19 @@
         <v>13</v>
       </c>
       <c r="L9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O9" t="s">
         <v>30</v>
       </c>
       <c r="P9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10">
@@ -35865,7 +35865,7 @@
         <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
@@ -35874,13 +35874,13 @@
         <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H10" t="s">
         <v>12</v>
@@ -35889,25 +35889,25 @@
         <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="K10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L10" t="s">
         <v>52</v>
       </c>
       <c r="M10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O10" t="s">
         <v>31</v>
       </c>
       <c r="P10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11">
@@ -35915,13 +35915,13 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
@@ -35942,22 +35942,22 @@
         <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="L11" t="s">
         <v>46</v>
       </c>
       <c r="M11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O11" t="s">
         <v>31</v>
       </c>
       <c r="P11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -35988,7 +35988,7 @@
         <v>25</v>
       </c>
       <c r="F1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G1" t="s">
         <v>20</v>
@@ -36000,25 +36000,25 @@
         <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L1" t="s">
+        <v>180</v>
+      </c>
+      <c r="M1" t="s">
         <v>181</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>182</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>124</v>
+      </c>
+      <c r="P1" t="s">
         <v>183</v>
-      </c>
-      <c r="O1" t="s">
-        <v>127</v>
-      </c>
-      <c r="P1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="2">
@@ -36026,22 +36026,22 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="C2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D2" t="s">
         <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F2" t="s">
         <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H2" t="s">
         <v>54</v>
@@ -36056,10 +36056,10 @@
         <v>54</v>
       </c>
       <c r="L2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N2" t="s">
         <v>11</v>
@@ -36068,7 +36068,7 @@
         <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3">
@@ -36079,7 +36079,7 @@
         <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="D3" t="s">
         <v>54</v>
@@ -36091,7 +36091,7 @@
         <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H3" t="s">
         <v>54</v>
@@ -36106,19 +36106,19 @@
         <v>10</v>
       </c>
       <c r="L3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M3" t="s">
         <v>10</v>
       </c>
       <c r="N3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O3" t="s">
         <v>30</v>
       </c>
       <c r="P3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4">
@@ -36132,7 +36132,7 @@
         <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="E4" t="s">
         <v>54</v>
@@ -36159,16 +36159,16 @@
         <v>54</v>
       </c>
       <c r="M4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O4" t="s">
         <v>31</v>
       </c>
       <c r="P4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5">
@@ -36182,43 +36182,43 @@
         <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E5" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="F5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I5" t="s">
         <v>54</v>
       </c>
       <c r="J5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K5" t="s">
         <v>54</v>
       </c>
       <c r="L5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M5" t="s">
         <v>10</v>
       </c>
       <c r="N5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O5" t="s">
         <v>30</v>
       </c>
       <c r="P5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6">
@@ -36229,7 +36229,7 @@
         <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D6" t="s">
         <v>54</v>
@@ -36238,7 +36238,7 @@
         <v>54</v>
       </c>
       <c r="F6" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="G6" t="s">
         <v>54</v>
@@ -36256,19 +36256,19 @@
         <v>54</v>
       </c>
       <c r="L6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M6" t="s">
         <v>11</v>
       </c>
       <c r="N6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O6" t="s">
         <v>31</v>
       </c>
       <c r="P6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7">
@@ -36291,10 +36291,10 @@
         <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="H7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I7" t="s">
         <v>54</v>
@@ -36306,10 +36306,10 @@
         <v>54</v>
       </c>
       <c r="L7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N7" t="s">
         <v>12</v>
@@ -36318,7 +36318,7 @@
         <v>30</v>
       </c>
       <c r="P7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8">
@@ -36344,7 +36344,7 @@
         <v>54</v>
       </c>
       <c r="H8" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="I8" t="s">
         <v>54</v>
@@ -36368,7 +36368,7 @@
         <v>30</v>
       </c>
       <c r="P8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9">
@@ -36397,7 +36397,7 @@
         <v>54</v>
       </c>
       <c r="I9" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="J9" t="s">
         <v>54</v>
@@ -36418,7 +36418,7 @@
         <v>30</v>
       </c>
       <c r="P9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10">
@@ -36426,7 +36426,7 @@
         <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C10" t="s">
         <v>54</v>
@@ -36435,7 +36435,7 @@
         <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F10" t="s">
         <v>54</v>
@@ -36450,7 +36450,7 @@
         <v>54</v>
       </c>
       <c r="J10" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="K10" t="s">
         <v>54</v>
@@ -36459,16 +36459,16 @@
         <v>10</v>
       </c>
       <c r="M10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O10" t="s">
         <v>31</v>
       </c>
       <c r="P10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11">
@@ -36488,7 +36488,7 @@
         <v>54</v>
       </c>
       <c r="F11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G11" t="s">
         <v>54</v>
@@ -36503,22 +36503,22 @@
         <v>54</v>
       </c>
       <c r="K11" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="L11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M11" t="s">
         <v>11</v>
       </c>
       <c r="N11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O11" t="s">
         <v>31</v>
       </c>
       <c r="P11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/Divisions/SC1.xlsx
+++ b/Divisions/SC1.xlsx
@@ -17,13 +17,12 @@
     <sheet name="Red Totals" r:id="rId11" sheetId="9"/>
     <sheet name="OVUN" r:id="rId12" sheetId="10"/>
     <sheet name="Shots Analysis" r:id="rId13" sheetId="11"/>
-    <sheet name="L6" r:id="rId14" sheetId="12"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2261" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2174" uniqueCount="284">
   <si>
     <t>Team</t>
   </si>
@@ -875,237 +874,6 @@
   </si>
   <si>
     <t>31.88%</t>
-  </si>
-  <si>
-    <t>Form</t>
-  </si>
-  <si>
-    <t>Goals scored</t>
-  </si>
-  <si>
-    <t>Goals conceded</t>
-  </si>
-  <si>
-    <t>Total Goals</t>
-  </si>
-  <si>
-    <t>CSForm</t>
-  </si>
-  <si>
-    <t>Win Margin</t>
-  </si>
-  <si>
-    <t>Team against</t>
-  </si>
-  <si>
-    <t>Arbroath,D W W D W W</t>
-  </si>
-  <si>
-    <t>Ayr,D L L D D W</t>
-  </si>
-  <si>
-    <t>Dunfermline,D D W W W L</t>
-  </si>
-  <si>
-    <t>Hamilton,W D D W L L</t>
-  </si>
-  <si>
-    <t>Inverness C,D L W W W W</t>
-  </si>
-  <si>
-    <t>Kilmarnock,W W W W W W</t>
-  </si>
-  <si>
-    <t>Morton,D W D D L L</t>
-  </si>
-  <si>
-    <t>Partick,W W L D L W</t>
-  </si>
-  <si>
-    <t>Queen of Sth,D W L L W D</t>
-  </si>
-  <si>
-    <t>Raith Rvs,D D L L L D</t>
-  </si>
-  <si>
-    <t>Arbroath,1 1 1 3 5 3,(14)</t>
-  </si>
-  <si>
-    <t>Ayr,1 0 1 1 2 3,(8)</t>
-  </si>
-  <si>
-    <t>Dunfermline,0 1 4 2 2 1,(10)</t>
-  </si>
-  <si>
-    <t>Hamilton,1 1 2 1 0 0,(5)</t>
-  </si>
-  <si>
-    <t>Inverness C,3 1 3 2 2 4,(15)</t>
-  </si>
-  <si>
-    <t>Kilmarnock,3 2 2 2 2 2,(13)</t>
-  </si>
-  <si>
-    <t>Morton,0 2 1 1 0 0,(4)</t>
-  </si>
-  <si>
-    <t>Partick,1 1 0 0 0 1,(3)</t>
-  </si>
-  <si>
-    <t>Queen of Sth,0 3 0 0 2 1,(6)</t>
-  </si>
-  <si>
-    <t>Raith Rvs,0 0 0 2 0 1,(3)</t>
-  </si>
-  <si>
-    <t>Arbroath,1 0 0 3 1 0,(5)</t>
-  </si>
-  <si>
-    <t>Ayr,1 1 3 1 2 1,(9)</t>
-  </si>
-  <si>
-    <t>Dunfermline,0 1 1 0 1 2,(5)</t>
-  </si>
-  <si>
-    <t>Hamilton,0 1 2 0 1 2,(6)</t>
-  </si>
-  <si>
-    <t>Inverness C,3 2 0 0 1 0,(6)</t>
-  </si>
-  <si>
-    <t>Kilmarnock,0 0 1 1 0 1,(3)</t>
-  </si>
-  <si>
-    <t>Morton,0 1 1 1 1 1,(5)</t>
-  </si>
-  <si>
-    <t>Partick,0 0 4 0 1 0,(5)</t>
-  </si>
-  <si>
-    <t>Queen of Sth,0 0 1 1 1 1,(4)</t>
-  </si>
-  <si>
-    <t>Raith Rvs,0 0 4 3 1 1,(9)</t>
-  </si>
-  <si>
-    <t>Arbroath,2 1 1 6 6 3,(19)</t>
-  </si>
-  <si>
-    <t>Ayr,2 1 4 2 4 4,(17)</t>
-  </si>
-  <si>
-    <t>Dunfermline,0 2 5 2 3 3,(15)</t>
-  </si>
-  <si>
-    <t>Hamilton,1 2 4 1 1 2,(11)</t>
-  </si>
-  <si>
-    <t>Inverness C,6 3 3 2 3 4,(21)</t>
-  </si>
-  <si>
-    <t>Kilmarnock,3 2 3 3 2 3,(16)</t>
-  </si>
-  <si>
-    <t>Morton,0 3 2 2 1 1,(9)</t>
-  </si>
-  <si>
-    <t>Partick,1 1 4 0 1 1,(8)</t>
-  </si>
-  <si>
-    <t>Queen of Sth,0 3 1 1 3 2,(10)</t>
-  </si>
-  <si>
-    <t>Raith Rvs,0 0 4 5 1 2,(12)</t>
-  </si>
-  <si>
-    <t>Arbroath,1-1 1-0 1-0 3-3 5-1 3-0</t>
-  </si>
-  <si>
-    <t>Ayr,1-1 0-1 1-3 1-1 2-2 3-1</t>
-  </si>
-  <si>
-    <t>Dunfermline,0-0 1-1 4-1 2-0 2-1 1-2</t>
-  </si>
-  <si>
-    <t>Hamilton,1-0 1-1 2-2 1-0 0-1 0-2</t>
-  </si>
-  <si>
-    <t>Inverness C,3-3 1-2 3-0 2-0 2-1 4-0</t>
-  </si>
-  <si>
-    <t>Kilmarnock,3-0 2-0 2-1 2-1 2-0 2-1</t>
-  </si>
-  <si>
-    <t>Morton,0-0 2-1 1-1 1-1 0-1 0-1</t>
-  </si>
-  <si>
-    <t>Partick,1-0 1-0 0-4 0-0 0-1 1-0</t>
-  </si>
-  <si>
-    <t>Queen of Sth,0-0 3-0 0-1 0-1 2-1 1-1</t>
-  </si>
-  <si>
-    <t>Raith Rvs,0-0 0-0 0-4 2-3 0-1 1-1</t>
-  </si>
-  <si>
-    <t>Arbroath,0 1 1 0 4 3,(9)</t>
-  </si>
-  <si>
-    <t>Ayr,0 -1 -2 0 0 2,(-1)</t>
-  </si>
-  <si>
-    <t>Dunfermline,0 0 3 2 1 -1,(5)</t>
-  </si>
-  <si>
-    <t>Hamilton,1 0 0 1 -1 -2,(-1)</t>
-  </si>
-  <si>
-    <t>Inverness C,0 -1 3 2 1 4,(9)</t>
-  </si>
-  <si>
-    <t>Kilmarnock,3 2 1 1 2 1,(10)</t>
-  </si>
-  <si>
-    <t>Morton,0 1 0 0 -1 -1,(-1)</t>
-  </si>
-  <si>
-    <t>Partick,1 1 -4 0 -1 1,(-2)</t>
-  </si>
-  <si>
-    <t>Queen of Sth,0 3 -1 -1 1 0,(2)</t>
-  </si>
-  <si>
-    <t>Raith Rvs,0 0 -4 -1 -1 0,(-6)</t>
-  </si>
-  <si>
-    <t>Arbroath,Partick(4) Dunfermline(9) Ayr(8) Raith Rvs(5) Queen of Sth(10) Morton(7)</t>
-  </si>
-  <si>
-    <t>Ayr,Dunfermline(9) Queen of Sth(10) Kilmarnock(1) Hamilton(6) Inverness C(3) Partick(4)</t>
-  </si>
-  <si>
-    <t>Dunfermline,Kilmarnock(1) Morton(7) Partick(4) Raith Rvs(5) Ayr(8) Queen of Sth(10)</t>
-  </si>
-  <si>
-    <t>Hamilton,Morton(7) Inverness C(3) Dunfermline(9) Queen of Sth(10) Arbroath(2) Raith Rvs(5)</t>
-  </si>
-  <si>
-    <t>Inverness C,Partick(4) Ayr(8) Arbroath(2) Dunfermline(9) Kilmarnock(1) Hamilton(6)</t>
-  </si>
-  <si>
-    <t>Kilmarnock,Raith Rvs(5) Hamilton(6) Queen of Sth(10) Partick(4) Dunfermline(9) Arbroath(2)</t>
-  </si>
-  <si>
-    <t>Morton,Arbroath(2) Partick(4) Ayr(8) Kilmarnock(1) Hamilton(6) Inverness C(3)</t>
-  </si>
-  <si>
-    <t>Partick,Inverness C(3) Queen of Sth(10) Hamilton(6) Arbroath(2) Raith Rvs(5) Dunfermline(9)</t>
-  </si>
-  <si>
-    <t>Queen of Sth,Arbroath(2) Morton(7) Raith Rvs(5) Partick(4) Inverness C(3) Ayr(8)</t>
-  </si>
-  <si>
-    <t>Raith Rvs,Hamilton(6) Partick(4) Ayr(8) Inverness C(3) Morton(7) Kilmarnock(1)</t>
   </si>
 </sst>
 </file>
@@ -2897,303 +2665,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1"/>
-      <c r="B1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C1" t="s">
-        <v>285</v>
-      </c>
-      <c r="D1" t="s">
-        <v>286</v>
-      </c>
-      <c r="E1" t="s">
-        <v>287</v>
-      </c>
-      <c r="F1" t="s">
-        <v>288</v>
-      </c>
-      <c r="G1" t="s">
-        <v>289</v>
-      </c>
-      <c r="H1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C2" t="s">
-        <v>301</v>
-      </c>
-      <c r="D2" t="s">
-        <v>311</v>
-      </c>
-      <c r="E2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F2" t="s">
-        <v>331</v>
-      </c>
-      <c r="G2" t="s">
-        <v>341</v>
-      </c>
-      <c r="H2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>292</v>
-      </c>
-      <c r="C3" t="s">
-        <v>302</v>
-      </c>
-      <c r="D3" t="s">
-        <v>312</v>
-      </c>
-      <c r="E3" t="s">
-        <v>322</v>
-      </c>
-      <c r="F3" t="s">
-        <v>332</v>
-      </c>
-      <c r="G3" t="s">
-        <v>342</v>
-      </c>
-      <c r="H3" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>293</v>
-      </c>
-      <c r="C4" t="s">
-        <v>303</v>
-      </c>
-      <c r="D4" t="s">
-        <v>313</v>
-      </c>
-      <c r="E4" t="s">
-        <v>323</v>
-      </c>
-      <c r="F4" t="s">
-        <v>333</v>
-      </c>
-      <c r="G4" t="s">
-        <v>343</v>
-      </c>
-      <c r="H4" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>294</v>
-      </c>
-      <c r="C5" t="s">
-        <v>304</v>
-      </c>
-      <c r="D5" t="s">
-        <v>314</v>
-      </c>
-      <c r="E5" t="s">
-        <v>324</v>
-      </c>
-      <c r="F5" t="s">
-        <v>334</v>
-      </c>
-      <c r="G5" t="s">
-        <v>344</v>
-      </c>
-      <c r="H5" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>295</v>
-      </c>
-      <c r="C6" t="s">
-        <v>305</v>
-      </c>
-      <c r="D6" t="s">
-        <v>315</v>
-      </c>
-      <c r="E6" t="s">
-        <v>325</v>
-      </c>
-      <c r="F6" t="s">
-        <v>335</v>
-      </c>
-      <c r="G6" t="s">
-        <v>345</v>
-      </c>
-      <c r="H6" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>296</v>
-      </c>
-      <c r="C7" t="s">
-        <v>306</v>
-      </c>
-      <c r="D7" t="s">
-        <v>316</v>
-      </c>
-      <c r="E7" t="s">
-        <v>326</v>
-      </c>
-      <c r="F7" t="s">
-        <v>336</v>
-      </c>
-      <c r="G7" t="s">
-        <v>346</v>
-      </c>
-      <c r="H7" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>297</v>
-      </c>
-      <c r="C8" t="s">
-        <v>307</v>
-      </c>
-      <c r="D8" t="s">
-        <v>317</v>
-      </c>
-      <c r="E8" t="s">
-        <v>327</v>
-      </c>
-      <c r="F8" t="s">
-        <v>337</v>
-      </c>
-      <c r="G8" t="s">
-        <v>347</v>
-      </c>
-      <c r="H8" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>298</v>
-      </c>
-      <c r="C9" t="s">
-        <v>308</v>
-      </c>
-      <c r="D9" t="s">
-        <v>318</v>
-      </c>
-      <c r="E9" t="s">
-        <v>328</v>
-      </c>
-      <c r="F9" t="s">
-        <v>338</v>
-      </c>
-      <c r="G9" t="s">
-        <v>348</v>
-      </c>
-      <c r="H9" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>299</v>
-      </c>
-      <c r="C10" t="s">
-        <v>309</v>
-      </c>
-      <c r="D10" t="s">
-        <v>319</v>
-      </c>
-      <c r="E10" t="s">
-        <v>329</v>
-      </c>
-      <c r="F10" t="s">
-        <v>339</v>
-      </c>
-      <c r="G10" t="s">
-        <v>349</v>
-      </c>
-      <c r="H10" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>300</v>
-      </c>
-      <c r="C11" t="s">
-        <v>310</v>
-      </c>
-      <c r="D11" t="s">
-        <v>320</v>
-      </c>
-      <c r="E11" t="s">
-        <v>330</v>
-      </c>
-      <c r="F11" t="s">
-        <v>340</v>
-      </c>
-      <c r="G11" t="s">
-        <v>350</v>
-      </c>
-      <c r="H11" t="s">
-        <v>360</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
